--- a/results/RT/hela_mod_validation_set_prediction.xlsx
+++ b/results/RT/hela_mod_validation_set_prediction.xlsx
@@ -453,807 +453,807 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GADINAPDK</t>
+          <t>YEYDPDIPPRK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2270.3701171875</v>
+        <v>3895.2060546875</v>
       </c>
       <c r="C2" t="n">
-        <v>2195.93798828125</v>
+        <v>3611.66796875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NIIHGDSVESAEK</t>
+          <t>GRTWLCGTPEYLAPEIILSK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3130.81201171875</v>
+        <v>6172.14013671875</v>
       </c>
       <c r="C3" t="n">
-        <v>2985.30810546875</v>
+        <v>5932.38916015625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LIHEQEQQSSS</t>
+          <t>NQDLCQQEAVK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2005.77001953125</v>
+        <v>2563.39208984375</v>
       </c>
       <c r="C4" t="n">
-        <v>2217.41455078125</v>
+        <v>2614.732421875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EQFENHNPINSATSISNIISIETPNTAPSSK</t>
+          <t>CTPRSSDTEENVK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5862.0361328125</v>
+        <v>2044.151977539062</v>
       </c>
       <c r="C5" t="n">
-        <v>5645.93115234375</v>
+        <v>2079.424072265625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SNNSMAQAMK</t>
+          <t>VQDDEVGDGTTSVTVLAAELLREAESLIAK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2382.27001953125</v>
+        <v>6421.97998046875</v>
       </c>
       <c r="C6" t="n">
-        <v>2436.97607421875</v>
+        <v>6517.38427734375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SPYASLCQVEFGNFNNLSNHSGNNVNYNASQQCQAPGVQK</t>
+          <t>VLTDAVDDITSIDDFLAVSENHILEDVNK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5494.337890625</v>
+        <v>6275.10009765625</v>
       </c>
       <c r="C7" t="n">
-        <v>5783.69970703125</v>
+        <v>6368.3251953125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRLDFPQNEPQIK</t>
+          <t>RTVSQQFDGVSLDSSGPEDR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4309.52392578125</v>
+        <v>4435.5361328125</v>
       </c>
       <c r="C8" t="n">
-        <v>4689.8427734375</v>
+        <v>3965.959716796875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NHAGPGCEESDAGK</t>
+          <t>MSHSSSGSASLSQVPGK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1769.657958984375</v>
+        <v>2712.258056640625</v>
       </c>
       <c r="C9" t="n">
-        <v>1761.580200195312</v>
+        <v>2961.08837890625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LPHVLLEIQK</t>
+          <t>SLGQWLQEEK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4895.05810546875</v>
+        <v>4829.4658203125</v>
       </c>
       <c r="C10" t="n">
-        <v>5217.8349609375</v>
+        <v>4611.59765625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LREQGTERSTPLPTISSSAENTR</t>
+          <t>DLSLDDFK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4061.0458984375</v>
+        <v>5089.64990234375</v>
       </c>
       <c r="C11" t="n">
-        <v>4030.97509765625</v>
+        <v>4607.818359375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LHVGNIPTCTNQELR</t>
+          <t>DLGLPTEAYISVEEVHDDGTPTSK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4204.0498046875</v>
+        <v>5817.4560546875</v>
       </c>
       <c r="C12" t="n">
-        <v>4207.4296875</v>
+        <v>5346.82177734375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCK</t>
+          <t>SYSSLRGMPSALK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5065.74609375</v>
+        <v>4297.68017578125</v>
       </c>
       <c r="C13" t="n">
-        <v>4826.02978515625</v>
+        <v>4410.1396484375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARAGGGPTLQCPPPSPEK</t>
+          <t>IPSVTSGTTSSSNTMVAPTDGNPDNKPIK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3064.181884765625</v>
+        <v>4050.8701171875</v>
       </c>
       <c r="C14" t="n">
-        <v>3076.27685546875</v>
+        <v>4174.82861328125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>REEDDPEEPDDHEK</t>
+          <t>QGCDCECLGGGR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2105.7900390625</v>
+        <v>2378.31005859375</v>
       </c>
       <c r="C15" t="n">
-        <v>2027.900024414062</v>
+        <v>2321.2236328125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GEPGADGEAGRPGSSGPSGDEGQPGEPGPPGEK</t>
+          <t>RLLEDGEDFNLGDALDSNSMQTIQK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3005.087890625</v>
+        <v>6005.27978515625</v>
       </c>
       <c r="C16" t="n">
-        <v>2972.2666015625</v>
+        <v>6063.45166015625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WTPIEYFNNK</t>
+          <t>SRGSDPAADVEIEYVTEEPEIYEPNFIFFK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5540.09423828125</v>
+        <v>6218.64013671875</v>
       </c>
       <c r="C17" t="n">
-        <v>5284.6162109375</v>
+        <v>6204.49560546875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QTQAASASQGSASAAEVLLRTATANGFQMVTSGVQSK</t>
+          <t>EHAPLAPVENK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6146.580078125</v>
+        <v>2929.5</v>
       </c>
       <c r="C18" t="n">
-        <v>5907.013671875</v>
+        <v>3007.039306640625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GLGHPPSPLLK</t>
+          <t>LQENEEEEIGNLELAWDMLDLAK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4010.508056640625</v>
+        <v>6383.39990234375</v>
       </c>
       <c r="C19" t="n">
-        <v>4022.6162109375</v>
+        <v>6403.80517578125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HSTSPSLDSEYNEELNEDDSQDEK</t>
+          <t>NNVVINYK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3963.239990234375</v>
+        <v>3257.00390625</v>
       </c>
       <c r="C20" t="n">
-        <v>3766.064697265625</v>
+        <v>3254.238037109375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RTELVLSPDPR</t>
+          <t>QTQAASASQGSASAAEVLLRTATANGFQMVTSGVQSK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4012.697998046875</v>
+        <v>6146.580078125</v>
       </c>
       <c r="C21" t="n">
-        <v>3951.7626953125</v>
+        <v>5745.33154296875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NIGRDPTSAGPNSFNK</t>
+          <t>SALMDESEDSGVIPGSHSENALHAEEEEGEGGK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3204.132080078125</v>
+        <v>4427.490234375</v>
       </c>
       <c r="C22" t="n">
-        <v>3133.50927734375</v>
+        <v>4268.80615234375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LSDCEGSVHCEVPSEQYACEGKPPDPDEGSTK</t>
+          <t>LREQGTERSTPLPTISSSAENTR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3838.577880859375</v>
+        <v>4061.0458984375</v>
       </c>
       <c r="C23" t="n">
-        <v>3896.462158203125</v>
+        <v>3908.12646484375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SGGNEVSIEER</t>
+          <t>DSTLIMQLLRDNLTLWTSDSAGEECDAAEGAEN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2721.659912109375</v>
+        <v>6367.2001953125</v>
       </c>
       <c r="C24" t="n">
-        <v>2690.06103515625</v>
+        <v>6416.87841796875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CIEVMGDGCLNNEHFEELGGILK</t>
+          <t>CSQSNNQFQK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6031.3798828125</v>
+        <v>1886.567993164062</v>
       </c>
       <c r="C25" t="n">
-        <v>5965.45263671875</v>
+        <v>2029.254028320312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NNQGNSFQAK</t>
+          <t>ASFEEASNQLINHIEQFLDTNETPYFMK</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1925.244018554688</v>
+        <v>6280.68017578125</v>
       </c>
       <c r="C26" t="n">
-        <v>2222.38916015625</v>
+        <v>6350.6611328125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LNHVAAGLVPSLK</t>
+          <t>GHTASEDEQQWPEEK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4374.666015625</v>
+        <v>3061.944091796875</v>
       </c>
       <c r="C27" t="n">
-        <v>4998.2392578125</v>
+        <v>3126.681640625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GPKPEPPGSGPAPPR</t>
+          <t>ANNLSSLSK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2726.364013671875</v>
+        <v>2631.714111328125</v>
       </c>
       <c r="C28" t="n">
-        <v>2709.902099609375</v>
+        <v>2838.147705078125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DDDSLEASHSK</t>
+          <t>RTTPSDTDLLDRSASK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2398.637939453125</v>
+        <v>3583.998046875</v>
       </c>
       <c r="C29" t="n">
-        <v>1987.811401367188</v>
+        <v>3600.47900390625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VSLERLDLDLTADQPPVFK</t>
+          <t>EHALLATLGVK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6105.89990234375</v>
+        <v>5335.841796875</v>
       </c>
       <c r="C30" t="n">
-        <v>5660.107421875</v>
+        <v>4940.521484375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GGGSGTSLEREQFEGLGSPDAK</t>
+          <t>QQVPSGESAILDRVADGVFGALLPCEECSGQLVFK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4210.81787109375</v>
+        <v>6162.2998046875</v>
       </c>
       <c r="C31" t="n">
-        <v>4337.98095703125</v>
+        <v>6232.06201171875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GSRVDIETPNLEGLTGPR</t>
+          <t>DSLSVSSNDASPPASVASLQPHIGAQSSPGPK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4832.65185546875</v>
+        <v>4758.666015625</v>
       </c>
       <c r="C32" t="n">
-        <v>5103.869140625</v>
+        <v>4784.111328125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SINEGLTLNNSHVSK</t>
+          <t>LHVGNIPTCTNQELR</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3835.7939453125</v>
+        <v>4204.0498046875</v>
       </c>
       <c r="C33" t="n">
-        <v>3907.27685546875</v>
+        <v>4423.59375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DSRPSQAAGDNQGDEAK</t>
+          <t>LAAAISEVVSQTPASTTQAGAPPRDTSQSDK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1787.838012695312</v>
+        <v>4644.40185546875</v>
       </c>
       <c r="C34" t="n">
-        <v>1856.449584960938</v>
+        <v>4393.990234375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SENENQEQIEESK</t>
+          <t>QGTAVEVEAESLDPTVKPVDVGGDEPEEK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2227.800048828125</v>
+        <v>5019.587890625</v>
       </c>
       <c r="C35" t="n">
-        <v>2169.701171875</v>
+        <v>5005.61669921875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RTTPSDTDLLDRSASK</t>
+          <t>AEAPLPPKLEGELQAPDLELSLPAIHVEGLDIK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3583.998046875</v>
+        <v>6168.89990234375</v>
       </c>
       <c r="C36" t="n">
-        <v>3541.961181640625</v>
+        <v>6192.056640625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NSSQSGGKPGSPITK</t>
+          <t>QGDLSANQDEETDQETFQLEIDRDTK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2013.534057617188</v>
+        <v>4810.998046875</v>
       </c>
       <c r="C37" t="n">
-        <v>2160.13623046875</v>
+        <v>4847.22314453125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRDWEQFEYK</t>
+          <t>SFLSEPSPGRTK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4661.47216796875</v>
+        <v>3563.285888671875</v>
       </c>
       <c r="C38" t="n">
-        <v>5102.375</v>
+        <v>3276.2734375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IVRGDQPAAGDSDDDEPPPLPR</t>
+          <t>SRDVDDAAAEATR</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3987.89404296875</v>
+        <v>2612.736083984375</v>
       </c>
       <c r="C39" t="n">
-        <v>4101.1220703125</v>
+        <v>2539.615966796875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DFCVHGGAGGGAGSSGGSSSQTPSTDPFPGSPAIPAEK</t>
+          <t>TPENHPETPK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4961.39990234375</v>
+        <v>1932.660034179688</v>
       </c>
       <c r="C40" t="n">
-        <v>4517.9482421875</v>
+        <v>1800.00244140625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TPTQLEGAR</t>
+          <t>SRSEPSPDAPESPSSCSPK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.9580078125</v>
+        <v>2593.367919921875</v>
       </c>
       <c r="C41" t="n">
-        <v>2501.4521484375</v>
+        <v>2289.028076171875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HQAEFTISYDNEK</t>
+          <t>NIIHGDSVESAEK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4075.134033203125</v>
+        <v>3130.81201171875</v>
       </c>
       <c r="C42" t="n">
-        <v>3914.58251953125</v>
+        <v>3042.295166015625</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KDDEDDDEEEYGK</t>
+          <t>ADREVQAEQPSSSPR</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2261.093994140625</v>
+        <v>2245.39794921875</v>
       </c>
       <c r="C43" t="n">
-        <v>2254.788818359375</v>
+        <v>2235.34228515625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TLTRTQETADVK</t>
+          <t>GADINAPDK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2542.590087890625</v>
+        <v>2270.3701171875</v>
       </c>
       <c r="C44" t="n">
-        <v>2659.443603515625</v>
+        <v>2204.393798828125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YINENLIVNTDELGRDCLINAAK</t>
+          <t>INSSGEGDESDEFLQSRK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5810.02197265625</v>
+        <v>3694.0439453125</v>
       </c>
       <c r="C45" t="n">
-        <v>6005.25439453125</v>
+        <v>3656.353271484375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LHPSDQCPPR</t>
+          <t>YNLDAEEEDSNKK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2239.278076171875</v>
+        <v>2844.18603515625</v>
       </c>
       <c r="C46" t="n">
-        <v>2225.6171875</v>
+        <v>2470.49072265625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ASTSDYQVISDRQPK</t>
+          <t>AKPAPQDSVPPR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3376.176025390625</v>
+        <v>2757.4560546875</v>
       </c>
       <c r="C47" t="n">
-        <v>3302.8544921875</v>
+        <v>2574.0986328125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EGDVEEPTDDSLPTTGDAGGREPEEK</t>
+          <t>ETENNVEKPDNDEDESEVPSLPLGLTGAFEDTSFASLCNLVNENTLK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3635.00390625</v>
+        <v>6253.5</v>
       </c>
       <c r="C48" t="n">
-        <v>3629.986328125</v>
+        <v>6671.9482421875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KLGAGEGGEASVPEK</t>
+          <t>RPEPSEISPIK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2605.968017578125</v>
+        <v>3645.419921875</v>
       </c>
       <c r="C49" t="n">
-        <v>2695.01611328125</v>
+        <v>3536.0927734375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GSGTAEVELK</t>
+          <t>DQGGYTMHQDQEGDTDAGLKEPLQTPTEDGSEEPGSETSDAK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2829.68408203125</v>
+        <v>4162.30810546875</v>
       </c>
       <c r="C50" t="n">
-        <v>2899.174560546875</v>
+        <v>4450.62158203125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NNCPFADENYRPLAK</t>
+          <t>AEEATEAQEVVEATPEGACTEPREPPGLIFNK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4350.56396484375</v>
+        <v>5322.7021484375</v>
       </c>
       <c r="C51" t="n">
-        <v>4552.12060546875</v>
+        <v>5560.33349609375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GHEEGFLNNGEFLFNK</t>
+          <t>SKAEDGEEDEVSAGEK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5853.11376953125</v>
+        <v>2376.91796875</v>
       </c>
       <c r="C52" t="n">
-        <v>5499.72265625</v>
+        <v>2298.832763671875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AGYSDESSSSSLHATR</t>
+          <t>VADGLPLAASMQEDEQSGRDLQQYQSQAK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2685.833984375</v>
+        <v>5022.94189453125</v>
       </c>
       <c r="C53" t="n">
-        <v>2600.067626953125</v>
+        <v>5042.423828125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EVSRPTTSSITSGYFSHSASNATLSDMVVPSSDSSDQLAIQTK</t>
+          <t>NSLVSPAQEPAPLQTAEPQTTVVHNATDGIK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5824.0859375</v>
+        <v>5025.81591796875</v>
       </c>
       <c r="C54" t="n">
-        <v>6330.37158203125</v>
+        <v>4968.56640625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NLPYKVQDELK</t>
+          <t>TSADAQEPASPVVSPQQPPTSPHWRK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4187.57421875</v>
+        <v>4155.66015625</v>
       </c>
       <c r="C55" t="n">
-        <v>4271.94580078125</v>
+        <v>4229.11279296875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DQGGYTMHQDQEGDTDAGLKEPLQTPTEDGSEEPGSETSDAK</t>
+          <t>MRIPNYQLPTK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4162.30810546875</v>
+        <v>4382.580078125</v>
       </c>
       <c r="C56" t="n">
-        <v>4479.16748046875</v>
+        <v>4403.28662109375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>QGTAVEVEAESLDPTVKPVDVGGDEPEEK</t>
+          <t>ASEPLLPPPFGESRK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5019.587890625</v>
+        <v>5056.3017578125</v>
       </c>
       <c r="C57" t="n">
-        <v>5265.4208984375</v>
+        <v>4925.94580078125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SCTPPDQISHR</t>
+          <t>RNSSEASSGDFLDLK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2869.919921875</v>
+        <v>4165.10400390625</v>
       </c>
       <c r="C58" t="n">
-        <v>2605.915771484375</v>
+        <v>4404.75927734375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TLSTIATSTDAASVVHSTDLVVEAIVENLK</t>
+          <t>QGASVASGSGTVHTSAVSLPSNAAVSK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6314.81982421875</v>
+        <v>3857.837890625</v>
       </c>
       <c r="C59" t="n">
-        <v>6445.27490234375</v>
+        <v>4200.98779296875</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VDSEGDFSENDDAAGDFRGDEEFKGEDELCDSGR</t>
+          <t>SDRAQAVSEDAGGNEGR</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4691.759765625</v>
+        <v>2343.5400390625</v>
       </c>
       <c r="C60" t="n">
-        <v>5062.4248046875</v>
+        <v>2458.222412109375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NNDLQDNYLSEQNK</t>
+          <t>SGLSCQVGSATSHPVSCQEPIDEDQRIPK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3678.365966796875</v>
+        <v>4029.738037109375</v>
       </c>
       <c r="C61" t="n">
-        <v>3483.8310546875</v>
+        <v>4446.25341796875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>QEVHLVNK</t>
+          <t>IVRGDQPAAGDSDDDEPPPLPR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2848.3740234375</v>
+        <v>3987.89404296875</v>
       </c>
       <c r="C62" t="n">
-        <v>3026.511474609375</v>
+        <v>3867.923583984375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SNEDQSMGNWQIK</t>
+          <t>IGPILDTNALQGEVKPVLQK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4181.0400390625</v>
+        <v>5644.48779296875</v>
       </c>
       <c r="C63" t="n">
-        <v>3857.664306640625</v>
+        <v>5423.85107421875</v>
       </c>
     </row>
     <row r="64">
@@ -1266,1658 +1266,1658 @@
         <v>4549.02001953125</v>
       </c>
       <c r="C64" t="n">
-        <v>4253.9931640625</v>
+        <v>4226.869140625</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CGSGPVHISGQHLVAVEEDAEEDEEEEDVK</t>
+          <t>KPGADVTCSLPR</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4480.33203125</v>
+        <v>3497.31005859375</v>
       </c>
       <c r="C65" t="n">
-        <v>4674.85595703125</v>
+        <v>3287.77734375</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AAAGEEETAAAGPGRK</t>
+          <t>DGSCSVEYIPYEAGTYSLNVTYGGHQVPGSPFK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2105.7900390625</v>
+        <v>6063.240234375</v>
       </c>
       <c r="C66" t="n">
-        <v>2005.341186523438</v>
+        <v>6055.85400390625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GGGGPGGGGPGGGSAGGPSQPPGGGGPGIRK</t>
+          <t>KLPATTAPDSSK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2783.93994140625</v>
+        <v>2463.528076171875</v>
       </c>
       <c r="C67" t="n">
-        <v>2895.744140625</v>
+        <v>2671.928466796875</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TLHPPLQLQQR</t>
+          <t>AGYSDESSSSSLHATR</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3959.825927734375</v>
+        <v>2685.833984375</v>
       </c>
       <c r="C68" t="n">
-        <v>4224.5634765625</v>
+        <v>2739.000244140625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DSTLIMQLLRDNLTLWTSDSAGEECDAAEGAEN</t>
+          <t>VRGGGSGGSGGQVSLK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6367.2001953125</v>
+        <v>2389.236083984375</v>
       </c>
       <c r="C69" t="n">
-        <v>6388.23876953125</v>
+        <v>2513.331298828125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TSEQLDQPISACCFNHNGNIFAYASSYDWSK</t>
+          <t>GHEEGFLNNGEFLFNK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6058.56005859375</v>
+        <v>5853.11376953125</v>
       </c>
       <c r="C70" t="n">
-        <v>6096.87255859375</v>
+        <v>5982.5625</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SDFQVNLNNASR</t>
+          <t>ETQTHENSQLEEEQNK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4037.988037109375</v>
+        <v>2389.236083984375</v>
       </c>
       <c r="C71" t="n">
-        <v>3787.3955078125</v>
+        <v>2433.895751953125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SRDAPPVSPINMEDQER</t>
+          <t>TPTQLEGAR</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4285.30810546875</v>
+        <v>2324.9580078125</v>
       </c>
       <c r="C72" t="n">
-        <v>3894.716064453125</v>
+        <v>2441.300537109375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DPTSLLGVLQAEADSTSEGLEDAVHSR</t>
+          <t>RQPLPPQK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6223.080078125</v>
+        <v>2196.882080078125</v>
       </c>
       <c r="C73" t="n">
-        <v>6485.62646484375</v>
+        <v>2638.223388671875</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GPQGPGGGGINVQEILTSIMGSPNSHPSEELLK</t>
+          <t>KLGAGEGGEASVPEK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6215.52001953125</v>
+        <v>2605.968017578125</v>
       </c>
       <c r="C74" t="n">
-        <v>6232.3974609375</v>
+        <v>2636.585693359375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AVTIANSPKPSEK</t>
+          <t>EGDVEEPTDDSLPTTGDAGGREPEEK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2590.800048828125</v>
+        <v>3635.00390625</v>
       </c>
       <c r="C75" t="n">
-        <v>2607.62158203125</v>
+        <v>3736.85205078125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SGLSCQVGSATSHPVSCQEPIDEDQRIPK</t>
+          <t>RAEMLQQADK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4029.738037109375</v>
+        <v>3081.882080078125</v>
       </c>
       <c r="C76" t="n">
-        <v>4530.21435546875</v>
+        <v>3268.221923828125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EPSAPSIPTPAYQSSPAGGHAPTPPTPAPR</t>
+          <t>RTGNISGASSDISLDEQYK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4583.7001953125</v>
+        <v>4121.580078125</v>
       </c>
       <c r="C77" t="n">
-        <v>4484.65869140625</v>
+        <v>4226.86767578125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AKPAPQDSVPPR</t>
+          <t>QGGRCPVPGLSSPSGSPLHGK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2757.4560546875</v>
+        <v>4020.803955078125</v>
       </c>
       <c r="C78" t="n">
-        <v>2698.07470703125</v>
+        <v>3968.44384765625</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TLETQPLAPDCCPSDQDPAPAHPPHASPNK</t>
+          <t>QPQTSVVQNQQQISQQGPIYDEVELDALAEIERIER</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3915.1201171875</v>
+        <v>6177.89990234375</v>
       </c>
       <c r="C79" t="n">
-        <v>4100.373046875</v>
+        <v>6401.1337890625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>KPNELVDDLFK</t>
+          <t>EDGGCTIWYNEQLLSEIEEHLNCTISQVEPDIK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5849.89794921875</v>
+        <v>6305.10009765625</v>
       </c>
       <c r="C80" t="n">
-        <v>5353.33935546875</v>
+        <v>6378.05029296875</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SNSGRELDEEILASVIK</t>
+          <t>KQLGELIGTLNAAK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5878.7099609375</v>
+        <v>5712.7080078125</v>
       </c>
       <c r="C81" t="n">
-        <v>5887.060546875</v>
+        <v>5074.59765625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>QPQTSVVQNQQQISQQGPIYDEVELDALAEIERIER</t>
+          <t>KPNELVDDLFK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6177.89990234375</v>
+        <v>5849.89794921875</v>
       </c>
       <c r="C82" t="n">
-        <v>6252.736328125</v>
+        <v>5427.4697265625</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VRGPVSGPDSMNASR</t>
+          <t>QEESEPVERPLK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2969.47802734375</v>
+        <v>2874.91796875</v>
       </c>
       <c r="C83" t="n">
-        <v>3002.751220703125</v>
+        <v>2873.05078125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SSSSQESLNRPFSSK</t>
+          <t>AELQLPPPPPPGHYGAWAAQELQAK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3189.090087890625</v>
+        <v>5799.94189453125</v>
       </c>
       <c r="C84" t="n">
-        <v>3169.73486328125</v>
+        <v>5379.919921875</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NNFEADAYFVK</t>
+          <t>GLEDVRPSVESLLDELESSVPSPVPAITVNQGESSPQR</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4828.17578125</v>
+        <v>6253.5</v>
       </c>
       <c r="C85" t="n">
-        <v>4536.7705078125</v>
+        <v>6106.86279296875</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ECGTNECLDNNGGCSHVCNDLK</t>
+          <t>SLHAEPGFSQASR</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3114.719970703125</v>
+        <v>3128.02197265625</v>
       </c>
       <c r="C86" t="n">
-        <v>3053.778076171875</v>
+        <v>3233.733154296875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ETQTHENSQLEEEQNK</t>
+          <t>REEDDPEEPDDHEK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2389.236083984375</v>
+        <v>2105.7900390625</v>
       </c>
       <c r="C87" t="n">
-        <v>2323.69921875</v>
+        <v>2117.72705078125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AQPLEDLAGFTELSETSGHTQESLTAGK</t>
+          <t>TGISDVFAK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5968.1279296875</v>
+        <v>4424.31591796875</v>
       </c>
       <c r="C88" t="n">
-        <v>5610.638671875</v>
+        <v>4165.52685546875</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>QGDLSANQDEETDQETFQLEIDRDTK</t>
+          <t>LGRETEEQDSDAEQGDPAGEGK</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4810.998046875</v>
+        <v>2633.72412109375</v>
       </c>
       <c r="C89" t="n">
-        <v>5063.01318359375</v>
+        <v>2656.33642578125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RSGPTDDGEEEMEEDTVTNGS</t>
+          <t>VDSEGDFSENDDAAGDFRGDEEFKGEDELCDSGR</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3427.404052734375</v>
+        <v>4691.759765625</v>
       </c>
       <c r="C90" t="n">
-        <v>3600.31298828125</v>
+        <v>4756.43017578125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DVTLTSPLLVNLLQSDISAGHFGVNNK</t>
+          <t>LLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCK</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6227.81982421875</v>
+        <v>5065.74609375</v>
       </c>
       <c r="C91" t="n">
-        <v>6708.56005859375</v>
+        <v>4828.697265625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EGETQGVAFEHESPADFQNSQSPVQDQDK</t>
+          <t>HIQSNLDFPVNSASSEENVK</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4351.7880859375</v>
+        <v>4549.02001953125</v>
       </c>
       <c r="C92" t="n">
-        <v>4270.6875</v>
+        <v>4840.51904296875</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DKIELDSSPASK</t>
+          <t>DFCVHGGAGGGAGSSGGSSSQTPSTDPFPGSPAIPAEK</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3107.243896484375</v>
+        <v>4961.39990234375</v>
       </c>
       <c r="C93" t="n">
-        <v>3238.5693359375</v>
+        <v>4513.64111328125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>VQDDEVGDGTTSVTVLAAELLREAESLIAK</t>
+          <t>DGAVNGPSVVGDQTPIEPQTSIERLTETK</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6421.97998046875</v>
+        <v>5543.7060546875</v>
       </c>
       <c r="C94" t="n">
-        <v>6270.806640625</v>
+        <v>5006.6474609375</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>REAALPPVPLK</t>
+          <t>LITSEEERPAK</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4305.01220703125</v>
+        <v>2535.6298828125</v>
       </c>
       <c r="C95" t="n">
-        <v>4512.5986328125</v>
+        <v>2761.30517578125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DGSCSVEYIPYEAGTYSLNVTYGGHQVPGSPFK</t>
+          <t>RITPLMEPSSIEK</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6063.240234375</v>
+        <v>4450.169921875</v>
       </c>
       <c r="C96" t="n">
-        <v>6097.96044921875</v>
+        <v>4566.01708984375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FNVWDVGGQDK</t>
+          <t>LTRQECLGNSPPFEK</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5037.2099609375</v>
+        <v>3854.43603515625</v>
       </c>
       <c r="C97" t="n">
-        <v>4210.8212890625</v>
+        <v>3754.450439453125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NNVNVASLTQSEIRDIILGMEISAPSQQR</t>
+          <t>VSPAHPPENGLDK</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6219</v>
+        <v>2768.610107421875</v>
       </c>
       <c r="C98" t="n">
-        <v>6350.95068359375</v>
+        <v>2869.145263671875</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LQDAFSSIGQSCHLDLPQIAVVGGQSAGK</t>
+          <t>TDRGGDIGETPTPGASK</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6055.6201171875</v>
+        <v>2767.2119140625</v>
       </c>
       <c r="C99" t="n">
-        <v>5563.5546875</v>
+        <v>2844.205322265625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DLDLEEEAASGASSALEAGGSSGLEDVLPLLQQADELHRGDEQGK</t>
+          <t>SFLSEPSPGRTK</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6211.080078125</v>
+        <v>3560.489990234375</v>
       </c>
       <c r="C100" t="n">
-        <v>6595.55419921875</v>
+        <v>3276.273193359375</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EEHNTVCAAGTPVGEIGEEK</t>
+          <t>CIEVMGDGCLNNEHFEELGGILK</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3760.7939453125</v>
+        <v>6031.3798828125</v>
       </c>
       <c r="C101" t="n">
-        <v>3642.570556640625</v>
+        <v>5990.44482421875</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GESDDFHMDFDAVAPR</t>
+          <t>SSTPLHPSPIR</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5327.89208984375</v>
+        <v>3278.382080078125</v>
       </c>
       <c r="C102" t="n">
-        <v>5035.47509765625</v>
+        <v>3387.784912109375</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SGGGTGEEPGSQGLNGEAGPEDSTRETPSQENGPTAK</t>
+          <t>LPHVLLEIQK</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3180.221923828125</v>
+        <v>4895.05810546875</v>
       </c>
       <c r="C103" t="n">
-        <v>3411.61279296875</v>
+        <v>4998.25634765625</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>STHGEAAAETDSRPADEDMWDETELGLYK</t>
+          <t>KYSLNLFDTYK</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5367.91796875</v>
+        <v>5481.0419921875</v>
       </c>
       <c r="C104" t="n">
-        <v>5399.2197265625</v>
+        <v>5617.99755859375</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>KLPATTAPDSSK</t>
+          <t>NHAGPGCEESDAGK</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2463.528076171875</v>
+        <v>1769.657958984375</v>
       </c>
       <c r="C105" t="n">
-        <v>2518.796630859375</v>
+        <v>1789.275146484375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TSADAQEPASPVVSPQQPPTSPHWRK</t>
+          <t>NNQGNSFQAK</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4155.66015625</v>
+        <v>1925.244018554688</v>
       </c>
       <c r="C106" t="n">
-        <v>4156.13330078125</v>
+        <v>2371.31591796875</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>KPGADVTCSLPR</t>
+          <t>TRFFNSSYNVVK</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3497.31005859375</v>
+        <v>4700.333984375</v>
       </c>
       <c r="C107" t="n">
-        <v>3343.19873046875</v>
+        <v>4596.673828125</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SPQLDPLRK</t>
+          <t>TLETQPLAPDCCPSDQDPAPAHPPHASPNK</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3639.4140625</v>
+        <v>3915.1201171875</v>
       </c>
       <c r="C108" t="n">
-        <v>3210.9150390625</v>
+        <v>3915.697265625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SSTPLHPSPIR</t>
+          <t>NRSGKPETLVPTAPK</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3278.382080078125</v>
+        <v>3712.763916015625</v>
       </c>
       <c r="C109" t="n">
-        <v>3546.38916015625</v>
+        <v>3228.76611328125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SRGSDPAADVEIEYVTEEPEIYEPNFIFFK</t>
+          <t>LSNPTPDYCHDK</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6218.64013671875</v>
+        <v>3158.9580078125</v>
       </c>
       <c r="C110" t="n">
-        <v>6446.705078125</v>
+        <v>2686.0048828125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NRSGKPETLVPTAPK</t>
+          <t>SIYYITGESK</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3712.763916015625</v>
+        <v>3961.22998046875</v>
       </c>
       <c r="C111" t="n">
-        <v>3295.2060546875</v>
+        <v>3975.852783203125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>INSSGEGDESDEFLQSRK</t>
+          <t>AYSQEEITQGFEETGDTLYAPYSTHFQLQNQPPQK</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3694.0439453125</v>
+        <v>5994.1982421875</v>
       </c>
       <c r="C112" t="n">
-        <v>3682.5908203125</v>
+        <v>5984.92333984375</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TLVITSTPASPNRELHPQLLSPK</t>
+          <t>GSRVDIETPNLEGLTGPR</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5002.7041015625</v>
+        <v>4832.65185546875</v>
       </c>
       <c r="C113" t="n">
-        <v>5457.837890625</v>
+        <v>5048.16845703125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LAAAISEVVSQTPASTTQAGAPPRDTSQSDK</t>
+          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLEPQRQPEYSPESPR</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4644.40185546875</v>
+        <v>4393.64404296875</v>
       </c>
       <c r="C114" t="n">
-        <v>4343.52099609375</v>
+        <v>4808.8984375</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NQVLLGRSPSK</t>
+          <t>TEDSVPETPDNERK</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2965.85400390625</v>
+        <v>2449.260009765625</v>
       </c>
       <c r="C115" t="n">
-        <v>3460.57861328125</v>
+        <v>2424.565673828125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CSQSNNQFQK</t>
+          <t>ERDSELSDTDGCCLGQSESDK</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1886.567993164062</v>
+        <v>3180.221923828125</v>
       </c>
       <c r="C116" t="n">
-        <v>1954.991577148438</v>
+        <v>3243.346435546875</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LITSEEERPAK</t>
+          <t>SCTPPDQISHR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2535.6298828125</v>
+        <v>2869.919921875</v>
       </c>
       <c r="C117" t="n">
-        <v>2852.514892578125</v>
+        <v>2596.28369140625</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RSSEDAESLAPR</t>
+          <t>GINGGPSRMPK</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2953.337890625</v>
+        <v>2514.635986328125</v>
       </c>
       <c r="C118" t="n">
-        <v>2940.8427734375</v>
+        <v>2763.706298828125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>VTTVVATPGQGPDRPQEVSYTDTK</t>
+          <t>SRPTSEGDIESTEPQK</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3845.5439453125</v>
+        <v>2614.2958984375</v>
       </c>
       <c r="C119" t="n">
-        <v>3814.1240234375</v>
+        <v>2682.04736328125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IPSVTSGTTSSSNTMVAPTDGNPDNKPIK</t>
+          <t>PRDWEQFEYK</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4050.8701171875</v>
+        <v>4661.47216796875</v>
       </c>
       <c r="C120" t="n">
-        <v>4055.236572265625</v>
+        <v>4578.123046875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EPLPVEQDDDIEVIVDETSDHTEESPVRAISR</t>
+          <t>GIASTSDPPTANIKPTPVVSTPSK</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6055.6201171875</v>
+        <v>4141.326171875</v>
       </c>
       <c r="C121" t="n">
-        <v>5849.5146484375</v>
+        <v>4318.0400390625</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RDYTGCSTESLSPVK</t>
+          <t>NIGRDPTSAGPNSFNK</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3550.530029296875</v>
+        <v>3204.132080078125</v>
       </c>
       <c r="C122" t="n">
-        <v>3348.872802734375</v>
+        <v>3057.726806640625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LCAGIITAHNPK</t>
+          <t>LERPNGPNIDK</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3868.134033203125</v>
+        <v>2712.258056640625</v>
       </c>
       <c r="C123" t="n">
-        <v>3750.76416015625</v>
+        <v>2879.294189453125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EANEILQR</t>
+          <t>EGETQGVAFEHESPADFQNSQSPVQDQDK</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2951.447998046875</v>
+        <v>4351.7880859375</v>
       </c>
       <c r="C124" t="n">
-        <v>3249.507568359375</v>
+        <v>4384.49853515625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NDKEEEQSSSSVK</t>
+          <t>NEGQDATMYCK</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1708.109985351562</v>
+        <v>2533.9560546875</v>
       </c>
       <c r="C125" t="n">
-        <v>1720.990112304688</v>
+        <v>2627.03857421875</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SRDVDDAAAEATR</t>
+          <t>NIYEELRETK</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2612.736083984375</v>
+        <v>3987.89404296875</v>
       </c>
       <c r="C126" t="n">
-        <v>2631.16357421875</v>
+        <v>3777.056396484375</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DIREQSETTAEGGQGQAQEGPAQPGEPEAEGSRAAEE</t>
+          <t>GSGTAEVELK</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3421.548095703125</v>
+        <v>2829.68408203125</v>
       </c>
       <c r="C127" t="n">
-        <v>3158.38623046875</v>
+        <v>2639.553955078125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SALMDESEDSGVIPGSHSENALHAEEEEGEGGK</t>
+          <t>GESDDFHMDFDAVAPR</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4427.490234375</v>
+        <v>5327.89208984375</v>
       </c>
       <c r="C128" t="n">
-        <v>4430.578125</v>
+        <v>4944.13232421875</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SSQTSQNQGLGRPTLEGDEETSEVEYTVNK</t>
+          <t>LLQHPSICSDPTEEPTALTAGQSTSETQEGGK</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4269.6181640625</v>
+        <v>4397.22021484375</v>
       </c>
       <c r="C129" t="n">
-        <v>4285.80126953125</v>
+        <v>4268.23974609375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SQPFINPDSQGHCPATSDSGITDVAMSK</t>
+          <t>VSLERLDLDLTADQPPVFK</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4653.11376953125</v>
+        <v>6105.89990234375</v>
       </c>
       <c r="C130" t="n">
-        <v>4791.97509765625</v>
+        <v>5644.04638671875</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NGGFEDDLSLGAEANHLHESDAQIENCNNILAK</t>
+          <t>AQPLEDLAGFTELSETSGHTQESLTAGK</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5539.72802734375</v>
+        <v>5968.1279296875</v>
       </c>
       <c r="C131" t="n">
-        <v>5795.52685546875</v>
+        <v>5414.90771484375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ATSSHFSASEEDFLDK</t>
+          <t>SPQLDPLRK</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4122.97802734375</v>
+        <v>3639.4140625</v>
       </c>
       <c r="C132" t="n">
-        <v>4228.09521484375</v>
+        <v>3365.929931640625</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AEAPLPPKLEGELQAPDLELSLPAIHVEGLDIK</t>
+          <t>EPLPVEQDDDIEVIVDETSDHTEESPVRAISR</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6168.89990234375</v>
+        <v>6055.6201171875</v>
       </c>
       <c r="C133" t="n">
-        <v>6539.3876953125</v>
+        <v>5712.2734375</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DNEDAFYNSQK</t>
+          <t>SQPFINPDSQGHCPATSDSGITDVAMSK</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3134.97607421875</v>
+        <v>4653.11376953125</v>
       </c>
       <c r="C134" t="n">
-        <v>2683.6298828125</v>
+        <v>4753.0380859375</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>STAISLFYELSENDLNFIK</t>
+          <t>REAALPPVPLK</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6265.7998046875</v>
+        <v>4305.01220703125</v>
       </c>
       <c r="C135" t="n">
-        <v>6133.32666015625</v>
+        <v>4406.95361328125</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>KYEQGFITDPVVLPK</t>
+          <t>GPKPEPPGSGPAPPR</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5406.2578125</v>
+        <v>2726.364013671875</v>
       </c>
       <c r="C136" t="n">
-        <v>5455.3193359375</v>
+        <v>2573.75927734375</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FVESQVESESSVLNDSPFPEDDSEGLHDSREEK</t>
+          <t>TLHPPLQLQQR</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5179.26611328125</v>
+        <v>3959.825927734375</v>
       </c>
       <c r="C137" t="n">
-        <v>5390.89990234375</v>
+        <v>4074.288818359375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CTPRSSDTEENVK</t>
+          <t>REDPGPEVQPDK</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2044.151977539062</v>
+        <v>2453.159912109375</v>
       </c>
       <c r="C138" t="n">
-        <v>2187.730712890625</v>
+        <v>2402.622314453125</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ACDCDPRGIETPQCDQSTGQCVCVEGVEGPR</t>
+          <t>DHFGLEGDEESTLEDSVPK</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4210.81787109375</v>
+        <v>4854.07177734375</v>
       </c>
       <c r="C139" t="n">
-        <v>4059.62060546875</v>
+        <v>5023.89111328125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>KLETEETVPEDVETK</t>
+          <t>DALDPRQPGYQPPNPHPGPSPPAAPASK</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3413.4541015625</v>
+        <v>4050.3720703125</v>
       </c>
       <c r="C140" t="n">
-        <v>3772.38720703125</v>
+        <v>3901.1962890625</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TCTESDVSQSQNSR</t>
+          <t>YSDVEVPASVTGYSFASDGDSGTCSPLRHFQK</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1939.302001953125</v>
+        <v>5320.80615234375</v>
       </c>
       <c r="C141" t="n">
-        <v>1773.913940429688</v>
+        <v>5215.69287109375</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SSGHSSELSPDAVEK</t>
+          <t>GPQGPGGGGINVQEILTSIMGSPNSHPSEELLK</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3061.944091796875</v>
+        <v>6215.52001953125</v>
       </c>
       <c r="C142" t="n">
-        <v>3018.796875</v>
+        <v>6061.83154296875</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RQPLPPQK</t>
+          <t>TSGTSLSAMHSSGSSGK</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2196.882080078125</v>
+        <v>2590.416015625</v>
       </c>
       <c r="C143" t="n">
-        <v>2645.86962890625</v>
+        <v>2605.383056640625</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ERDSELSDTDGCCLGQSESDK</t>
+          <t>AICTCPSGYTGPACSQDVDECSLGANPCEHAGK</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3180.221923828125</v>
+        <v>4224.77978515625</v>
       </c>
       <c r="C144" t="n">
-        <v>3001.825927734375</v>
+        <v>4036.707763671875</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ADREVQAEQPSSSPR</t>
+          <t>KIPDPDSDDVEVDAR</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2244.22802734375</v>
+        <v>3739.583984375</v>
       </c>
       <c r="C145" t="n">
-        <v>2267.8349609375</v>
+        <v>3677.2880859375</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SPFKVPLTFGRK</t>
+          <t>DVTLTSPLLVNLLQSDISAGHFGVNNK</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5235.26416015625</v>
+        <v>6227.81982421875</v>
       </c>
       <c r="C146" t="n">
-        <v>4937.84912109375</v>
+        <v>6619.88818359375</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>GINGGPSRMPK</t>
+          <t>SINEGLTLNNSHVSK</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2514.635986328125</v>
+        <v>3835.7939453125</v>
       </c>
       <c r="C147" t="n">
-        <v>2617.482421875</v>
+        <v>3975.101806640625</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MSHSSSGSASLSQVPGK</t>
+          <t>FDNNSGQSAIK</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2712.258056640625</v>
+        <v>2455.1640625</v>
       </c>
       <c r="C148" t="n">
-        <v>2680.00048828125</v>
+        <v>2618.865478515625</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VERLSGPEQITLEASSTEGHPGAPPQHTDQTEAFQK</t>
+          <t>RQAFPSSTMMEVFLQEK</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4719.2099609375</v>
+        <v>6137.8798828125</v>
       </c>
       <c r="C149" t="n">
-        <v>4678.78955078125</v>
+        <v>5954.61865234375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DTSLLASATDPEPCSPHRPQMVSPVSK</t>
+          <t>NVSSFPDDATSPLQENRNNQGTVNWSVDDIVK</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4804.35009765625</v>
+        <v>5816.36376953125</v>
       </c>
       <c r="C150" t="n">
-        <v>4887.396484375</v>
+        <v>5829.79248046875</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NSLVSPAQEPAPLQTAEPQTTVVHNATDGIK</t>
+          <t>RAQSSLESSTGPPCIRS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5025.81591796875</v>
+        <v>3625.050048828125</v>
       </c>
       <c r="C151" t="n">
-        <v>5147.77587890625</v>
+        <v>3361.77392578125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DSLSVSSNDASPPASVASLQPHIGAQSSPGPK</t>
+          <t>VAVVRPPKPSSAK</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4758.666015625</v>
+        <v>2875.637939453125</v>
       </c>
       <c r="C152" t="n">
-        <v>4931.9619140625</v>
+        <v>2773.523681640625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ASNDQRPQEVPAEALAPAPAEVPAPAPAAASASGPAK</t>
+          <t>SYHDVLPK</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4879.51806640625</v>
+        <v>3277.157958984375</v>
       </c>
       <c r="C153" t="n">
-        <v>4879.76904296875</v>
+        <v>3120.788818359375</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DRTTSFFLNPEK</t>
+          <t>LHQPVPVTPK</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4802.98193359375</v>
+        <v>2929.001953125</v>
       </c>
       <c r="C154" t="n">
-        <v>4963.18994140625</v>
+        <v>2940.08056640625</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>NEGQDATMYCK</t>
+          <t>TRVLGQVSCELVPK</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2533.9560546875</v>
+        <v>4453.6259765625</v>
       </c>
       <c r="C155" t="n">
-        <v>2461.143310546875</v>
+        <v>4648.4462890625</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>QGGRCPVPGLSSPSGSPLHGK</t>
+          <t>RSDTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4020.803955078125</v>
+        <v>6226.6201171875</v>
       </c>
       <c r="C156" t="n">
-        <v>3726.576171875</v>
+        <v>6181.93896484375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TTSQAHSLPLPASTR</t>
+          <t>LCAGIITAHNPK</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3616.907958984375</v>
+        <v>3868.134033203125</v>
       </c>
       <c r="C157" t="n">
-        <v>3480.992431640625</v>
+        <v>3780.446533203125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>QGASVASGSGTVHTSAVSLPSNAAVSK</t>
+          <t>SLLSHEFQDETDEEETLYSSK</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3857.837890625</v>
+        <v>5099.076171875</v>
       </c>
       <c r="C158" t="n">
-        <v>4076.5556640625</v>
+        <v>4966.1533203125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DLSLDDFK</t>
+          <t>GPEGGEGAECGGASEGGEGQNGGDAAPARPPAGEPR</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5089.64990234375</v>
+        <v>2930.820068359375</v>
       </c>
       <c r="C159" t="n">
-        <v>5038.697265625</v>
+        <v>2784.087646484375</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SLGQWLQEEK</t>
+          <t>RNPNTQLSTFDETYIK</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4829.4658203125</v>
+        <v>4645.84814453125</v>
       </c>
       <c r="C160" t="n">
-        <v>4501.87548828125</v>
+        <v>5108.97509765625</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RTGNISGASSDISLDEQYK</t>
+          <t>GGGGPGGGGPGGGSAGGPSQPPGGGGPGIRK</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4121.580078125</v>
+        <v>2783.93994140625</v>
       </c>
       <c r="C161" t="n">
-        <v>4299.64404296875</v>
+        <v>2830.739501953125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>REDPGPEVQPDK</t>
+          <t>TLPYLVSNVIELLDVDPNDQEEDGANIDLDSQRK</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2453.159912109375</v>
+        <v>6267.60009765625</v>
       </c>
       <c r="C162" t="n">
-        <v>2516.927978515625</v>
+        <v>6241.00146484375</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LSNPTPDYCHDK</t>
+          <t>TLSTIATSTDAASVVHSTDLVVEAIVENLK</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3158.9580078125</v>
+        <v>6314.81982421875</v>
       </c>
       <c r="C163" t="n">
-        <v>2750.88037109375</v>
+        <v>6612.66064453125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AICTCPSGYTGPACSQDVDECSLGANPCEHAGK</t>
+          <t>FNVWDVGGQDK</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4224.77978515625</v>
+        <v>5037.2099609375</v>
       </c>
       <c r="C164" t="n">
-        <v>4212.62646484375</v>
+        <v>4555.96044921875</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HIQSNLDFPVNSASSEENVK</t>
+          <t>YRSQGEDESMNQPGPIK</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4549.02001953125</v>
+        <v>3163.097900390625</v>
       </c>
       <c r="C165" t="n">
-        <v>4594.69580078125</v>
+        <v>3268.034423828125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ENRQIINPDWNFEK</t>
+          <t>STAISLFYELSENDLNFIK</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5050.248046875</v>
+        <v>6265.7998046875</v>
       </c>
       <c r="C166" t="n">
-        <v>5404.7529296875</v>
+        <v>6201.5556640625</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GVAGPGPIGREPDPDDWEPEERELQEVESTLK</t>
+          <t>EHQEMDEGQSLEK</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6106.3798828125</v>
+        <v>2573.43603515625</v>
       </c>
       <c r="C167" t="n">
-        <v>5679.73046875</v>
+        <v>2500.646240234375</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RPPAPGLQPMR</t>
+          <t>EEAVQTFNYLCDLIESNHPIVLGPNNTNLPK</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3501.281982421875</v>
+        <v>6185.4599609375</v>
       </c>
       <c r="C168" t="n">
-        <v>3591.6982421875</v>
+        <v>6129.34033203125</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TRFFNSSYNVVK</t>
+          <t>SNEDQSMGNWQIK</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4700.333984375</v>
+        <v>4181.0400390625</v>
       </c>
       <c r="C169" t="n">
-        <v>4635.6611328125</v>
+        <v>4064.594970703125</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LALDMEIAYRK</t>
+          <t>STHGEAAAETDSRPADEDMWDETELGLYK</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5185.47021484375</v>
+        <v>5367.91796875</v>
       </c>
       <c r="C170" t="n">
-        <v>4835.07568359375</v>
+        <v>5315.12744140625</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ELSNPLRENSFGSPLEFRNSGPLGTENTGFSSEVK</t>
+          <t>ATSSHFSASEEDFLDK</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5826.97216796875</v>
+        <v>4122.97802734375</v>
       </c>
       <c r="C171" t="n">
-        <v>6040.84814453125</v>
+        <v>4169.82177734375</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>EEDEEEEDDEESGRLR</t>
+          <t>VRGPVSGPDSMNASR</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2723.610107421875</v>
+        <v>2969.47802734375</v>
       </c>
       <c r="C172" t="n">
-        <v>2705.45654296875</v>
+        <v>2868.50634765625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RSDMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
+          <t>QEVHLVNK</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6243.72021484375</v>
+        <v>2848.3740234375</v>
       </c>
       <c r="C173" t="n">
-        <v>6086.97021484375</v>
+        <v>2926.346923828125</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FRPAAPPLALRQPVK</t>
+          <t>LQDAFSSIGQSCHLDLPQIAVVGGQSAGK</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4453.6259765625</v>
+        <v>6055.6201171875</v>
       </c>
       <c r="C174" t="n">
-        <v>5102.94189453125</v>
+        <v>5686.3095703125</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RLGNEYVFTK</t>
+          <t>IEEPSVVETTHQDPLPHPESTTSDEK</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3934.43408203125</v>
+        <v>4147.2841796875</v>
       </c>
       <c r="C175" t="n">
-        <v>4081.51904296875</v>
+        <v>4139.9951171875</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SRPTSEGDIESTEPQK</t>
+          <t>TKGDDEEVIQDGVR</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2614.2958984375</v>
+        <v>3470.75390625</v>
       </c>
       <c r="C176" t="n">
-        <v>2669.799560546875</v>
+        <v>3528.14208984375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SRTTELDDYSTNK</t>
+          <t>VTTVVATPGQGPDRPQEVSYTDTK</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2971.139892578125</v>
+        <v>3845.5439453125</v>
       </c>
       <c r="C177" t="n">
-        <v>2991.14013671875</v>
+        <v>3720.18359375</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SVQANLDQSQR</t>
+          <t>NSSQSGGKPGSPITK</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2578.236083984375</v>
+        <v>2013.534057617188</v>
       </c>
       <c r="C178" t="n">
-        <v>2480.4169921875</v>
+        <v>2233.955322265625</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>QEESEPVERPLK</t>
+          <t>RQSSIFGGADVGFSGGIPPDK</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2874.91796875</v>
+        <v>5614.33203125</v>
       </c>
       <c r="C179" t="n">
-        <v>2909.9140625</v>
+        <v>5508.90576171875</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GHTASEDEQQWPEEK</t>
+          <t>EVSRPTTSSITSGYFSHSASNATLSDMVVPSSDSSDQLAIQTK</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3061.944091796875</v>
+        <v>5824.0859375</v>
       </c>
       <c r="C180" t="n">
-        <v>3061.056884765625</v>
+        <v>6233.48193359375</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AHPLNTPDPSTK</t>
+          <t>NGGFEDDLSLGAEANHLHESDAQIENCNNILAK</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2754.659912109375</v>
+        <v>5539.72802734375</v>
       </c>
       <c r="C181" t="n">
-        <v>2626.629638671875</v>
+        <v>6059.138671875</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RPEPSEISPIK</t>
+          <t>RPGNSTVTSPPVTPK</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3645.419921875</v>
+        <v>2949.251953125</v>
       </c>
       <c r="C182" t="n">
-        <v>3258.982421875</v>
+        <v>2979.228271484375</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>EHYPVSPSSPSPPAQPGGVSR</t>
+          <t>YINENLIVNTDELGRDCLINAAK</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3653.10595703125</v>
+        <v>5810.02197265625</v>
       </c>
       <c r="C183" t="n">
-        <v>3568.751953125</v>
+        <v>6148.39306640625</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TGISDVFAK</t>
+          <t>ETENNQMTSESGATAGRQEVDNTFWNGCGDYYQLYDK</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4424.31591796875</v>
+        <v>5471.166015625</v>
       </c>
       <c r="C184" t="n">
-        <v>4302.25390625</v>
+        <v>5494.845703125</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AEEATEAQEVVEATPEGACTEPREPPGLIFNK</t>
+          <t>ARAGGGPTLQCPPPSPEK</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5322.7021484375</v>
+        <v>3064.181884765625</v>
       </c>
       <c r="C185" t="n">
-        <v>5772.09228515625</v>
+        <v>3145.812255859375</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AHLENELEALEK</t>
+          <t>CGSGPVHISGQHLVAVEEDAEEDEEEEDVK</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4560.69580078125</v>
+        <v>4480.33203125</v>
       </c>
       <c r="C186" t="n">
-        <v>4316.62158203125</v>
+        <v>4304.51806640625</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TKGDDEEVIQDGVR</t>
+          <t>WTPIEYFNNK</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3470.75390625</v>
+        <v>5540.09423828125</v>
       </c>
       <c r="C187" t="n">
-        <v>3687.27001953125</v>
+        <v>5074.673828125</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SYSSLRGMPSALK</t>
+          <t>LNHVAAGLVPSLK</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4297.68017578125</v>
+        <v>4374.666015625</v>
       </c>
       <c r="C188" t="n">
-        <v>3964.77392578125</v>
+        <v>4898.7451171875</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EAESCDCLQGFQLTHSLGGGTGSGMGTLLLSK</t>
+          <t>NQVLLGRSPSK</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6052.02001953125</v>
+        <v>2965.85400390625</v>
       </c>
       <c r="C189" t="n">
-        <v>6003.79248046875</v>
+        <v>3266.802001953125</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ADREVQAEQPSSSPR</t>
+          <t>RSGPTDDGEEEMEEDTVTNGS</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2245.39794921875</v>
+        <v>3427.404052734375</v>
       </c>
       <c r="C190" t="n">
-        <v>2267.834716796875</v>
+        <v>3330.6181640625</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RNSEASSGDFLDLK</t>
+          <t>ENRQIINPDWNFEK</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4569.77392578125</v>
+        <v>5050.248046875</v>
       </c>
       <c r="C191" t="n">
-        <v>4698.19677734375</v>
+        <v>5173.80224609375</v>
       </c>
     </row>
     <row r="192">
@@ -2930,904 +2930,904 @@
         <v>2203.697998046875</v>
       </c>
       <c r="C192" t="n">
-        <v>2243.799560546875</v>
+        <v>2156.1259765625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ASAPSTSSTSSRPK</t>
+          <t>DVNFEFPEFQL</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1790.076049804688</v>
+        <v>6337.919921875</v>
       </c>
       <c r="C193" t="n">
-        <v>1868.768188476562</v>
+        <v>5836.37353515625</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ETENNQMTSESGATAGRQEVDNTFWNGCGDYYQLYDK</t>
+          <t>DIREQSETTAEGGQGQAQEGPAQPGEPEAEGSRAAEE</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>5471.166015625</v>
+        <v>3421.548095703125</v>
       </c>
       <c r="C194" t="n">
-        <v>5788.15576171875</v>
+        <v>3360.292236328125</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LLQHPSICSDPTEEPTALTAGQSTSETQEGGK</t>
+          <t>ECGTNECLDNNGGCSHVCNDLK</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4397.22021484375</v>
+        <v>3114.719970703125</v>
       </c>
       <c r="C195" t="n">
-        <v>4516.6689453125</v>
+        <v>3322.58935546875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GMSPEQSRFQSDSSSYPTVDSNSLLGQSRLETAESK</t>
+          <t>SGGGTGEEPGSQGLNGEAGPEDSTRETPSQENGPTAK</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5083.1220703125</v>
+        <v>3180.221923828125</v>
       </c>
       <c r="C196" t="n">
-        <v>5496.22021484375</v>
+        <v>3186.428466796875</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NSQVGSDNSSILLFDSTQESLPPSQDIPAIFREGMK</t>
+          <t>ECLLDPEERK</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6142.97998046875</v>
+        <v>3649.8720703125</v>
       </c>
       <c r="C197" t="n">
-        <v>6065.21484375</v>
+        <v>3253.747802734375</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RPGNSTVTSPPVTPK</t>
+          <t>RNSEASSGDFLDLK</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2949.251953125</v>
+        <v>4569.77392578125</v>
       </c>
       <c r="C198" t="n">
-        <v>2948.213134765625</v>
+        <v>4481.35302734375</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NIYEELRETK</t>
+          <t>RIDFIPVPAPPTRGIGK</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3987.89404296875</v>
+        <v>5616.7080078125</v>
       </c>
       <c r="C199" t="n">
-        <v>3861.99365234375</v>
+        <v>5432.47607421875</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EDGGCTIWYNEQLLSEIEEHLNCTISQVEPDIK</t>
+          <t>ADREVQAEQPSSSPR</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6305.10009765625</v>
+        <v>2244.22802734375</v>
       </c>
       <c r="C200" t="n">
-        <v>6242.88134765625</v>
+        <v>2235.34228515625</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SRWDETPASQGGSTPVLPGK</t>
+          <t>LNTVDTHK</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4133.2021484375</v>
+        <v>2198.166015625</v>
       </c>
       <c r="C201" t="n">
-        <v>4175.623046875</v>
+        <v>2120.041259765625</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NVSSFPDDATSPLQENRNNQGTVNWSVDDIVK</t>
+          <t>EAEETNGGAQIQPLPADCGISSATEKPDSK</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>5816.36376953125</v>
+        <v>4179.85791015625</v>
       </c>
       <c r="C202" t="n">
-        <v>5939.75634765625</v>
+        <v>4371.35546875</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RNSSEASSGDFLDLK</t>
+          <t>DPTSLLGVLQAEADSTSEGLEDAVHSR</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4165.10400390625</v>
+        <v>6223.080078125</v>
       </c>
       <c r="C203" t="n">
-        <v>4609.52587890625</v>
+        <v>6044.13427734375</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>NVDSSPETSPSVSPMPHSSSIANLQTASK</t>
+          <t>ATSCFPRPMPR</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4361.5322265625</v>
+        <v>3732.929931640625</v>
       </c>
       <c r="C204" t="n">
-        <v>4760.8330078125</v>
+        <v>3715.24169921875</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SYHDVLPK</t>
+          <t>DKIELDSSPASK</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3277.157958984375</v>
+        <v>3107.243896484375</v>
       </c>
       <c r="C205" t="n">
-        <v>2963.869140625</v>
+        <v>3061.33056640625</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>EEAVQTFNYLCDLIESNHPIVLGPNNTNLPK</t>
+          <t>NQWQLSADDLK</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6185.4599609375</v>
+        <v>4700.333984375</v>
       </c>
       <c r="C206" t="n">
-        <v>5990.97509765625</v>
+        <v>4403.3740234375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ECLLDPEERK</t>
+          <t>GLGKPGGQGDAIQLPK</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3649.8720703125</v>
+        <v>3891.221923828125</v>
       </c>
       <c r="C207" t="n">
-        <v>3486.812744140625</v>
+        <v>4176.958984375</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SFLSEPSPGRTK</t>
+          <t>SRTTELDDYSTNK</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3563.285888671875</v>
+        <v>2971.139892578125</v>
       </c>
       <c r="C208" t="n">
-        <v>3511.6357421875</v>
+        <v>3280.362548828125</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>QPGYQPPNPHPGPSSPPAAPASK</t>
+          <t>SGGNEVSIEER</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>3348.47412109375</v>
+        <v>2721.659912109375</v>
       </c>
       <c r="C209" t="n">
-        <v>3550.87646484375</v>
+        <v>2553.756103515625</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ASFDHPDSLPLR</t>
+          <t>ASNDQRPQEVPAEALAPAPAEVPAPAPAAASASGPAK</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4343.15380859375</v>
+        <v>4879.51806640625</v>
       </c>
       <c r="C210" t="n">
-        <v>4614.048828125</v>
+        <v>4761.09423828125</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SLHPWYGITPTSPK</t>
+          <t>RASQSLESSTGPPCIR</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4948.84814453125</v>
+        <v>3675.864013671875</v>
       </c>
       <c r="C211" t="n">
-        <v>5121.46240234375</v>
+        <v>3310.98974609375</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RAQSSLESSTGPPCIRS</t>
+          <t>EAESCDCLQGFQLTHSLGGGTGSGMGTLLLSK</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3625.050048828125</v>
+        <v>6052.02001953125</v>
       </c>
       <c r="C212" t="n">
-        <v>3483.106689453125</v>
+        <v>5939.2978515625</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AGSSNQSISPVLDAVPRPSRER</t>
+          <t>RPPAPGLQPMR</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4486.1337890625</v>
+        <v>3501.281982421875</v>
       </c>
       <c r="C213" t="n">
-        <v>4572.0341796875</v>
+        <v>3735.328125</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GGGGGQDNGLEGLGNDSR</t>
+          <t>TCTESDVSQSQNSR</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3309.419921875</v>
+        <v>1939.302001953125</v>
       </c>
       <c r="C214" t="n">
-        <v>3105.28076171875</v>
+        <v>1942.817138671875</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>YRSQGEDESMNQPGPIK</t>
+          <t>GVAGPGPIGREPDPDDWEPEERELQEVESTLK</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3163.097900390625</v>
+        <v>6106.3798828125</v>
       </c>
       <c r="C215" t="n">
-        <v>2971.4794921875</v>
+        <v>5480.6494140625</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VSPAHPPENGLDK</t>
+          <t>EHYPVSPSSPSPPAQPGGVSR</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2768.610107421875</v>
+        <v>3653.10595703125</v>
       </c>
       <c r="C216" t="n">
-        <v>2841.1982421875</v>
+        <v>3669.026123046875</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TPENHPETPK</t>
+          <t>CAAPRPPSSPEQR</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1932.660034179688</v>
+        <v>2480.741943359375</v>
       </c>
       <c r="C217" t="n">
-        <v>1965.167358398438</v>
+        <v>2259.63232421875</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ANNLSSLSK</t>
+          <t>SRWDETPASQGGSTPVLPGK</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2631.714111328125</v>
+        <v>4133.2021484375</v>
       </c>
       <c r="C218" t="n">
-        <v>2703.33056640625</v>
+        <v>4177.25830078125</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MLFSPEEMDLSQEQPLDAQQGPPEPAQESLSGSESKPK</t>
+          <t>SRDAPPVSPINMEDQER</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5897.5439453125</v>
+        <v>4285.30810546875</v>
       </c>
       <c r="C219" t="n">
-        <v>5494.03271484375</v>
+        <v>4056.727783203125</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ESPRPLQLPGAEGPAISDGEEGGGEPGAGGGAAGAAGAGR</t>
+          <t>LALDMEIAYRK</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4712.90380859375</v>
+        <v>5185.47021484375</v>
       </c>
       <c r="C220" t="n">
-        <v>4573.4384765625</v>
+        <v>4945.21240234375</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>DLPTIPGVTSPSSDEPPMEASQSHLRNPEDK</t>
+          <t>AAAGEEETAAAGPGRK</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>5371.8779296875</v>
+        <v>2105.7900390625</v>
       </c>
       <c r="C221" t="n">
-        <v>5295.15576171875</v>
+        <v>2053.725830078125</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RTGYEGEYELGEGLGVK</t>
+          <t>REGPVGGEDSEEFEK</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4843.158203125</v>
+        <v>3316.181884765625</v>
       </c>
       <c r="C222" t="n">
-        <v>4628.88720703125</v>
+        <v>3043.438720703125</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>IERPGEGPVDNPR</t>
+          <t>ASAPSTSSTSSRPK</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2916.58203125</v>
+        <v>1790.076049804688</v>
       </c>
       <c r="C223" t="n">
-        <v>2925.299072265625</v>
+        <v>1827.179443359375</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MRIPNYQLPTK</t>
+          <t>AGSSAAGASGWTSAGSLNSVPTNSAQQGHNSPDSPVTSAAK</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4382.580078125</v>
+        <v>4309.1337890625</v>
       </c>
       <c r="C224" t="n">
-        <v>4512.70263671875</v>
+        <v>4200.71630859375</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>VLTDAVDDITSIDDFLAVSENHILEDVNK</t>
+          <t>NNVNVASLTQSEIRDIILGMEISAPSQQR</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6275.10009765625</v>
+        <v>6219</v>
       </c>
       <c r="C225" t="n">
-        <v>6297.2890625</v>
+        <v>5894.099609375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GTTSYNEVADELVAEFSAADNHILPNESAYDQK</t>
+          <t>DLDLEEEAASGASSALEAGGSSGLEDVLPLLQQADELHRGDEQGK</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6175.6201171875</v>
+        <v>6211.080078125</v>
       </c>
       <c r="C226" t="n">
-        <v>6071.5927734375</v>
+        <v>6493.11181640625</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NNVVINYK</t>
+          <t>GGNCLLNIPKPDEAYSAPSCGNK</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3257.00390625</v>
+        <v>4779.85791015625</v>
       </c>
       <c r="C227" t="n">
-        <v>3605.51806640625</v>
+        <v>4876.49169921875</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AVQAQGGESQQEAQRLQAQLNELQAQLSQK</t>
+          <t>DRTTSFFLNPEK</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>6050.759765625</v>
+        <v>4802.98193359375</v>
       </c>
       <c r="C228" t="n">
-        <v>5450.67431640625</v>
+        <v>4979.32958984375</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>KPISDNSFSDEEQSTGPIK</t>
+          <t>RTELVLSPDPR</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3793.85400390625</v>
+        <v>4012.697998046875</v>
       </c>
       <c r="C229" t="n">
-        <v>3896.89892578125</v>
+        <v>4182.47509765625</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ASFEEASNQLINHIEQFLDTNETPYFMK</t>
+          <t>AVQAQGGESQQEAQRLQAQLNELQAQLSQK</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>6280.68017578125</v>
+        <v>6050.759765625</v>
       </c>
       <c r="C230" t="n">
-        <v>6104.14013671875</v>
+        <v>5423.22265625</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DALDPRQPGYQPPNPHPGPSPPAAPASK</t>
+          <t>RSSEDAESLAPR</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4050.3720703125</v>
+        <v>2953.337890625</v>
       </c>
       <c r="C231" t="n">
-        <v>4063.2333984375</v>
+        <v>2805.792236328125</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ESESCDCLQGFQLTHSLGGGTGSGGTLLISK</t>
+          <t>LHPSDQCPPR</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5389.416015625</v>
+        <v>2239.278076171875</v>
       </c>
       <c r="C232" t="n">
-        <v>5725.2431640625</v>
+        <v>2197.547607421875</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>EEHLDVAPDK</t>
+          <t>FVESQVESESSVLNDSPFPEDDSEGLHDSREEK</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2941.716064453125</v>
+        <v>5179.26611328125</v>
       </c>
       <c r="C233" t="n">
-        <v>2830.83056640625</v>
+        <v>5045.81298828125</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>REGPVGGEDSEEFEK</t>
+          <t>EQELQQTLQQEQSVLDQLRGEAEAAR</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3316.181884765625</v>
+        <v>6077.8798828125</v>
       </c>
       <c r="C234" t="n">
-        <v>3114.84814453125</v>
+        <v>5708.91162109375</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DHFGLEGDEESTLEDSVPK</t>
+          <t>RPTSSAIPLQSPR</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4854.07177734375</v>
+        <v>3742.0439453125</v>
       </c>
       <c r="C235" t="n">
-        <v>4925.458984375</v>
+        <v>3789.713623046875</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>NQDLCQQEAVK</t>
+          <t>LCDFGSASHVADNDITPLVSR</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2563.39208984375</v>
+        <v>5416.7939453125</v>
       </c>
       <c r="C236" t="n">
-        <v>2574.00390625</v>
+        <v>5123.9501953125</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>NGLRNADSEIK</t>
+          <t>LLKPGEEPSETDEEDTK</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2726.364013671875</v>
+        <v>3591.419921875</v>
       </c>
       <c r="C237" t="n">
-        <v>2955.634765625</v>
+        <v>2981.017822265625</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>EHAPLAPVENK</t>
+          <t>AEGEEEMDTGADDQDGDAAQHPEEHEEQQQSVEEK</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2929.5</v>
+        <v>2953.337890625</v>
       </c>
       <c r="C238" t="n">
-        <v>3073.75634765625</v>
+        <v>3113.480224609375</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ETENNVEKPDNDEDESEVPSLPLGLTGAFEDTSFASLCNLVNENTLK</t>
+          <t>SLHPWYGITPTSPK</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>6253.5</v>
+        <v>4948.84814453125</v>
       </c>
       <c r="C239" t="n">
-        <v>6397.27978515625</v>
+        <v>4977.4931640625</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLEPQRQPEYSPESPR</t>
+          <t>QNNLCLEQGDVTVPGSSLGTEIWESSSQALPVQAPANDSWRK</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4393.64404296875</v>
+        <v>6117.2998046875</v>
       </c>
       <c r="C240" t="n">
-        <v>4696.2314453125</v>
+        <v>5965.28515625</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GLEDVRPSVESLLDELESSVPSPVPAITVNQGESSPQR</t>
+          <t>GGGSGTSLEREQFEGLGSPDAK</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>6253.5</v>
+        <v>4210.81787109375</v>
       </c>
       <c r="C241" t="n">
-        <v>6464.80322265625</v>
+        <v>4162.509765625</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>QGCDCECLGGGR</t>
+          <t>SPFKVPLTFGRK</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2378.31005859375</v>
+        <v>5235.26416015625</v>
       </c>
       <c r="C242" t="n">
-        <v>2023.655151367188</v>
+        <v>5136.26318359375</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RIDFIPVPAPPTRGIGK</t>
+          <t>DSETGENIR</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5616.7080078125</v>
+        <v>2113.169921875</v>
       </c>
       <c r="C243" t="n">
-        <v>5296.6875</v>
+        <v>2064.59033203125</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>KIPEFEVENPLSDVAK</t>
+          <t>EHCDEGEADDFDPGK</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>5311.73388671875</v>
+        <v>3186.966064453125</v>
       </c>
       <c r="C244" t="n">
-        <v>5128.33984375</v>
+        <v>2659.435302734375</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TEDSVPETPDNERK</t>
+          <t>EHASIDAQSGAGVPNPSSASPK</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2449.260009765625</v>
+        <v>3463.283935546875</v>
       </c>
       <c r="C245" t="n">
-        <v>2477.20361328125</v>
+        <v>3277.8076171875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TDPSLDLHSLSAETQPAQEELREDPDFEIK</t>
+          <t>GAKLPEEEEILNK</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>5816.72998046875</v>
+        <v>4241.490234375</v>
       </c>
       <c r="C246" t="n">
-        <v>5874.9111328125</v>
+        <v>4117.8515625</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AYSQEEITQGFEETGDTLYAPYSTHFQLQNQPPQK</t>
+          <t>EGLELLK</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>5994.1982421875</v>
+        <v>4482.1201171875</v>
       </c>
       <c r="C247" t="n">
-        <v>5737.68408203125</v>
+        <v>4001.607666015625</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>DSSGQHVDVPTSQR</t>
+          <t>VVAPVESHVPESNQAQGEPAANEGTTVQHPEAPQEEK</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2616.19189453125</v>
+        <v>3776.238037109375</v>
       </c>
       <c r="C248" t="n">
-        <v>2420.309326171875</v>
+        <v>3840.794677734375</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>LHQPVPVTPK</t>
+          <t>ESPRPLQLPGAEGPAISDGEEGGGEPGAGGGAAGAAGAGR</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2929.001953125</v>
+        <v>4712.90380859375</v>
       </c>
       <c r="C249" t="n">
-        <v>2976.083740234375</v>
+        <v>4525.43505859375</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GGREGFEDTDSEFTFK</t>
+          <t>TLTRTQETADVK</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4695.2880859375</v>
+        <v>2542.590087890625</v>
       </c>
       <c r="C250" t="n">
-        <v>4479.15576171875</v>
+        <v>2713.019287109375</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>YSRLSSDDGYIDLQFK</t>
+          <t>SSLGSLQPEAVTTRK</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>5407.169921875</v>
+        <v>3914.285888671875</v>
       </c>
       <c r="C251" t="n">
-        <v>5247.03369140625</v>
+        <v>4032.642333984375</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ASHSSQTQGGGSVTK</t>
+          <t>EEHNTVCAAGTPVGEIGEEK</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1593.18603515625</v>
+        <v>3760.7939453125</v>
       </c>
       <c r="C252" t="n">
-        <v>1589.516723632812</v>
+        <v>3658.091552734375</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>EHCDEGEADDFDPGK</t>
+          <t>GLGHPPSPLLK</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3186.966064453125</v>
+        <v>4010.508056640625</v>
       </c>
       <c r="C253" t="n">
-        <v>2630.24365234375</v>
+        <v>4153.28271484375</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DVNFEFPEFQL</t>
+          <t>HQAEFTISYDNEK</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6337.919921875</v>
+        <v>4075.134033203125</v>
       </c>
       <c r="C254" t="n">
-        <v>6098.31005859375</v>
+        <v>3981.697265625</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>EGLELLK</t>
+          <t>ASTSDYQVISDRQPK</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4482.1201171875</v>
+        <v>3376.176025390625</v>
       </c>
       <c r="C255" t="n">
-        <v>4464.390625</v>
+        <v>3422.445068359375</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GAKLPEEEEILNK</t>
+          <t>KPISDNSFSDEEQSTGPIK</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4241.490234375</v>
+        <v>3793.85400390625</v>
       </c>
       <c r="C256" t="n">
-        <v>4034.585693359375</v>
+        <v>3889.719970703125</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RPTSSAIPLQSPR</t>
+          <t>EPSAPSIPTPAYQSSPAGGHAPTPPTPAPR</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3742.0439453125</v>
+        <v>4583.7001953125</v>
       </c>
       <c r="C257" t="n">
-        <v>3494.17236328125</v>
+        <v>4456.80517578125</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TLPYLVSNVIELLDVDPNDQEEDGANIDLDSQRK</t>
+          <t>LIHEQEQQSSS</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>6267.60009765625</v>
+        <v>2005.77001953125</v>
       </c>
       <c r="C258" t="n">
-        <v>5998.27685546875</v>
+        <v>2377.475341796875</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SIYYITGESK</t>
+          <t>MLFSPEEMDLSQEQPLDAQQGPPEPAQESLSGSESKPK</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3961.22998046875</v>
+        <v>5897.5439453125</v>
       </c>
       <c r="C259" t="n">
-        <v>3529.72705078125</v>
+        <v>5604.5400390625</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TDRGGDIGETPTPGASK</t>
+          <t>NNDLQDNYLSEQNK</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2767.2119140625</v>
+        <v>3678.365966796875</v>
       </c>
       <c r="C260" t="n">
-        <v>2823.100341796875</v>
+        <v>3884.958740234375</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>KYSLNLFDTYK</t>
+          <t>RLGNEYVFTK</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>5481.0419921875</v>
+        <v>3934.43408203125</v>
       </c>
       <c r="C261" t="n">
-        <v>5650.53515625</v>
+        <v>4096.9794921875</v>
       </c>
     </row>
     <row r="262">
@@ -3840,1060 +3840,1060 @@
         <v>5093.25</v>
       </c>
       <c r="C262" t="n">
-        <v>4883.90380859375</v>
+        <v>4746.04345703125</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>YNLDAEEEDSNKK</t>
+          <t>GGREGFEDTDSEFTFK</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2844.18603515625</v>
+        <v>4695.2880859375</v>
       </c>
       <c r="C263" t="n">
-        <v>2491.25927734375</v>
+        <v>4420.126953125</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GSQSSDSSSSLSSHRYETPSDAIEVIPASPAPPQEK</t>
+          <t>NVDSSPETSPSVSPMPHSSSIANLQTASK</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4741.8359375</v>
+        <v>4361.5322265625</v>
       </c>
       <c r="C264" t="n">
-        <v>5137.0966796875</v>
+        <v>4996.44287109375</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SRSEPSPDAPESPSSCSPK</t>
+          <t>SNSGRELDEEILASVIK</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2593.367919921875</v>
+        <v>5878.7099609375</v>
       </c>
       <c r="C265" t="n">
-        <v>2326.52880859375</v>
+        <v>5625.1015625</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TAQALAQLAAQHSQSGSTTTSSWDMGSTTQSPSLVQYDLK</t>
+          <t>TDPSLDLHSLSAETQPAQEELREDPDFEIK</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5748.509765625</v>
+        <v>5816.72998046875</v>
       </c>
       <c r="C266" t="n">
-        <v>5681.3505859375</v>
+        <v>5706.03857421875</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLESPQR</t>
+          <t>IEEPVSMEMDNHMSDKDESCYDNAEAAFDDEEDLNSK</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4113.82177734375</v>
+        <v>5183.7958984375</v>
       </c>
       <c r="C267" t="n">
-        <v>4323.07080078125</v>
+        <v>5212.14208984375</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>QNNLCLEQGDVTVPGSSLGTEIWESSSQALPVQAPANDSWRK</t>
+          <t>KEGEEEEENTEEPPQGEEEESMETQE</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6117.2998046875</v>
+        <v>3342.384033203125</v>
       </c>
       <c r="C268" t="n">
-        <v>6119.06787109375</v>
+        <v>3300.468994140625</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>LNTVDTHK</t>
+          <t>ACDCDPRGIETPQCDQSTGQCVCVEGVEGPR</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2198.166015625</v>
+        <v>4210.81787109375</v>
       </c>
       <c r="C269" t="n">
-        <v>2354.642578125</v>
+        <v>3829.6708984375</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DSETGENIR</t>
+          <t>HAAYSSDSENQGSYSGVIPPPPGR</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2113.169921875</v>
+        <v>4283.333984375</v>
       </c>
       <c r="C270" t="n">
-        <v>2029.304321289062</v>
+        <v>4027.977294921875</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SPGLYAIGYEECIERPLPHMEQSSLDPGK</t>
+          <t>LSDCEGSVHCEVPSEQYACEGKPPDPDEGSTK</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5778.240234375</v>
+        <v>3838.577880859375</v>
       </c>
       <c r="C271" t="n">
-        <v>6156.94873046875</v>
+        <v>3519.09716796875</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>EHQEMDEGQSLEK</t>
+          <t>VERLSGPEQITLEASSTEGHPGAPPQHTDQTEAFQK</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2573.43603515625</v>
+        <v>4719.2099609375</v>
       </c>
       <c r="C272" t="n">
-        <v>2429.714111328125</v>
+        <v>4601.2685546875</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>DLGLPTEAYISVEEVHDDGTPTSK</t>
+          <t>TTSQAHSLPLPASTR</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>5817.4560546875</v>
+        <v>3616.907958984375</v>
       </c>
       <c r="C273" t="n">
-        <v>5605.90673828125</v>
+        <v>3645.63037109375</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>QQVPSGESAILDRVADGVFGALLPCEECSGQLVFK</t>
+          <t>LLKPGEEPSEYDEEDTK</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6162.2998046875</v>
+        <v>3592.260009765625</v>
       </c>
       <c r="C274" t="n">
-        <v>6320.87939453125</v>
+        <v>3312.83056640625</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ANGNLSNMYEVLNNNEESLTCGIEQHTGENVSR</t>
+          <t>EANEILQR</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>6033.5400390625</v>
+        <v>2951.447998046875</v>
       </c>
       <c r="C275" t="n">
-        <v>5949.87353515625</v>
+        <v>3151.478515625</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GIASTSDPPTANIKPTPVVSTPSK</t>
+          <t>SNNSMAQAMK</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>4141.326171875</v>
+        <v>2382.27001953125</v>
       </c>
       <c r="C276" t="n">
-        <v>4427.2744140625</v>
+        <v>2749.096923828125</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>LQENEEEEIGNLELAWDMLDLAK</t>
+          <t>NNFEADAYFVK</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>6383.39990234375</v>
+        <v>4828.17578125</v>
       </c>
       <c r="C277" t="n">
-        <v>6304.46630859375</v>
+        <v>4977.74169921875</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HAAYSSDSENQGSYSGVIPPPPGR</t>
+          <t>ANTPDARLGDSK</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>4283.333984375</v>
+        <v>2387.837890625</v>
       </c>
       <c r="C278" t="n">
-        <v>3907.7802734375</v>
+        <v>2567.4990234375</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>NQWQLSADDLK</t>
+          <t>SSFNVSDVARPEAAGSPPEEGGCTEGTPAK</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>4700.333984375</v>
+        <v>4187.57421875</v>
       </c>
       <c r="C279" t="n">
-        <v>4501.83837890625</v>
+        <v>3857.06982421875</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>VRGGGSGGSGGQVSLK</t>
+          <t>ELSNPLRENSFGSPLEFRNSGPLGTENTGFSSEVK</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2389.236083984375</v>
+        <v>5826.97216796875</v>
       </c>
       <c r="C280" t="n">
-        <v>2402.89208984375</v>
+        <v>5823.171875</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>LGRETEEQDSDAEQGDPAGEGK</t>
+          <t>YSRLSSDDGYIDLQFK</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2633.72412109375</v>
+        <v>5407.169921875</v>
       </c>
       <c r="C281" t="n">
-        <v>2545.45751953125</v>
+        <v>5204.05322265625</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ESDSAEGDEAEPEQQVRK</t>
+          <t>DNEDAFYNSQK</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2603.736083984375</v>
+        <v>3134.97607421875</v>
       </c>
       <c r="C282" t="n">
-        <v>2542.298095703125</v>
+        <v>3030.2333984375</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>DGAVNGPSVVGDQTPIEPQTSIERLTETK</t>
+          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLESPQR</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>5543.7060546875</v>
+        <v>4113.82177734375</v>
       </c>
       <c r="C283" t="n">
-        <v>5205.50146484375</v>
+        <v>4405.3173828125</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SLHAEPGFSQASR</t>
+          <t>EEIQDEEDDDDYVEEGEEEEEEEEGGLRGEK</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3128.02197265625</v>
+        <v>4599.8818359375</v>
       </c>
       <c r="C284" t="n">
-        <v>3218.56396484375</v>
+        <v>4333.302734375</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AGSSAAGASGWTSAGSLNSVPTNSAQQGHNSPDSPVTSAAK</t>
+          <t>AHPLNTPDPSTK</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>4309.1337890625</v>
+        <v>2754.659912109375</v>
       </c>
       <c r="C285" t="n">
-        <v>4591.017578125</v>
+        <v>2598.428466796875</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RASQSLESSTGPPCIR</t>
+          <t>RSDMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3675.864013671875</v>
+        <v>6243.72021484375</v>
       </c>
       <c r="C286" t="n">
-        <v>3675.89990234375</v>
+        <v>6345.22802734375</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GLNQMNNGNGANK</t>
+          <t>GGRPDEVTLTSIVPTR</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2133.6240234375</v>
+        <v>5161.0078125</v>
       </c>
       <c r="C287" t="n">
-        <v>2207.3623046875</v>
+        <v>4590.1328125</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GQPVAPYNTTQFLDDHDQEEPDLK</t>
+          <t>HSTSPSLDSEYNEELNEDDSQDEK</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>5004.02392578125</v>
+        <v>3963.239990234375</v>
       </c>
       <c r="C288" t="n">
-        <v>5030.849609375</v>
+        <v>3937.13623046875</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>VAVVRPPKPSSAK</t>
+          <t>HDSIPAADTFEDLDVEGGGSEPTQR</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2875.637939453125</v>
+        <v>5253.14990234375</v>
       </c>
       <c r="C289" t="n">
-        <v>2720.043701171875</v>
+        <v>5053.55419921875</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TSGTSLSAMHSSGSSGK</t>
+          <t>NSQVGSDNSSILLFDSTQESLPPSQDIPAIFREGMK</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2590.416015625</v>
+        <v>6142.97998046875</v>
       </c>
       <c r="C290" t="n">
-        <v>2565.13330078125</v>
+        <v>6205.25341796875</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>GLGKPGGQGDAIQLPK</t>
+          <t>TSEQLDQPISACCFNHNGNIFAYASSYDWSK</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>3891.221923828125</v>
+        <v>6058.56005859375</v>
       </c>
       <c r="C291" t="n">
-        <v>3895.553466796875</v>
+        <v>6253.26318359375</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DSTLIMQLLRDNLTLWTSDMQGDGEEQNK</t>
+          <t>TAQALAQLAAQHSQSGSTTTSSWDMGSTTQSPSLVQYDLK</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>6313.6201171875</v>
+        <v>5748.509765625</v>
       </c>
       <c r="C292" t="n">
-        <v>6434.44775390625</v>
+        <v>5891.77685546875</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ATSCFPRPMPR</t>
+          <t>SSGHSSELSPDAVEK</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3732.929931640625</v>
+        <v>3061.944091796875</v>
       </c>
       <c r="C293" t="n">
-        <v>3857.14599609375</v>
+        <v>2868.97607421875</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>KIPDPDSDDVEVDAR</t>
+          <t>DLPTIPGVTSPSSDEPPMEASQSHLRNPEDK</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3739.583984375</v>
+        <v>5371.8779296875</v>
       </c>
       <c r="C294" t="n">
-        <v>3623.6591796875</v>
+        <v>5143.40380859375</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>VADGLPLAASMQEDEQSGRDLQQYQSQAK</t>
+          <t>VLGPYTFSICDTSNFSDYIRGGIVSQVK</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>5022.94189453125</v>
+        <v>6127.6201171875</v>
       </c>
       <c r="C295" t="n">
-        <v>5112.5546875</v>
+        <v>6116.962890625</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>LCDFGSASHVADNDITPLVSR</t>
+          <t>ESESCDCLQGFQLTHSLGGGTGSGGTLLISK</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>5416.7939453125</v>
+        <v>5389.416015625</v>
       </c>
       <c r="C296" t="n">
-        <v>5109.06591796875</v>
+        <v>5566.70703125</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>EEIQDEEDDDDYVEEGEEEEEEEEGGLRGEK</t>
+          <t>GTTSYNEVADELVAEFSAADNHILPNESAYDQK</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4599.8818359375</v>
+        <v>6175.6201171875</v>
       </c>
       <c r="C297" t="n">
-        <v>4624.7890625</v>
+        <v>5781.1728515625</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>KEGEEEEENTEEPPQGEEEESMETQE</t>
+          <t>DEDDDLVSPPNTEGNQWYDFLQNSSHLK</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3342.384033203125</v>
+        <v>6118.31982421875</v>
       </c>
       <c r="C298" t="n">
-        <v>3066.499755859375</v>
+        <v>5912.86376953125</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RQSSIFGGADVGFSGGIPPDK</t>
+          <t>GSQSSDSSSSLSSHRYETPSDAIEVIPASPAPPQEK</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>5614.33203125</v>
+        <v>4741.8359375</v>
       </c>
       <c r="C299" t="n">
-        <v>5386.990234375</v>
+        <v>4740.45849609375</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RSVLPPDGNGPVLPDK</t>
+          <t>DSSGQHVDVPTSQR</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>4357.326171875</v>
+        <v>2616.19189453125</v>
       </c>
       <c r="C300" t="n">
-        <v>4532.27197265625</v>
+        <v>2370.799072265625</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CAAPRPPSSPEQR</t>
+          <t>NLPYKVQDELK</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2480.741943359375</v>
+        <v>4187.57421875</v>
       </c>
       <c r="C301" t="n">
-        <v>2392.69091796875</v>
+        <v>4387.3154296875</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>YSDVEVPASVTGYSFASDGDSGTCSPLRHFQK</t>
+          <t>RDYTGCSTESLSPVK</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>5320.80615234375</v>
+        <v>3550.530029296875</v>
       </c>
       <c r="C302" t="n">
-        <v>5761.6474609375</v>
+        <v>3416.32421875</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>VLGPYTFSICDTSNFSDYIRGGIVSQVK</t>
+          <t>GEPGADGEAGRPGSSGPSGDEGQPGEPGPPGEK</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6127.6201171875</v>
+        <v>3005.087890625</v>
       </c>
       <c r="C303" t="n">
-        <v>6084.03173828125</v>
+        <v>2661.950439453125</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>KQLGELIGTLNAAK</t>
+          <t>FRPAAPPLALRQPVK</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>5712.7080078125</v>
+        <v>4453.6259765625</v>
       </c>
       <c r="C304" t="n">
-        <v>5220.28466796875</v>
+        <v>4988.35498046875</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SSFNVSDVARPEAAGSPPEEGGCTEGTPAK</t>
+          <t>KDDEDDDEEEYGK</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>4187.57421875</v>
+        <v>2261.093994140625</v>
       </c>
       <c r="C305" t="n">
-        <v>3963.211669921875</v>
+        <v>2258.622314453125</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LERPNGPNIDK</t>
+          <t>ASFDHPDSLPLR</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2712.258056640625</v>
+        <v>4343.15380859375</v>
       </c>
       <c r="C306" t="n">
-        <v>2994.62109375</v>
+        <v>4354.39111328125</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>TRVLGQVSCELVPK</t>
+          <t>EEDEEEEDDEESGRLR</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>4453.6259765625</v>
+        <v>2723.610107421875</v>
       </c>
       <c r="C307" t="n">
-        <v>4695.5087890625</v>
+        <v>2734.59228515625</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AEGEEEMDTGADDQDGDAAQHPEEHEEQQQSVEEK</t>
+          <t>GGGGGQDNGLEGLGNDSR</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2953.337890625</v>
+        <v>3309.419921875</v>
       </c>
       <c r="C308" t="n">
-        <v>3053.15673828125</v>
+        <v>3262.09765625</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>RLLEDGEDFNLGDALDSNSMQTIQK</t>
+          <t>GMSPEQSRFQSDSSSYPTVDSNSLLGQSRLETAESK</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>6005.27978515625</v>
+        <v>5083.1220703125</v>
       </c>
       <c r="C309" t="n">
-        <v>6041.75537109375</v>
+        <v>5116.16064453125</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>GSQITQQSTNQSR</t>
+          <t>AGSSNQSISPVLDAVPRPSRER</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1962.58203125</v>
+        <v>4486.1337890625</v>
       </c>
       <c r="C310" t="n">
-        <v>2082.384521484375</v>
+        <v>4690.3212890625</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>HDSIPAADTFEDLDVEGGGSEPTQR</t>
+          <t>DSTLIMQLLRDNLTLWTSDMQGDGEEQNK</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>5253.14990234375</v>
+        <v>6313.6201171875</v>
       </c>
       <c r="C311" t="n">
-        <v>5387.8017578125</v>
+        <v>6440.5048828125</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>GGRPDEVTLTSIVPTR</t>
+          <t>AHLENELEALEK</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>5161.0078125</v>
+        <v>4560.69580078125</v>
       </c>
       <c r="C312" t="n">
-        <v>4880.42431640625</v>
+        <v>4618.61279296875</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>GRTWLCGTPEYLAPEIILSK</t>
+          <t>RTGYEGEYELGEGLGVK</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6172.14013671875</v>
+        <v>4843.158203125</v>
       </c>
       <c r="C313" t="n">
-        <v>6363.86669921875</v>
+        <v>4561.41064453125</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>GPEGGEGAECGGASEGGEGQNGGDAAPARPPAGEPR</t>
+          <t>ESDSAEGDEAEPEQQVRK</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2930.820068359375</v>
+        <v>2603.736083984375</v>
       </c>
       <c r="C314" t="n">
-        <v>3021.088623046875</v>
+        <v>2405.338134765625</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SDRAQAVSEDAGGNEGR</t>
+          <t>EEHLDVAPDK</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2343.5400390625</v>
+        <v>2941.716064453125</v>
       </c>
       <c r="C315" t="n">
-        <v>2507.25146484375</v>
+        <v>2694.084716796875</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>LLKPGEEPSETDEEDTK</t>
+          <t>SSQTSQNQGLGRPTLEGDEETSEVEYTVNK</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>3591.419921875</v>
+        <v>4269.6181640625</v>
       </c>
       <c r="C316" t="n">
-        <v>2889.180908203125</v>
+        <v>4206.26708984375</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SSLGSLQPEAVTTRK</t>
+          <t>TRLDFPQNEPQIK</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>3914.285888671875</v>
+        <v>4309.52392578125</v>
       </c>
       <c r="C317" t="n">
-        <v>3668.13671875</v>
+        <v>4551.7529296875</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RNPNTQLSTFDETYIK</t>
+          <t>SPYASLCQVEFGNFNNLSNHSGNNVNYNASQQCQAPGVQK</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>4645.84814453125</v>
+        <v>5494.337890625</v>
       </c>
       <c r="C318" t="n">
-        <v>4943.00341796875</v>
+        <v>5474.57763671875</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>EHALLATLGVK</t>
+          <t>NDKEEEQSSSSVK</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>5335.841796875</v>
+        <v>1708.109985351562</v>
       </c>
       <c r="C319" t="n">
-        <v>4854.44287109375</v>
+        <v>1794.82958984375</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>RAEMLQQADK</t>
+          <t>NNCPFADENYRPLAK</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3081.882080078125</v>
+        <v>4350.56396484375</v>
       </c>
       <c r="C320" t="n">
-        <v>3060.21240234375</v>
+        <v>4338.45703125</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>RSDTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
+          <t>NGLRNADSEIK</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>6226.6201171875</v>
+        <v>2726.364013671875</v>
       </c>
       <c r="C321" t="n">
-        <v>6198.625</v>
+        <v>3003.613037109375</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SKAEDGEEDEVSAGEK</t>
+          <t>GSQITQQSTNQSR</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2376.91796875</v>
+        <v>1962.58203125</v>
       </c>
       <c r="C322" t="n">
-        <v>2356.95703125</v>
+        <v>2201.3271484375</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>AELQLPPPPPPGHYGAWAAQELQAK</t>
+          <t>ANGNLSNMYEVLNNNEESLTCGIEQHTGENVSR</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>5799.94189453125</v>
+        <v>6033.5400390625</v>
       </c>
       <c r="C323" t="n">
-        <v>5824.5390625</v>
+        <v>5711.08447265625</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>YEYDPDIPPRK</t>
+          <t>SENENQEQIEESK</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>3895.2060546875</v>
+        <v>2227.800048828125</v>
       </c>
       <c r="C324" t="n">
-        <v>3745.96240234375</v>
+        <v>2278.904296875</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>LTRQECLGNSPPFEK</t>
+          <t>GQPVAPYNTTQFLDDHDQEEPDLK</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3854.43603515625</v>
+        <v>5004.02392578125</v>
       </c>
       <c r="C325" t="n">
-        <v>3738.455078125</v>
+        <v>4884.0986328125</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>IGPILDTNALQGEVKPVLQK</t>
+          <t>SSSSQESLNRPFSSK</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>5644.48779296875</v>
+        <v>3189.090087890625</v>
       </c>
       <c r="C326" t="n">
-        <v>5559.86474609375</v>
+        <v>3064.337158203125</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>RITPLMEPSSIEK</t>
+          <t>EQFENHNPINSATSISNIISIETPNTAPSSK</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>4450.169921875</v>
+        <v>5862.0361328125</v>
       </c>
       <c r="C327" t="n">
-        <v>4461.95947265625</v>
+        <v>5711.5595703125</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>RTVSQQFDGVSLDSSGPEDR</t>
+          <t>SDFQVNLNNASR</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4435.5361328125</v>
+        <v>4037.988037109375</v>
       </c>
       <c r="C328" t="n">
-        <v>4417.34765625</v>
+        <v>4174.2001953125</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>LLKPGEEPSEYDEEDTK</t>
+          <t>ASHSSQTQGGGSVTK</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>3592.260009765625</v>
+        <v>1593.18603515625</v>
       </c>
       <c r="C329" t="n">
-        <v>3200.888427734375</v>
+        <v>1713.845947265625</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>VVAPVESHVPESNQAQGEPAANEGTTVQHPEAPQEEK</t>
+          <t>QPGYQPPNPHPGPSSPPAAPASK</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>3776.238037109375</v>
+        <v>3348.47412109375</v>
       </c>
       <c r="C330" t="n">
-        <v>4034.10595703125</v>
+        <v>3524.356689453125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SFLSEPSPGRTK</t>
+          <t>AVTIANSPKPSEK</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3560.489990234375</v>
+        <v>2590.800048828125</v>
       </c>
       <c r="C331" t="n">
-        <v>3511.63623046875</v>
+        <v>2687.93505859375</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EHASIDAQSGAGVPNPSSASPK</t>
+          <t>RSVLPPDGNGPVLPDK</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>3463.283935546875</v>
+        <v>4357.326171875</v>
       </c>
       <c r="C332" t="n">
-        <v>3189.9208984375</v>
+        <v>4425.876953125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>DEDDDLVSPPNTEGNQWYDFLQNSSHLK</t>
+          <t>DDDSLEASHSK</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>6118.31982421875</v>
+        <v>2398.637939453125</v>
       </c>
       <c r="C333" t="n">
-        <v>6173.93798828125</v>
+        <v>2157.760009765625</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>IEEPVSMEMDNHMSDKDESCYDNAEAAFDDEEDLNSK</t>
+          <t>SVQANLDQSQR</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>5183.7958984375</v>
+        <v>2578.236083984375</v>
       </c>
       <c r="C334" t="n">
-        <v>5358.74609375</v>
+        <v>2719.747314453125</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>EAEETNGGAQIQPLPADCGISSATEKPDSK</t>
+          <t>KLETEETVPEDVETK</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>4179.85791015625</v>
+        <v>3413.4541015625</v>
       </c>
       <c r="C335" t="n">
-        <v>4337.0947265625</v>
+        <v>3458.23388671875</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GGNCLLNIPKPDEAYSAPSCGNK</t>
+          <t>TLVITSTPASPNRELHPQLLSPK</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>4779.85791015625</v>
+        <v>5002.7041015625</v>
       </c>
       <c r="C336" t="n">
-        <v>4564.63134765625</v>
+        <v>5550.087890625</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SLLSHEFQDETDEEETLYSSK</t>
+          <t>DTSLLASATDPEPCSPHRPQMVSPVSK</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>5099.076171875</v>
+        <v>4804.35009765625</v>
       </c>
       <c r="C337" t="n">
-        <v>5122.62841796875</v>
+        <v>4874.771484375</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>EQELQQTLQQEQSVLDQLRGEAEAAR</t>
+          <t>SPGLYAIGYEECIERPLPHMEQSSLDPGK</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>6077.8798828125</v>
+        <v>5778.240234375</v>
       </c>
       <c r="C338" t="n">
-        <v>5393.822265625</v>
+        <v>5713.71533203125</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ASEPLLPPPFGESRK</t>
+          <t>DSRPSQAAGDNQGDEAK</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>5056.3017578125</v>
+        <v>1787.838012695312</v>
       </c>
       <c r="C339" t="n">
-        <v>4969.51318359375</v>
+        <v>1924.951416015625</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ANTPDARLGDSK</t>
+          <t>IERPGEGPVDNPR</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2387.837890625</v>
+        <v>2916.58203125</v>
       </c>
       <c r="C340" t="n">
-        <v>2576.291015625</v>
+        <v>2766.528564453125</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RQAFPSSTMMEVFLQEK</t>
+          <t>GLNQMNNGNGANK</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>6137.8798828125</v>
+        <v>2133.6240234375</v>
       </c>
       <c r="C341" t="n">
-        <v>6016.99462890625</v>
+        <v>2342.975830078125</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>IEEPSVVETTHQDPLPHPESTTSDEK</t>
+          <t>KIPEFEVENPLSDVAK</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>4147.2841796875</v>
+        <v>5311.73388671875</v>
       </c>
       <c r="C342" t="n">
-        <v>4193.21044921875</v>
+        <v>5327.16943359375</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FDNNSGQSAIK</t>
+          <t>KYEQGFITDPVVLPK</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>2455.1640625</v>
+        <v>5406.2578125</v>
       </c>
       <c r="C343" t="n">
-        <v>2605.59912109375</v>
+        <v>5476.5595703125</v>
       </c>
     </row>
   </sheetData>

--- a/results/RT/hela_mod_validation_set_prediction.xlsx
+++ b/results/RT/hela_mod_validation_set_prediction.xlsx
@@ -453,2029 +453,2029 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YEYDPDIPPRK</t>
+          <t>GIASTSDPPTANIKPTPVVSTPSK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3895.2060546875</v>
+        <v>4141.326171875</v>
       </c>
       <c r="C2" t="n">
-        <v>3611.66796875</v>
+        <v>4205.162109375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GRTWLCGTPEYLAPEIILSK</t>
+          <t>FVESQVESESSVLNDSPFPEDDSEGLHDSREEK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6172.14013671875</v>
+        <v>5179.26611328125</v>
       </c>
       <c r="C3" t="n">
-        <v>5932.38916015625</v>
+        <v>5238.5107421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NQDLCQQEAVK</t>
+          <t>GQPVAPYNTTQFLDDHDQEEPDLK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2563.39208984375</v>
+        <v>5004.02392578125</v>
       </c>
       <c r="C4" t="n">
-        <v>2614.732421875</v>
+        <v>4893.57080078125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTPRSSDTEENVK</t>
+          <t>RPEPSEISPIK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2044.151977539062</v>
+        <v>3645.419921875</v>
       </c>
       <c r="C5" t="n">
-        <v>2079.424072265625</v>
+        <v>3508.779296875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VQDDEVGDGTTSVTVLAAELLREAESLIAK</t>
+          <t>DFCVHGGAGGGAGSSGGSSSQTPSTDPFPGSPAIPAEK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6421.97998046875</v>
+        <v>4961.39990234375</v>
       </c>
       <c r="C6" t="n">
-        <v>6517.38427734375</v>
+        <v>4588.31689453125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VLTDAVDDITSIDDFLAVSENHILEDVNK</t>
+          <t>KLPATTAPDSSK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6275.10009765625</v>
+        <v>2463.528076171875</v>
       </c>
       <c r="C7" t="n">
-        <v>6368.3251953125</v>
+        <v>2504.387939453125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RTVSQQFDGVSLDSSGPEDR</t>
+          <t>KYEQGFITDPVVLPK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4435.5361328125</v>
+        <v>5406.2578125</v>
       </c>
       <c r="C8" t="n">
-        <v>3965.959716796875</v>
+        <v>5298.5712890625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MSHSSSGSASLSQVPGK</t>
+          <t>LALDMEIAYRK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2712.258056640625</v>
+        <v>5185.47021484375</v>
       </c>
       <c r="C9" t="n">
-        <v>2961.08837890625</v>
+        <v>5057.9892578125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SLGQWLQEEK</t>
+          <t>VRGPVSGPDSMNASR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4829.4658203125</v>
+        <v>2969.47802734375</v>
       </c>
       <c r="C10" t="n">
-        <v>4611.59765625</v>
+        <v>3083.355224609375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DLSLDDFK</t>
+          <t>KLETEETVPEDVETK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5089.64990234375</v>
+        <v>3413.4541015625</v>
       </c>
       <c r="C11" t="n">
-        <v>4607.818359375</v>
+        <v>3578.120361328125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DLGLPTEAYISVEEVHDDGTPTSK</t>
+          <t>KEGEEEEENTEEPPQGEEEESMETQE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5817.4560546875</v>
+        <v>3342.384033203125</v>
       </c>
       <c r="C12" t="n">
-        <v>5346.82177734375</v>
+        <v>3267.927978515625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SYSSLRGMPSALK</t>
+          <t>SPYASLCQVEFGNFNNLSNHSGNNVNYNASQQCQAPGVQK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4297.68017578125</v>
+        <v>5494.337890625</v>
       </c>
       <c r="C13" t="n">
-        <v>4410.1396484375</v>
+        <v>5727.5556640625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IPSVTSGTTSSSNTMVAPTDGNPDNKPIK</t>
+          <t>ANNLSSLSK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4050.8701171875</v>
+        <v>2631.714111328125</v>
       </c>
       <c r="C14" t="n">
-        <v>4174.82861328125</v>
+        <v>2850.552001953125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QGCDCECLGGGR</t>
+          <t>CIEVMGDGCLNNEHFEELGGILK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2378.31005859375</v>
+        <v>6031.3798828125</v>
       </c>
       <c r="C15" t="n">
-        <v>2321.2236328125</v>
+        <v>5929.02685546875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RLLEDGEDFNLGDALDSNSMQTIQK</t>
+          <t>RQPLPPQK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6005.27978515625</v>
+        <v>2196.882080078125</v>
       </c>
       <c r="C16" t="n">
-        <v>6063.45166015625</v>
+        <v>2548.828369140625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SRGSDPAADVEIEYVTEEPEIYEPNFIFFK</t>
+          <t>NNVVINYK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6218.64013671875</v>
+        <v>3257.00390625</v>
       </c>
       <c r="C17" t="n">
-        <v>6204.49560546875</v>
+        <v>3604.045654296875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EHAPLAPVENK</t>
+          <t>DGSCSVEYIPYEAGTYSLNVTYGGHQVPGSPFK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2929.5</v>
+        <v>6063.240234375</v>
       </c>
       <c r="C18" t="n">
-        <v>3007.039306640625</v>
+        <v>6559.93115234375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LQENEEEEIGNLELAWDMLDLAK</t>
+          <t>FNVWDVGGQDK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6383.39990234375</v>
+        <v>5037.2099609375</v>
       </c>
       <c r="C19" t="n">
-        <v>6403.80517578125</v>
+        <v>4567.244140625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NNVVINYK</t>
+          <t>FDNNSGQSAIK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3257.00390625</v>
+        <v>2455.1640625</v>
       </c>
       <c r="C20" t="n">
-        <v>3254.238037109375</v>
+        <v>2750.359130859375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QTQAASASQGSASAAEVLLRTATANGFQMVTSGVQSK</t>
+          <t>LCAGIITAHNPK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6146.580078125</v>
+        <v>3868.134033203125</v>
       </c>
       <c r="C21" t="n">
-        <v>5745.33154296875</v>
+        <v>3403.636962890625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SALMDESEDSGVIPGSHSENALHAEEEEGEGGK</t>
+          <t>GSRVDIETPNLEGLTGPR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4427.490234375</v>
+        <v>4832.65185546875</v>
       </c>
       <c r="C22" t="n">
-        <v>4268.80615234375</v>
+        <v>4709.4169921875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LREQGTERSTPLPTISSSAENTR</t>
+          <t>DNEDAFYNSQK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4061.0458984375</v>
+        <v>3134.97607421875</v>
       </c>
       <c r="C23" t="n">
-        <v>3908.12646484375</v>
+        <v>2902.928466796875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DSTLIMQLLRDNLTLWTSDSAGEECDAAEGAEN</t>
+          <t>CGSGPVHISGQHLVAVEEDAEEDEEEEDVK</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6367.2001953125</v>
+        <v>4480.33203125</v>
       </c>
       <c r="C24" t="n">
-        <v>6416.87841796875</v>
+        <v>4502.7041015625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSQSNNQFQK</t>
+          <t>GGNCLLNIPKPDEAYSAPSCGNK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1886.567993164062</v>
+        <v>4779.85791015625</v>
       </c>
       <c r="C25" t="n">
-        <v>2029.254028320312</v>
+        <v>4683.6396484375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ASFEEASNQLINHIEQFLDTNETPYFMK</t>
+          <t>RTVSQQFDGVSLDSSGPEDR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6280.68017578125</v>
+        <v>4435.5361328125</v>
       </c>
       <c r="C26" t="n">
-        <v>6350.6611328125</v>
+        <v>4474.99951171875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GHTASEDEQQWPEEK</t>
+          <t>RTELVLSPDPR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3061.944091796875</v>
+        <v>4012.697998046875</v>
       </c>
       <c r="C27" t="n">
-        <v>3126.681640625</v>
+        <v>4403.43310546875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANNLSSLSK</t>
+          <t>QGASVASGSGTVHTSAVSLPSNAAVSK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2631.714111328125</v>
+        <v>3857.837890625</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.147705078125</v>
+        <v>4069.11279296875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RTTPSDTDLLDRSASK</t>
+          <t>KQLGELIGTLNAAK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3583.998046875</v>
+        <v>5712.7080078125</v>
       </c>
       <c r="C29" t="n">
-        <v>3600.47900390625</v>
+        <v>5401.8466796875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EHALLATLGVK</t>
+          <t>GAKLPEEEEILNK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5335.841796875</v>
+        <v>4241.490234375</v>
       </c>
       <c r="C30" t="n">
-        <v>4940.521484375</v>
+        <v>4081.3134765625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QQVPSGESAILDRVADGVFGALLPCEECSGQLVFK</t>
+          <t>GSGTAEVELK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6162.2998046875</v>
+        <v>2829.68408203125</v>
       </c>
       <c r="C31" t="n">
-        <v>6232.06201171875</v>
+        <v>2789.822265625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DSLSVSSNDASPPASVASLQPHIGAQSSPGPK</t>
+          <t>NHAGPGCEESDAGK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4758.666015625</v>
+        <v>1769.657958984375</v>
       </c>
       <c r="C32" t="n">
-        <v>4784.111328125</v>
+        <v>1827.782836914062</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LHVGNIPTCTNQELR</t>
+          <t>PRDWEQFEYK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4204.0498046875</v>
+        <v>4661.47216796875</v>
       </c>
       <c r="C33" t="n">
-        <v>4423.59375</v>
+        <v>4736.15478515625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAAAISEVVSQTPASTTQAGAPPRDTSQSDK</t>
+          <t>DVNFEFPEFQL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4644.40185546875</v>
+        <v>6337.919921875</v>
       </c>
       <c r="C34" t="n">
-        <v>4393.990234375</v>
+        <v>5677.0087890625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>QGTAVEVEAESLDPTVKPVDVGGDEPEEK</t>
+          <t>RNSSEASSGDFLDLK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5019.587890625</v>
+        <v>4165.10400390625</v>
       </c>
       <c r="C35" t="n">
-        <v>5005.61669921875</v>
+        <v>4744.91162109375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AEAPLPPKLEGELQAPDLELSLPAIHVEGLDIK</t>
+          <t>NIGRDPTSAGPNSFNK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6168.89990234375</v>
+        <v>3204.132080078125</v>
       </c>
       <c r="C36" t="n">
-        <v>6192.056640625</v>
+        <v>3243.34912109375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>QGDLSANQDEETDQETFQLEIDRDTK</t>
+          <t>GLNQMNNGNGANK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4810.998046875</v>
+        <v>2133.6240234375</v>
       </c>
       <c r="C37" t="n">
-        <v>4847.22314453125</v>
+        <v>2180.3583984375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SFLSEPSPGRTK</t>
+          <t>AGYSDESSSSSLHATR</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3563.285888671875</v>
+        <v>2685.833984375</v>
       </c>
       <c r="C38" t="n">
-        <v>3276.2734375</v>
+        <v>2451.647216796875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SRDVDDAAAEATR</t>
+          <t>DSSGQHVDVPTSQR</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2612.736083984375</v>
+        <v>2616.19189453125</v>
       </c>
       <c r="C39" t="n">
-        <v>2539.615966796875</v>
+        <v>2406.5400390625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TPENHPETPK</t>
+          <t>ASTSDYQVISDRQPK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1932.660034179688</v>
+        <v>3376.176025390625</v>
       </c>
       <c r="C40" t="n">
-        <v>1800.00244140625</v>
+        <v>3581.739013671875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SRSEPSPDAPESPSSCSPK</t>
+          <t>DSRPSQAAGDNQGDEAK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2593.367919921875</v>
+        <v>1787.838012695312</v>
       </c>
       <c r="C41" t="n">
-        <v>2289.028076171875</v>
+        <v>2037.75341796875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NIIHGDSVESAEK</t>
+          <t>RQSSIFGGADVGFSGGIPPDK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3130.81201171875</v>
+        <v>5614.33203125</v>
       </c>
       <c r="C42" t="n">
-        <v>3042.295166015625</v>
+        <v>5419.73828125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ADREVQAEQPSSSPR</t>
+          <t>RSSEDAESLAPR</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2245.39794921875</v>
+        <v>2953.337890625</v>
       </c>
       <c r="C43" t="n">
-        <v>2235.34228515625</v>
+        <v>2962.462158203125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GADINAPDK</t>
+          <t>GLGKPGGQGDAIQLPK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2270.3701171875</v>
+        <v>3891.221923828125</v>
       </c>
       <c r="C44" t="n">
-        <v>2204.393798828125</v>
+        <v>3951.271484375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INSSGEGDESDEFLQSRK</t>
+          <t>TLVITSTPASPNRELHPQLLSPK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3694.0439453125</v>
+        <v>5002.7041015625</v>
       </c>
       <c r="C45" t="n">
-        <v>3656.353271484375</v>
+        <v>5047.30810546875</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>YNLDAEEEDSNKK</t>
+          <t>ELSNPLRENSFGSPLEFRNSGPLGTENTGFSSEVK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2844.18603515625</v>
+        <v>5826.97216796875</v>
       </c>
       <c r="C46" t="n">
-        <v>2470.49072265625</v>
+        <v>6084.26806640625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AKPAPQDSVPPR</t>
+          <t>ASNDQRPQEVPAEALAPAPAEVPAPAPAAASASGPAK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2757.4560546875</v>
+        <v>4879.51806640625</v>
       </c>
       <c r="C47" t="n">
-        <v>2574.0986328125</v>
+        <v>4779.81494140625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ETENNVEKPDNDEDESEVPSLPLGLTGAFEDTSFASLCNLVNENTLK</t>
+          <t>NSLVSPAQEPAPLQTAEPQTTVVHNATDGIK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6253.5</v>
+        <v>5025.81591796875</v>
       </c>
       <c r="C48" t="n">
-        <v>6671.9482421875</v>
+        <v>4982.8193359375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RPEPSEISPIK</t>
+          <t>GRTWLCGTPEYLAPEIILSK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3645.419921875</v>
+        <v>6172.14013671875</v>
       </c>
       <c r="C49" t="n">
-        <v>3536.0927734375</v>
+        <v>5761.99072265625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DQGGYTMHQDQEGDTDAGLKEPLQTPTEDGSEEPGSETSDAK</t>
+          <t>LTRQECLGNSPPFEK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4162.30810546875</v>
+        <v>3854.43603515625</v>
       </c>
       <c r="C50" t="n">
-        <v>4450.62158203125</v>
+        <v>3949.4189453125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AEEATEAQEVVEATPEGACTEPREPPGLIFNK</t>
+          <t>RNPNTQLSTFDETYIK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5322.7021484375</v>
+        <v>4645.84814453125</v>
       </c>
       <c r="C51" t="n">
-        <v>5560.33349609375</v>
+        <v>5088.09326171875</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SKAEDGEEDEVSAGEK</t>
+          <t>LERPNGPNIDK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2376.91796875</v>
+        <v>2712.258056640625</v>
       </c>
       <c r="C52" t="n">
-        <v>2298.832763671875</v>
+        <v>2801.2978515625</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>VADGLPLAASMQEDEQSGRDLQQYQSQAK</t>
+          <t>YNLDAEEEDSNKK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5022.94189453125</v>
+        <v>2844.18603515625</v>
       </c>
       <c r="C53" t="n">
-        <v>5042.423828125</v>
+        <v>2609.9111328125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NSLVSPAQEPAPLQTAEPQTTVVHNATDGIK</t>
+          <t>RAEMLQQADK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5025.81591796875</v>
+        <v>3081.882080078125</v>
       </c>
       <c r="C54" t="n">
-        <v>4968.56640625</v>
+        <v>2951.5322265625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TSADAQEPASPVVSPQQPPTSPHWRK</t>
+          <t>DTSLLASATDPEPCSPHRPQMVSPVSK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4155.66015625</v>
+        <v>4804.35009765625</v>
       </c>
       <c r="C55" t="n">
-        <v>4229.11279296875</v>
+        <v>4817.71923828125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MRIPNYQLPTK</t>
+          <t>FRPAAPPLALRQPVK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4382.580078125</v>
+        <v>4453.6259765625</v>
       </c>
       <c r="C56" t="n">
-        <v>4403.28662109375</v>
+        <v>4956.24853515625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ASEPLLPPPFGESRK</t>
+          <t>EEHLDVAPDK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5056.3017578125</v>
+        <v>2941.716064453125</v>
       </c>
       <c r="C57" t="n">
-        <v>4925.94580078125</v>
+        <v>2692.358154296875</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RNSSEASSGDFLDLK</t>
+          <t>GTTSYNEVADELVAEFSAADNHILPNESAYDQK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4165.10400390625</v>
+        <v>6175.6201171875</v>
       </c>
       <c r="C58" t="n">
-        <v>4404.75927734375</v>
+        <v>6043.75244140625</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>QGASVASGSGTVHTSAVSLPSNAAVSK</t>
+          <t>ESDSAEGDEAEPEQQVRK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3857.837890625</v>
+        <v>2603.736083984375</v>
       </c>
       <c r="C59" t="n">
-        <v>4200.98779296875</v>
+        <v>2586.849853515625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SDRAQAVSEDAGGNEGR</t>
+          <t>QNNLCLEQGDVTVPGSSLGTEIWESSSQALPVQAPANDSWRK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2343.5400390625</v>
+        <v>6117.2998046875</v>
       </c>
       <c r="C60" t="n">
-        <v>2458.222412109375</v>
+        <v>6271.4091796875</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SGLSCQVGSATSHPVSCQEPIDEDQRIPK</t>
+          <t>EAESCDCLQGFQLTHSLGGGTGSGMGTLLLSK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4029.738037109375</v>
+        <v>6052.02001953125</v>
       </c>
       <c r="C61" t="n">
-        <v>4446.25341796875</v>
+        <v>6085.1396484375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IVRGDQPAAGDSDDDEPPPLPR</t>
+          <t>EANEILQR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3987.89404296875</v>
+        <v>2951.447998046875</v>
       </c>
       <c r="C62" t="n">
-        <v>3867.923583984375</v>
+        <v>3201.187744140625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IGPILDTNALQGEVKPVLQK</t>
+          <t>VLGPYTFSICDTSNFSDYIRGGIVSQVK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5644.48779296875</v>
+        <v>6127.6201171875</v>
       </c>
       <c r="C63" t="n">
-        <v>5423.85107421875</v>
+        <v>6070.88134765625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>QWNNCAFLESSAK</t>
+          <t>SLHPWYGITPTSPK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4549.02001953125</v>
+        <v>4948.84814453125</v>
       </c>
       <c r="C64" t="n">
-        <v>4226.869140625</v>
+        <v>5329.5146484375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KPGADVTCSLPR</t>
+          <t>QGTAVEVEAESLDPTVKPVDVGGDEPEEK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3497.31005859375</v>
+        <v>5019.587890625</v>
       </c>
       <c r="C65" t="n">
-        <v>3287.77734375</v>
+        <v>4697.41552734375</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DGSCSVEYIPYEAGTYSLNVTYGGHQVPGSPFK</t>
+          <t>TLSTIATSTDAASVVHSTDLVVEAIVENLK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6063.240234375</v>
+        <v>6314.81982421875</v>
       </c>
       <c r="C66" t="n">
-        <v>6055.85400390625</v>
+        <v>6207.40673828125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KLPATTAPDSSK</t>
+          <t>SSQTSQNQGLGRPTLEGDEETSEVEYTVNK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2463.528076171875</v>
+        <v>4269.6181640625</v>
       </c>
       <c r="C67" t="n">
-        <v>2671.928466796875</v>
+        <v>4147.60205078125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AGYSDESSSSSLHATR</t>
+          <t>SNSGRELDEEILASVIK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2685.833984375</v>
+        <v>5878.7099609375</v>
       </c>
       <c r="C68" t="n">
-        <v>2739.000244140625</v>
+        <v>5391.56396484375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VRGGGSGGSGGQVSLK</t>
+          <t>NVSSFPDDATSPLQENRNNQGTVNWSVDDIVK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2389.236083984375</v>
+        <v>5816.36376953125</v>
       </c>
       <c r="C69" t="n">
-        <v>2513.331298828125</v>
+        <v>5990.6767578125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GHEEGFLNNGEFLFNK</t>
+          <t>DLDLEEEAASGASSALEAGGSSGLEDVLPLLQQADELHRGDEQGK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5853.11376953125</v>
+        <v>6211.080078125</v>
       </c>
       <c r="C70" t="n">
-        <v>5982.5625</v>
+        <v>6317.1611328125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ETQTHENSQLEEEQNK</t>
+          <t>ASAPSTSSTSSRPK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2389.236083984375</v>
+        <v>1790.076049804688</v>
       </c>
       <c r="C71" t="n">
-        <v>2433.895751953125</v>
+        <v>1750.093994140625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TPTQLEGAR</t>
+          <t>TRLDFPQNEPQIK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2324.9580078125</v>
+        <v>4309.52392578125</v>
       </c>
       <c r="C72" t="n">
-        <v>2441.300537109375</v>
+        <v>4685.8505859375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RQPLPPQK</t>
+          <t>VDSEGDFSENDDAAGDFRGDEEFKGEDELCDSGR</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2196.882080078125</v>
+        <v>4691.759765625</v>
       </c>
       <c r="C73" t="n">
-        <v>2638.223388671875</v>
+        <v>4935.7685546875</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KLGAGEGGEASVPEK</t>
+          <t>GGGGPGGGGPGGGSAGGPSQPPGGGGPGIRK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2605.968017578125</v>
+        <v>2783.93994140625</v>
       </c>
       <c r="C74" t="n">
-        <v>2636.585693359375</v>
+        <v>2988.78759765625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EGDVEEPTDDSLPTTGDAGGREPEEK</t>
+          <t>SSFNVSDVARPEAAGSPPEEGGCTEGTPAK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3635.00390625</v>
+        <v>4187.57421875</v>
       </c>
       <c r="C75" t="n">
-        <v>3736.85205078125</v>
+        <v>4061.652099609375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RAEMLQQADK</t>
+          <t>GESDDFHMDFDAVAPR</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3081.882080078125</v>
+        <v>5327.89208984375</v>
       </c>
       <c r="C76" t="n">
-        <v>3268.221923828125</v>
+        <v>5281.94775390625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RTGNISGASSDISLDEQYK</t>
+          <t>GGGSGTSLEREQFEGLGSPDAK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4121.580078125</v>
+        <v>4210.81787109375</v>
       </c>
       <c r="C77" t="n">
-        <v>4226.86767578125</v>
+        <v>4183.26123046875</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>QGGRCPVPGLSSPSGSPLHGK</t>
+          <t>ASEPLLPPPFGESRK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4020.803955078125</v>
+        <v>5056.3017578125</v>
       </c>
       <c r="C78" t="n">
-        <v>3968.44384765625</v>
+        <v>5044.43896484375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>QPQTSVVQNQQQISQQGPIYDEVELDALAEIERIER</t>
+          <t>LHPSDQCPPR</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6177.89990234375</v>
+        <v>2239.278076171875</v>
       </c>
       <c r="C79" t="n">
-        <v>6401.1337890625</v>
+        <v>2346.5087890625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EDGGCTIWYNEQLLSEIEEHLNCTISQVEPDIK</t>
+          <t>MLFSPEEMDLSQEQPLDAQQGPPEPAQESLSGSESKPK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6305.10009765625</v>
+        <v>5897.5439453125</v>
       </c>
       <c r="C80" t="n">
-        <v>6378.05029296875</v>
+        <v>5251.30517578125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KQLGELIGTLNAAK</t>
+          <t>VSPAHPPENGLDK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5712.7080078125</v>
+        <v>2768.610107421875</v>
       </c>
       <c r="C81" t="n">
-        <v>5074.59765625</v>
+        <v>3095.89892578125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KPNELVDDLFK</t>
+          <t>TPENHPETPK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5849.89794921875</v>
+        <v>1932.660034179688</v>
       </c>
       <c r="C82" t="n">
-        <v>5427.4697265625</v>
+        <v>2022.49755859375</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QEESEPVERPLK</t>
+          <t>RLLEDGEDFNLGDALDSNSMQTIQK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2874.91796875</v>
+        <v>6005.27978515625</v>
       </c>
       <c r="C83" t="n">
-        <v>2873.05078125</v>
+        <v>6241.7939453125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AELQLPPPPPPGHYGAWAAQELQAK</t>
+          <t>EVSRPTTSSITSGYFSHSASNATLSDMVVPSSDSSDQLAIQTK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5799.94189453125</v>
+        <v>5824.0859375</v>
       </c>
       <c r="C84" t="n">
-        <v>5379.919921875</v>
+        <v>6585.18408203125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GLEDVRPSVESLLDELESSVPSPVPAITVNQGESSPQR</t>
+          <t>DSTLIMQLLRDNLTLWTSDSAGEECDAAEGAEN</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6253.5</v>
+        <v>6367.2001953125</v>
       </c>
       <c r="C85" t="n">
-        <v>6106.86279296875</v>
+        <v>6318.37939453125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SLHAEPGFSQASR</t>
+          <t>YINENLIVNTDELGRDCLINAAK</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3128.02197265625</v>
+        <v>5810.02197265625</v>
       </c>
       <c r="C86" t="n">
-        <v>3233.733154296875</v>
+        <v>6075.32373046875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>REEDDPEEPDDHEK</t>
+          <t>ATSSHFSASEEDFLDK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2105.7900390625</v>
+        <v>4122.97802734375</v>
       </c>
       <c r="C87" t="n">
-        <v>2117.72705078125</v>
+        <v>4175.56689453125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TGISDVFAK</t>
+          <t>CAAPRPPSSPEQR</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4424.31591796875</v>
+        <v>2480.741943359375</v>
       </c>
       <c r="C88" t="n">
-        <v>4165.52685546875</v>
+        <v>2470.4912109375</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LGRETEEQDSDAEQGDPAGEGK</t>
+          <t>EHAPLAPVENK</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2633.72412109375</v>
+        <v>2929.5</v>
       </c>
       <c r="C89" t="n">
-        <v>2656.33642578125</v>
+        <v>3088.853515625</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VDSEGDFSENDDAAGDFRGDEEFKGEDELCDSGR</t>
+          <t>SVQANLDQSQR</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4691.759765625</v>
+        <v>2578.236083984375</v>
       </c>
       <c r="C90" t="n">
-        <v>4756.43017578125</v>
+        <v>2518.290771484375</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCK</t>
+          <t>NVDSSPETSPSVSPMPHSSSIANLQTASK</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5065.74609375</v>
+        <v>4361.5322265625</v>
       </c>
       <c r="C91" t="n">
-        <v>4828.697265625</v>
+        <v>4689.02294921875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HIQSNLDFPVNSASSEENVK</t>
+          <t>EEIQDEEDDDDYVEEGEEEEEEEEGGLRGEK</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4549.02001953125</v>
+        <v>4599.8818359375</v>
       </c>
       <c r="C92" t="n">
-        <v>4840.51904296875</v>
+        <v>4442.13232421875</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DFCVHGGAGGGAGSSGGSSSQTPSTDPFPGSPAIPAEK</t>
+          <t>EPSAPSIPTPAYQSSPAGGHAPTPPTPAPR</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4961.39990234375</v>
+        <v>4583.7001953125</v>
       </c>
       <c r="C93" t="n">
-        <v>4513.64111328125</v>
+        <v>4520.85986328125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DGAVNGPSVVGDQTPIEPQTSIERLTETK</t>
+          <t>SGGGTGEEPGSQGLNGEAGPEDSTRETPSQENGPTAK</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5543.7060546875</v>
+        <v>3180.221923828125</v>
       </c>
       <c r="C94" t="n">
-        <v>5006.6474609375</v>
+        <v>3324.374267578125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LITSEEERPAK</t>
+          <t>AEAPLPPKLEGELQAPDLELSLPAIHVEGLDIK</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2535.6298828125</v>
+        <v>6168.89990234375</v>
       </c>
       <c r="C95" t="n">
-        <v>2761.30517578125</v>
+        <v>6167.7119140625</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RITPLMEPSSIEK</t>
+          <t>RSVLPPDGNGPVLPDK</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4450.169921875</v>
+        <v>4357.326171875</v>
       </c>
       <c r="C96" t="n">
-        <v>4566.01708984375</v>
+        <v>4496.64794921875</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LTRQECLGNSPPFEK</t>
+          <t>DSLSVSSNDASPPASVASLQPHIGAQSSPGPK</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3854.43603515625</v>
+        <v>4758.666015625</v>
       </c>
       <c r="C97" t="n">
-        <v>3754.450439453125</v>
+        <v>4590.80224609375</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VSPAHPPENGLDK</t>
+          <t>QPGYQPPNPHPGPSSPPAAPASK</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2768.610107421875</v>
+        <v>3348.47412109375</v>
       </c>
       <c r="C98" t="n">
-        <v>2869.145263671875</v>
+        <v>3812.965087890625</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TDRGGDIGETPTPGASK</t>
+          <t>TEDSVPETPDNERK</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2767.2119140625</v>
+        <v>2449.260009765625</v>
       </c>
       <c r="C99" t="n">
-        <v>2844.205322265625</v>
+        <v>2626.474365234375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SFLSEPSPGRTK</t>
+          <t>DLGLPTEAYISVEEVHDDGTPTSK</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3560.489990234375</v>
+        <v>5817.4560546875</v>
       </c>
       <c r="C100" t="n">
-        <v>3276.273193359375</v>
+        <v>5689.0927734375</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CIEVMGDGCLNNEHFEELGGILK</t>
+          <t>SRTTELDDYSTNK</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6031.3798828125</v>
+        <v>2971.139892578125</v>
       </c>
       <c r="C101" t="n">
-        <v>5990.44482421875</v>
+        <v>3132.986328125</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SSTPLHPSPIR</t>
+          <t>SIYYITGESK</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3278.382080078125</v>
+        <v>3961.22998046875</v>
       </c>
       <c r="C102" t="n">
-        <v>3387.784912109375</v>
+        <v>3753.180419921875</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LPHVLLEIQK</t>
+          <t>AEGEEEMDTGADDQDGDAAQHPEEHEEQQQSVEEK</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4895.05810546875</v>
+        <v>2953.337890625</v>
       </c>
       <c r="C103" t="n">
-        <v>4998.25634765625</v>
+        <v>3061.046142578125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>KYSLNLFDTYK</t>
+          <t>TGISDVFAK</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5481.0419921875</v>
+        <v>4424.31591796875</v>
       </c>
       <c r="C104" t="n">
-        <v>5617.99755859375</v>
+        <v>4083.46875</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NHAGPGCEESDAGK</t>
+          <t>AGSSNQSISPVLDAVPRPSRER</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1769.657958984375</v>
+        <v>4486.1337890625</v>
       </c>
       <c r="C105" t="n">
-        <v>1789.275146484375</v>
+        <v>4569.2568359375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NNQGNSFQAK</t>
+          <t>VAVVRPPKPSSAK</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1925.244018554688</v>
+        <v>2875.637939453125</v>
       </c>
       <c r="C106" t="n">
-        <v>2371.31591796875</v>
+        <v>2817.556884765625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TRFFNSSYNVVK</t>
+          <t>ETENNQMTSESGATAGRQEVDNTFWNGCGDYYQLYDK</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4700.333984375</v>
+        <v>5471.166015625</v>
       </c>
       <c r="C107" t="n">
-        <v>4596.673828125</v>
+        <v>5625.197265625</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TLETQPLAPDCCPSDQDPAPAHPPHASPNK</t>
+          <t>EGDVEEPTDDSLPTTGDAGGREPEEK</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3915.1201171875</v>
+        <v>3635.00390625</v>
       </c>
       <c r="C108" t="n">
-        <v>3915.697265625</v>
+        <v>3727.214599609375</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NRSGKPETLVPTAPK</t>
+          <t>TSADAQEPASPVVSPQQPPTSPHWRK</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3712.763916015625</v>
+        <v>4155.66015625</v>
       </c>
       <c r="C109" t="n">
-        <v>3228.76611328125</v>
+        <v>4271.6552734375</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LSNPTPDYCHDK</t>
+          <t>GINGGPSRMPK</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3158.9580078125</v>
+        <v>2514.635986328125</v>
       </c>
       <c r="C110" t="n">
-        <v>2686.0048828125</v>
+        <v>2691.2080078125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SIYYITGESK</t>
+          <t>SRWDETPASQGGSTPVLPGK</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3961.22998046875</v>
+        <v>4133.2021484375</v>
       </c>
       <c r="C111" t="n">
-        <v>3975.852783203125</v>
+        <v>4218.3017578125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AYSQEEITQGFEETGDTLYAPYSTHFQLQNQPPQK</t>
+          <t>LQDAFSSIGQSCHLDLPQIAVVGGQSAGK</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5994.1982421875</v>
+        <v>6055.6201171875</v>
       </c>
       <c r="C112" t="n">
-        <v>5984.92333984375</v>
+        <v>5722.310546875</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GSRVDIETPNLEGLTGPR</t>
+          <t>SSTPLHPSPIR</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4832.65185546875</v>
+        <v>3278.382080078125</v>
       </c>
       <c r="C113" t="n">
-        <v>5048.16845703125</v>
+        <v>3749.402587890625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLEPQRQPEYSPESPR</t>
+          <t>REGPVGGEDSEEFEK</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4393.64404296875</v>
+        <v>3316.181884765625</v>
       </c>
       <c r="C114" t="n">
-        <v>4808.8984375</v>
+        <v>3519.849365234375</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TEDSVPETPDNERK</t>
+          <t>LIHEQEQQSSS</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2449.260009765625</v>
+        <v>2005.77001953125</v>
       </c>
       <c r="C115" t="n">
-        <v>2424.565673828125</v>
+        <v>2143.568359375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ERDSELSDTDGCCLGQSESDK</t>
+          <t>SLHAEPGFSQASR</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3180.221923828125</v>
+        <v>3128.02197265625</v>
       </c>
       <c r="C116" t="n">
-        <v>3243.346435546875</v>
+        <v>2963.93505859375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SCTPPDQISHR</t>
+          <t>REAALPPVPLK</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2869.919921875</v>
+        <v>4305.01220703125</v>
       </c>
       <c r="C117" t="n">
-        <v>2596.28369140625</v>
+        <v>4217.17333984375</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GINGGPSRMPK</t>
+          <t>WTPIEYFNNK</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2514.635986328125</v>
+        <v>5540.09423828125</v>
       </c>
       <c r="C118" t="n">
-        <v>2763.706298828125</v>
+        <v>5361.05322265625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SRPTSEGDIESTEPQK</t>
+          <t>AYSQEEITQGFEETGDTLYAPYSTHFQLQNQPPQK</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2614.2958984375</v>
+        <v>5994.1982421875</v>
       </c>
       <c r="C119" t="n">
-        <v>2682.04736328125</v>
+        <v>5676.82861328125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRDWEQFEYK</t>
+          <t>SPGLYAIGYEECIERPLPHMEQSSLDPGK</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4661.47216796875</v>
+        <v>5778.240234375</v>
       </c>
       <c r="C120" t="n">
-        <v>4578.123046875</v>
+        <v>5741.21484375</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GIASTSDPPTANIKPTPVVSTPSK</t>
+          <t>LLPCLHSACSACLGPAAPAAANSSGDGGAAGDGTVVDCPVCK</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4141.326171875</v>
+        <v>5065.74609375</v>
       </c>
       <c r="C121" t="n">
-        <v>4318.0400390625</v>
+        <v>5031.595703125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NIGRDPTSAGPNSFNK</t>
+          <t>SNEDQSMGNWQIK</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3204.132080078125</v>
+        <v>4181.0400390625</v>
       </c>
       <c r="C122" t="n">
-        <v>3057.726806640625</v>
+        <v>4020.90283203125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LERPNGPNIDK</t>
+          <t>AKPAPQDSVPPR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2712.258056640625</v>
+        <v>2757.4560546875</v>
       </c>
       <c r="C123" t="n">
-        <v>2879.294189453125</v>
+        <v>2767.237548828125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EGETQGVAFEHESPADFQNSQSPVQDQDK</t>
+          <t>CTPRSSDTEENVK</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4351.7880859375</v>
+        <v>2044.151977539062</v>
       </c>
       <c r="C124" t="n">
-        <v>4384.49853515625</v>
+        <v>2211.92236328125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NEGQDATMYCK</t>
+          <t>RASQSLESSTGPPCIR</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2533.9560546875</v>
+        <v>3675.864013671875</v>
       </c>
       <c r="C125" t="n">
-        <v>2627.03857421875</v>
+        <v>3753.6630859375</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NIYEELRETK</t>
+          <t>STHGEAAAETDSRPADEDMWDETELGLYK</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3987.89404296875</v>
+        <v>5367.91796875</v>
       </c>
       <c r="C126" t="n">
-        <v>3777.056396484375</v>
+        <v>5518.34912109375</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GSGTAEVELK</t>
+          <t>IEEPSVVETTHQDPLPHPESTTSDEK</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2829.68408203125</v>
+        <v>4147.2841796875</v>
       </c>
       <c r="C127" t="n">
-        <v>2639.553955078125</v>
+        <v>4126.39990234375</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GESDDFHMDFDAVAPR</t>
+          <t>EGETQGVAFEHESPADFQNSQSPVQDQDK</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5327.89208984375</v>
+        <v>4351.7880859375</v>
       </c>
       <c r="C128" t="n">
-        <v>4944.13232421875</v>
+        <v>4464.48828125</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LLQHPSICSDPTEEPTALTAGQSTSETQEGGK</t>
+          <t>QGCDCECLGGGR</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4397.22021484375</v>
+        <v>2378.31005859375</v>
       </c>
       <c r="C129" t="n">
-        <v>4268.23974609375</v>
+        <v>2101.7255859375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VSLERLDLDLTADQPPVFK</t>
+          <t>EHALLATLGVK</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6105.89990234375</v>
+        <v>5335.841796875</v>
       </c>
       <c r="C130" t="n">
-        <v>5644.04638671875</v>
+        <v>4757.12158203125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AQPLEDLAGFTELSETSGHTQESLTAGK</t>
+          <t>RIDFIPVPAPPTRGIGK</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5968.1279296875</v>
+        <v>5616.7080078125</v>
       </c>
       <c r="C131" t="n">
-        <v>5414.90771484375</v>
+        <v>5337.53369140625</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SPQLDPLRK</t>
+          <t>TLETQPLAPDCCPSDQDPAPAHPPHASPNK</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3639.4140625</v>
+        <v>3915.1201171875</v>
       </c>
       <c r="C132" t="n">
-        <v>3365.929931640625</v>
+        <v>4028.712158203125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EPLPVEQDDDIEVIVDETSDHTEESPVRAISR</t>
+          <t>AAAGEEETAAAGPGRK</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6055.6201171875</v>
+        <v>2105.7900390625</v>
       </c>
       <c r="C133" t="n">
-        <v>5712.2734375</v>
+        <v>1968.078247070312</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SQPFINPDSQGHCPATSDSGITDVAMSK</t>
+          <t>LLKPGEEPSEYDEEDTK</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4653.11376953125</v>
+        <v>3592.260009765625</v>
       </c>
       <c r="C134" t="n">
-        <v>4753.0380859375</v>
+        <v>3206.222900390625</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>REAALPPVPLK</t>
+          <t>LREQGTERSTPLPTISSSAENTR</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4305.01220703125</v>
+        <v>4061.0458984375</v>
       </c>
       <c r="C135" t="n">
-        <v>4406.95361328125</v>
+        <v>4017.2353515625</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>GPKPEPPGSGPAPPR</t>
+          <t>LPHVLLEIQK</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2726.364013671875</v>
+        <v>4895.05810546875</v>
       </c>
       <c r="C136" t="n">
-        <v>2573.75927734375</v>
+        <v>5171.234375</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TLHPPLQLQQR</t>
+          <t>SPQLDPLRK</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3959.825927734375</v>
+        <v>3639.4140625</v>
       </c>
       <c r="C137" t="n">
-        <v>4074.288818359375</v>
+        <v>3214.37060546875</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>REDPGPEVQPDK</t>
+          <t>EEDEEEEDDEESGRLR</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2453.159912109375</v>
+        <v>2723.610107421875</v>
       </c>
       <c r="C138" t="n">
-        <v>2402.622314453125</v>
+        <v>2693.138916015625</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DHFGLEGDEESTLEDSVPK</t>
+          <t>RTTPSDTDLLDRSASK</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4854.07177734375</v>
+        <v>3583.998046875</v>
       </c>
       <c r="C139" t="n">
-        <v>5023.89111328125</v>
+        <v>3719.6103515625</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DALDPRQPGYQPPNPHPGPSPPAAPASK</t>
+          <t>DLPTIPGVTSPSSDEPPMEASQSHLRNPEDK</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4050.3720703125</v>
+        <v>5371.8779296875</v>
       </c>
       <c r="C140" t="n">
-        <v>3901.1962890625</v>
+        <v>5319.58642578125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>YSDVEVPASVTGYSFASDGDSGTCSPLRHFQK</t>
+          <t>NNCPFADENYRPLAK</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5320.80615234375</v>
+        <v>4350.56396484375</v>
       </c>
       <c r="C141" t="n">
-        <v>5215.69287109375</v>
+        <v>4500.44580078125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GPQGPGGGGINVQEILTSIMGSPNSHPSEELLK</t>
+          <t>SYSSLRGMPSALK</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6215.52001953125</v>
+        <v>4297.68017578125</v>
       </c>
       <c r="C142" t="n">
-        <v>6061.83154296875</v>
+        <v>4151.5048828125</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TSGTSLSAMHSSGSSGK</t>
+          <t>ASHSSQTQGGGSVTK</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2590.416015625</v>
+        <v>1593.18603515625</v>
       </c>
       <c r="C143" t="n">
-        <v>2605.383056640625</v>
+        <v>1857.60009765625</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AICTCPSGYTGPACSQDVDECSLGANPCEHAGK</t>
+          <t>KYSLNLFDTYK</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4224.77978515625</v>
+        <v>5481.0419921875</v>
       </c>
       <c r="C144" t="n">
-        <v>4036.707763671875</v>
+        <v>5730.74609375</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>KIPDPDSDDVEVDAR</t>
+          <t>ESESCDCLQGFQLTHSLGGGTGSGGTLLISK</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3739.583984375</v>
+        <v>5389.416015625</v>
       </c>
       <c r="C145" t="n">
-        <v>3677.2880859375</v>
+        <v>5776.35693359375</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DVTLTSPLLVNLLQSDISAGHFGVNNK</t>
+          <t>VERLSGPEQITLEASSTEGHPGAPPQHTDQTEAFQK</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6227.81982421875</v>
+        <v>4719.2099609375</v>
       </c>
       <c r="C146" t="n">
-        <v>6619.88818359375</v>
+        <v>4721.45263671875</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SINEGLTLNNSHVSK</t>
+          <t>LNHVAAGLVPSLK</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3835.7939453125</v>
+        <v>4374.666015625</v>
       </c>
       <c r="C147" t="n">
-        <v>3975.101806640625</v>
+        <v>4603.7451171875</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FDNNSGQSAIK</t>
+          <t>NNVNVASLTQSEIRDIILGMEISAPSQQR</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2455.1640625</v>
+        <v>6219</v>
       </c>
       <c r="C148" t="n">
-        <v>2618.865478515625</v>
+        <v>6004.89306640625</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RQAFPSSTMMEVFLQEK</t>
+          <t>DGAVNGPSVVGDQTPIEPQTSIERLTETK</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6137.8798828125</v>
+        <v>5543.7060546875</v>
       </c>
       <c r="C149" t="n">
-        <v>5954.61865234375</v>
+        <v>4943.1708984375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NVSSFPDDATSPLQENRNNQGTVNWSVDDIVK</t>
+          <t>AICTCPSGYTGPACSQDVDECSLGANPCEHAGK</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5816.36376953125</v>
+        <v>4224.77978515625</v>
       </c>
       <c r="C150" t="n">
-        <v>5829.79248046875</v>
+        <v>3985.413818359375</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RAQSSLESSTGPPCIRS</t>
+          <t>SALMDESEDSGVIPGSHSENALHAEEEEGEGGK</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3625.050048828125</v>
+        <v>4427.490234375</v>
       </c>
       <c r="C151" t="n">
-        <v>3361.77392578125</v>
+        <v>4565.84814453125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>VAVVRPPKPSSAK</t>
+          <t>VVAPVESHVPESNQAQGEPAANEGTTVQHPEAPQEEK</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2875.637939453125</v>
+        <v>3776.238037109375</v>
       </c>
       <c r="C152" t="n">
-        <v>2773.523681640625</v>
+        <v>3812.712158203125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SYHDVLPK</t>
+          <t>TLTRTQETADVK</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3277.157958984375</v>
+        <v>2542.590087890625</v>
       </c>
       <c r="C153" t="n">
-        <v>3120.788818359375</v>
+        <v>2921.939697265625</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LHQPVPVTPK</t>
+          <t>EDGGCTIWYNEQLLSEIEEHLNCTISQVEPDIK</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2929.001953125</v>
+        <v>6305.10009765625</v>
       </c>
       <c r="C154" t="n">
-        <v>2940.08056640625</v>
+        <v>6338.349609375</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TRVLGQVSCELVPK</t>
+          <t>TRFFNSSYNVVK</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4453.6259765625</v>
+        <v>4700.333984375</v>
       </c>
       <c r="C155" t="n">
-        <v>4648.4462890625</v>
+        <v>4847.05419921875</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RSDTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
+          <t>KPGADVTCSLPR</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6226.6201171875</v>
+        <v>3497.31005859375</v>
       </c>
       <c r="C156" t="n">
-        <v>6181.93896484375</v>
+        <v>3442.218505859375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LCAGIITAHNPK</t>
+          <t>TKGDDEEVIQDGVR</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3868.134033203125</v>
+        <v>3470.75390625</v>
       </c>
       <c r="C157" t="n">
-        <v>3780.446533203125</v>
+        <v>3609.32373046875</v>
       </c>
     </row>
     <row r="158">
@@ -2488,2412 +2488,2412 @@
         <v>5099.076171875</v>
       </c>
       <c r="C158" t="n">
-        <v>4966.1533203125</v>
+        <v>5063.6015625</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GPEGGEGAECGGASEGGEGQNGGDAAPARPPAGEPR</t>
+          <t>NIIHGDSVESAEK</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2930.820068359375</v>
+        <v>3130.81201171875</v>
       </c>
       <c r="C159" t="n">
-        <v>2784.087646484375</v>
+        <v>2827.51416015625</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RNPNTQLSTFDETYIK</t>
+          <t>DDDSLEASHSK</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4645.84814453125</v>
+        <v>2398.637939453125</v>
       </c>
       <c r="C160" t="n">
-        <v>5108.97509765625</v>
+        <v>2271.677734375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GGGGPGGGGPGGGSAGGPSQPPGGGGPGIRK</t>
+          <t>RNSEASSGDFLDLK</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2783.93994140625</v>
+        <v>4569.77392578125</v>
       </c>
       <c r="C161" t="n">
-        <v>2830.739501953125</v>
+        <v>4820.259765625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TLPYLVSNVIELLDVDPNDQEEDGANIDLDSQRK</t>
+          <t>ETENNVEKPDNDEDESEVPSLPLGLTGAFEDTSFASLCNLVNENTLK</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6267.60009765625</v>
+        <v>6253.5</v>
       </c>
       <c r="C162" t="n">
-        <v>6241.00146484375</v>
+        <v>6696.552734375</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TLSTIATSTDAASVVHSTDLVVEAIVENLK</t>
+          <t>SGLSCQVGSATSHPVSCQEPIDEDQRIPK</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6314.81982421875</v>
+        <v>4029.738037109375</v>
       </c>
       <c r="C163" t="n">
-        <v>6612.66064453125</v>
+        <v>4346.79248046875</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FNVWDVGGQDK</t>
+          <t>STAISLFYELSENDLNFIK</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5037.2099609375</v>
+        <v>6265.7998046875</v>
       </c>
       <c r="C164" t="n">
-        <v>4555.96044921875</v>
+        <v>6283.13427734375</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>YRSQGEDESMNQPGPIK</t>
+          <t>IERPGEGPVDNPR</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3163.097900390625</v>
+        <v>2916.58203125</v>
       </c>
       <c r="C165" t="n">
-        <v>3268.034423828125</v>
+        <v>2888.194580078125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>STAISLFYELSENDLNFIK</t>
+          <t>ASFEEASNQLINHIEQFLDTNETPYFMK</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6265.7998046875</v>
+        <v>6280.68017578125</v>
       </c>
       <c r="C166" t="n">
-        <v>6201.5556640625</v>
+        <v>6293.5859375</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EHQEMDEGQSLEK</t>
+          <t>GHTASEDEQQWPEEK</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2573.43603515625</v>
+        <v>3061.944091796875</v>
       </c>
       <c r="C167" t="n">
-        <v>2500.646240234375</v>
+        <v>3338.9033203125</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EEAVQTFNYLCDLIESNHPIVLGPNNTNLPK</t>
+          <t>TTSQAHSLPLPASTR</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6185.4599609375</v>
+        <v>3616.907958984375</v>
       </c>
       <c r="C168" t="n">
-        <v>6129.34033203125</v>
+        <v>3681.46142578125</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SNEDQSMGNWQIK</t>
+          <t>HIQSNLDFPVNSASSEENVK</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4181.0400390625</v>
+        <v>4549.02001953125</v>
       </c>
       <c r="C169" t="n">
-        <v>4064.594970703125</v>
+        <v>4727.556640625</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>STHGEAAAETDSRPADEDMWDETELGLYK</t>
+          <t>LLQHPSICSDPTEEPTALTAGQSTSETQEGGK</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5367.91796875</v>
+        <v>4397.22021484375</v>
       </c>
       <c r="C170" t="n">
-        <v>5315.12744140625</v>
+        <v>4313.21484375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ATSSHFSASEEDFLDK</t>
+          <t>ECGTNECLDNNGGCSHVCNDLK</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4122.97802734375</v>
+        <v>3114.719970703125</v>
       </c>
       <c r="C171" t="n">
-        <v>4169.82177734375</v>
+        <v>3158.490234375</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>VRGPVSGPDSMNASR</t>
+          <t>GHEEGFLNNGEFLFNK</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2969.47802734375</v>
+        <v>5853.11376953125</v>
       </c>
       <c r="C172" t="n">
-        <v>2868.50634765625</v>
+        <v>5709.56103515625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>QEVHLVNK</t>
+          <t>DEDDDLVSPPNTEGNQWYDFLQNSSHLK</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2848.3740234375</v>
+        <v>6118.31982421875</v>
       </c>
       <c r="C173" t="n">
-        <v>2926.346923828125</v>
+        <v>5836.64501953125</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LQDAFSSIGQSCHLDLPQIAVVGGQSAGK</t>
+          <t>EHASIDAQSGAGVPNPSSASPK</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6055.6201171875</v>
+        <v>3463.283935546875</v>
       </c>
       <c r="C174" t="n">
-        <v>5686.3095703125</v>
+        <v>3417.1201171875</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IEEPSVVETTHQDPLPHPESTTSDEK</t>
+          <t>REDPGPEVQPDK</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4147.2841796875</v>
+        <v>2453.159912109375</v>
       </c>
       <c r="C175" t="n">
-        <v>4139.9951171875</v>
+        <v>2406.74609375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TKGDDEEVIQDGVR</t>
+          <t>MSHSSSGSASLSQVPGK</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3470.75390625</v>
+        <v>2712.258056640625</v>
       </c>
       <c r="C176" t="n">
-        <v>3528.14208984375</v>
+        <v>3056.559326171875</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VTTVVATPGQGPDRPQEVSYTDTK</t>
+          <t>GEPGADGEAGRPGSSGPSGDEGQPGEPGPPGEK</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3845.5439453125</v>
+        <v>3005.087890625</v>
       </c>
       <c r="C177" t="n">
-        <v>3720.18359375</v>
+        <v>2905.00439453125</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NSSQSGGKPGSPITK</t>
+          <t>SCTPPDQISHR</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2013.534057617188</v>
+        <v>2869.919921875</v>
       </c>
       <c r="C178" t="n">
-        <v>2233.955322265625</v>
+        <v>2920.45263671875</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RQSSIFGGADVGFSGGIPPDK</t>
+          <t>NDKEEEQSSSSVK</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>5614.33203125</v>
+        <v>1708.109985351562</v>
       </c>
       <c r="C179" t="n">
-        <v>5508.90576171875</v>
+        <v>1593.215087890625</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EVSRPTTSSITSGYFSHSASNATLSDMVVPSSDSSDQLAIQTK</t>
+          <t>AHPLNTPDPSTK</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5824.0859375</v>
+        <v>2754.659912109375</v>
       </c>
       <c r="C180" t="n">
-        <v>6233.48193359375</v>
+        <v>2607.407470703125</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NGGFEDDLSLGAEANHLHESDAQIENCNNILAK</t>
+          <t>ACDCDPRGIETPQCDQSTGQCVCVEGVEGPR</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5539.72802734375</v>
+        <v>4210.81787109375</v>
       </c>
       <c r="C181" t="n">
-        <v>6059.138671875</v>
+        <v>4131.71923828125</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RPGNSTVTSPPVTPK</t>
+          <t>NNDLQDNYLSEQNK</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2949.251953125</v>
+        <v>3678.365966796875</v>
       </c>
       <c r="C182" t="n">
-        <v>2979.228271484375</v>
+        <v>3809.684326171875</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>YINENLIVNTDELGRDCLINAAK</t>
+          <t>DHFGLEGDEESTLEDSVPK</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5810.02197265625</v>
+        <v>4854.07177734375</v>
       </c>
       <c r="C183" t="n">
-        <v>6148.39306640625</v>
+        <v>4972.30126953125</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ETENNQMTSESGATAGRQEVDNTFWNGCGDYYQLYDK</t>
+          <t>TLHPPLQLQQR</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5471.166015625</v>
+        <v>3959.825927734375</v>
       </c>
       <c r="C184" t="n">
-        <v>5494.845703125</v>
+        <v>4221.7294921875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ARAGGGPTLQCPPPSPEK</t>
+          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLESPQR</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3064.181884765625</v>
+        <v>4113.82177734375</v>
       </c>
       <c r="C185" t="n">
-        <v>3145.812255859375</v>
+        <v>4359.93115234375</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CGSGPVHISGQHLVAVEEDAEEDEEEEDVK</t>
+          <t>YRSQGEDESMNQPGPIK</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4480.33203125</v>
+        <v>3163.097900390625</v>
       </c>
       <c r="C186" t="n">
-        <v>4304.51806640625</v>
+        <v>3060.23974609375</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>WTPIEYFNNK</t>
+          <t>SLGQWLQEEK</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5540.09423828125</v>
+        <v>4829.4658203125</v>
       </c>
       <c r="C187" t="n">
-        <v>5074.673828125</v>
+        <v>4639.42919921875</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LNHVAAGLVPSLK</t>
+          <t>EEHNTVCAAGTPVGEIGEEK</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4374.666015625</v>
+        <v>3760.7939453125</v>
       </c>
       <c r="C188" t="n">
-        <v>4898.7451171875</v>
+        <v>3806.81005859375</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>NQVLLGRSPSK</t>
+          <t>IPSVTSGTTSSSNTMVAPTDGNPDNKPIK</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2965.85400390625</v>
+        <v>4050.8701171875</v>
       </c>
       <c r="C189" t="n">
-        <v>3266.802001953125</v>
+        <v>4155.84228515625</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RSGPTDDGEEEMEEDTVTNGS</t>
+          <t>LGRETEEQDSDAEQGDPAGEGK</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3427.404052734375</v>
+        <v>2633.72412109375</v>
       </c>
       <c r="C190" t="n">
-        <v>3330.6181640625</v>
+        <v>2520.121337890625</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ENRQIINPDWNFEK</t>
+          <t>SFLSEPSPGRTK</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5050.248046875</v>
+        <v>3560.489990234375</v>
       </c>
       <c r="C191" t="n">
-        <v>5173.80224609375</v>
+        <v>3381.881591796875</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SCSPELQQK</t>
+          <t>SRGSDPAADVEIEYVTEEPEIYEPNFIFFK</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2203.697998046875</v>
+        <v>6218.64013671875</v>
       </c>
       <c r="C192" t="n">
-        <v>2156.1259765625</v>
+        <v>6269.2265625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DVNFEFPEFQL</t>
+          <t>VTTVVATPGQGPDRPQEVSYTDTK</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6337.919921875</v>
+        <v>3845.5439453125</v>
       </c>
       <c r="C193" t="n">
-        <v>5836.37353515625</v>
+        <v>3939.896728515625</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>DIREQSETTAEGGQGQAQEGPAQPGEPEAEGSRAAEE</t>
+          <t>ESPRPLQLPGAEGPAISDGEEGGGEPGAGGGAAGAAGAGR</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3421.548095703125</v>
+        <v>4712.90380859375</v>
       </c>
       <c r="C194" t="n">
-        <v>3360.292236328125</v>
+        <v>4493.71435546875</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ECGTNECLDNNGGCSHVCNDLK</t>
+          <t>SGGNEVSIEER</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3114.719970703125</v>
+        <v>2721.659912109375</v>
       </c>
       <c r="C195" t="n">
-        <v>3322.58935546875</v>
+        <v>2478.28466796875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SGGGTGEEPGSQGLNGEAGPEDSTRETPSQENGPTAK</t>
+          <t>QEVHLVNK</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3180.221923828125</v>
+        <v>2848.3740234375</v>
       </c>
       <c r="C196" t="n">
-        <v>3186.428466796875</v>
+        <v>2777.40576171875</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ECLLDPEERK</t>
+          <t>GGGGGQDNGLEGLGNDSR</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3649.8720703125</v>
+        <v>3309.419921875</v>
       </c>
       <c r="C197" t="n">
-        <v>3253.747802734375</v>
+        <v>3224.042724609375</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RNSEASSGDFLDLK</t>
+          <t>EPLPVEQDDDIEVIVDETSDHTEESPVRAISR</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4569.77392578125</v>
+        <v>6055.6201171875</v>
       </c>
       <c r="C198" t="n">
-        <v>4481.35302734375</v>
+        <v>5513.8271484375</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RIDFIPVPAPPTRGIGK</t>
+          <t>GLEDVRPSVESLLDELESSVPSPVPAITVNQGESSPQR</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5616.7080078125</v>
+        <v>6253.5</v>
       </c>
       <c r="C199" t="n">
-        <v>5432.47607421875</v>
+        <v>6063.52490234375</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ADREVQAEQPSSSPR</t>
+          <t>QQVPSGESAILDRVADGVFGALLPCEECSGQLVFK</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2244.22802734375</v>
+        <v>6162.2998046875</v>
       </c>
       <c r="C200" t="n">
-        <v>2235.34228515625</v>
+        <v>6318.60791015625</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LNTVDTHK</t>
+          <t>TDRGGDIGETPTPGASK</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2198.166015625</v>
+        <v>2767.2119140625</v>
       </c>
       <c r="C201" t="n">
-        <v>2120.041259765625</v>
+        <v>2772.73974609375</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EAEETNGGAQIQPLPADCGISSATEKPDSK</t>
+          <t>LNTVDTHK</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4179.85791015625</v>
+        <v>2198.166015625</v>
       </c>
       <c r="C202" t="n">
-        <v>4371.35546875</v>
+        <v>2062.818115234375</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DPTSLLGVLQAEADSTSEGLEDAVHSR</t>
+          <t>EHCDEGEADDFDPGK</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>6223.080078125</v>
+        <v>3186.966064453125</v>
       </c>
       <c r="C203" t="n">
-        <v>6044.13427734375</v>
+        <v>3045.157958984375</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ATSCFPRPMPR</t>
+          <t>DSTLIMQLLRDNLTLWTSDMQGDGEEQNK</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3732.929931640625</v>
+        <v>6313.6201171875</v>
       </c>
       <c r="C204" t="n">
-        <v>3715.24169921875</v>
+        <v>6469.560546875</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>DKIELDSSPASK</t>
+          <t>DALDPRQPGYQPPNPHPGPSPPAAPASK</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3107.243896484375</v>
+        <v>4050.3720703125</v>
       </c>
       <c r="C205" t="n">
-        <v>3061.33056640625</v>
+        <v>4077.660400390625</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NQWQLSADDLK</t>
+          <t>ATSCFPRPMPR</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4700.333984375</v>
+        <v>3732.929931640625</v>
       </c>
       <c r="C206" t="n">
-        <v>4403.3740234375</v>
+        <v>3921.972412109375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>GLGKPGGQGDAIQLPK</t>
+          <t>GPQGPGGGGINVQEILTSIMGSPNSHPSEELLK</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3891.221923828125</v>
+        <v>6215.52001953125</v>
       </c>
       <c r="C207" t="n">
-        <v>4176.958984375</v>
+        <v>5846.6123046875</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SRTTELDDYSTNK</t>
+          <t>VRGGGSGGSGGQVSLK</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2971.139892578125</v>
+        <v>2389.236083984375</v>
       </c>
       <c r="C208" t="n">
-        <v>3280.362548828125</v>
+        <v>2645.0986328125</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SGGNEVSIEER</t>
+          <t>TPTQLEGAR</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2721.659912109375</v>
+        <v>2324.9580078125</v>
       </c>
       <c r="C209" t="n">
-        <v>2553.756103515625</v>
+        <v>2446.142822265625</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ASNDQRPQEVPAEALAPAPAEVPAPAPAAASASGPAK</t>
+          <t>RTGYEGEYELGEGLGVK</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4879.51806640625</v>
+        <v>4843.158203125</v>
       </c>
       <c r="C210" t="n">
-        <v>4761.09423828125</v>
+        <v>4753.64892578125</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RASQSLESSTGPPCIR</t>
+          <t>SDRAQAVSEDAGGNEGR</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3675.864013671875</v>
+        <v>2343.5400390625</v>
       </c>
       <c r="C211" t="n">
-        <v>3310.98974609375</v>
+        <v>2232.083251953125</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>EAESCDCLQGFQLTHSLGGGTGSGMGTLLLSK</t>
+          <t>VADGLPLAASMQEDEQSGRDLQQYQSQAK</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>6052.02001953125</v>
+        <v>5022.94189453125</v>
       </c>
       <c r="C212" t="n">
-        <v>5939.2978515625</v>
+        <v>5223.51513671875</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RPPAPGLQPMR</t>
+          <t>RSDMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3501.281982421875</v>
+        <v>6243.72021484375</v>
       </c>
       <c r="C213" t="n">
-        <v>3735.328125</v>
+        <v>6483.78759765625</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TCTESDVSQSQNSR</t>
+          <t>NIYEELRETK</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1939.302001953125</v>
+        <v>3987.89404296875</v>
       </c>
       <c r="C214" t="n">
-        <v>1942.817138671875</v>
+        <v>4135.24853515625</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>GVAGPGPIGREPDPDDWEPEERELQEVESTLK</t>
+          <t>ANTPDARLGDSK</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6106.3798828125</v>
+        <v>2387.837890625</v>
       </c>
       <c r="C215" t="n">
-        <v>5480.6494140625</v>
+        <v>2828.371826171875</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>EHYPVSPSSPSPPAQPGGVSR</t>
+          <t>DIREQSETTAEGGQGQAQEGPAQPGEPEAEGSRAAEE</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3653.10595703125</v>
+        <v>3421.548095703125</v>
       </c>
       <c r="C216" t="n">
-        <v>3669.026123046875</v>
+        <v>3260.738037109375</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CAAPRPPSSPEQR</t>
+          <t>RTGNISGASSDISLDEQYK</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2480.741943359375</v>
+        <v>4121.580078125</v>
       </c>
       <c r="C217" t="n">
-        <v>2259.63232421875</v>
+        <v>4221.63330078125</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SRWDETPASQGGSTPVLPGK</t>
+          <t>RAQSSLESSTGPPCIRS</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4133.2021484375</v>
+        <v>3625.050048828125</v>
       </c>
       <c r="C218" t="n">
-        <v>4177.25830078125</v>
+        <v>3440.986083984375</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SRDAPPVSPINMEDQER</t>
+          <t>ECLLDPEERK</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4285.30810546875</v>
+        <v>3649.8720703125</v>
       </c>
       <c r="C219" t="n">
-        <v>4056.727783203125</v>
+        <v>3400.823486328125</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LALDMEIAYRK</t>
+          <t>QEESEPVERPLK</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>5185.47021484375</v>
+        <v>2874.91796875</v>
       </c>
       <c r="C220" t="n">
-        <v>4945.21240234375</v>
+        <v>3147.720947265625</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AAAGEEETAAAGPGRK</t>
+          <t>RPPAPGLQPMR</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2105.7900390625</v>
+        <v>3501.281982421875</v>
       </c>
       <c r="C221" t="n">
-        <v>2053.725830078125</v>
+        <v>3740.4892578125</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>REGPVGGEDSEEFEK</t>
+          <t>IGPILDTNALQGEVKPVLQK</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3316.181884765625</v>
+        <v>5644.48779296875</v>
       </c>
       <c r="C222" t="n">
-        <v>3043.438720703125</v>
+        <v>5482.6767578125</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ASAPSTSSTSSRPK</t>
+          <t>KIPEFEVENPLSDVAK</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1790.076049804688</v>
+        <v>5311.73388671875</v>
       </c>
       <c r="C223" t="n">
-        <v>1827.179443359375</v>
+        <v>5410.92041015625</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AGSSAAGASGWTSAGSLNSVPTNSAQQGHNSPDSPVTSAAK</t>
+          <t>TSGTSLSAMHSSGSSGK</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4309.1337890625</v>
+        <v>2590.416015625</v>
       </c>
       <c r="C224" t="n">
-        <v>4200.71630859375</v>
+        <v>2568.646240234375</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>NNVNVASLTQSEIRDIILGMEISAPSQQR</t>
+          <t>NRSGKPETLVPTAPK</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6219</v>
+        <v>3712.763916015625</v>
       </c>
       <c r="C225" t="n">
-        <v>5894.099609375</v>
+        <v>3655.328857421875</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>DLDLEEEAASGASSALEAGGSSGLEDVLPLLQQADELHRGDEQGK</t>
+          <t>VQDDEVGDGTTSVTVLAAELLREAESLIAK</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6211.080078125</v>
+        <v>6421.97998046875</v>
       </c>
       <c r="C226" t="n">
-        <v>6493.11181640625</v>
+        <v>6200.64013671875</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GGNCLLNIPKPDEAYSAPSCGNK</t>
+          <t>SKAEDGEEDEVSAGEK</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4779.85791015625</v>
+        <v>2376.91796875</v>
       </c>
       <c r="C227" t="n">
-        <v>4876.49169921875</v>
+        <v>2430.38671875</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>DRTTSFFLNPEK</t>
+          <t>ADREVQAEQPSSSPR</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4802.98193359375</v>
+        <v>2245.39794921875</v>
       </c>
       <c r="C228" t="n">
-        <v>4979.32958984375</v>
+        <v>2204.1474609375</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RTELVLSPDPR</t>
+          <t>AELQLPPPPPPGHYGAWAAQELQAK</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4012.697998046875</v>
+        <v>5799.94189453125</v>
       </c>
       <c r="C229" t="n">
-        <v>4182.47509765625</v>
+        <v>5878.4794921875</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AVQAQGGESQQEAQRLQAQLNELQAQLSQK</t>
+          <t>SINEGLTLNNSHVSK</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>6050.759765625</v>
+        <v>3835.7939453125</v>
       </c>
       <c r="C230" t="n">
-        <v>5423.22265625</v>
+        <v>3886.1630859375</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RSSEDAESLAPR</t>
+          <t>QWNNCAFLESSAK</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2953.337890625</v>
+        <v>4549.02001953125</v>
       </c>
       <c r="C231" t="n">
-        <v>2805.792236328125</v>
+        <v>4306.03759765625</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>LHPSDQCPPR</t>
+          <t>ASFDHPDSLPLR</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2239.278076171875</v>
+        <v>4343.15380859375</v>
       </c>
       <c r="C232" t="n">
-        <v>2197.547607421875</v>
+        <v>4978.244140625</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FVESQVESESSVLNDSPFPEDDSEGLHDSREEK</t>
+          <t>DKIELDSSPASK</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>5179.26611328125</v>
+        <v>3107.243896484375</v>
       </c>
       <c r="C233" t="n">
-        <v>5045.81298828125</v>
+        <v>3186.9287109375</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>EQELQQTLQQEQSVLDQLRGEAEAAR</t>
+          <t>SFLSEPSPGRTK</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>6077.8798828125</v>
+        <v>3563.285888671875</v>
       </c>
       <c r="C234" t="n">
-        <v>5708.91162109375</v>
+        <v>3381.881591796875</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RPTSSAIPLQSPR</t>
+          <t>EAEETNGGAQIQPLPADCGISSATEKPDSK</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3742.0439453125</v>
+        <v>4179.85791015625</v>
       </c>
       <c r="C235" t="n">
-        <v>3789.713623046875</v>
+        <v>4265.2294921875</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>LCDFGSASHVADNDITPLVSR</t>
+          <t>HSTSPSLDSEYNEELNEDDSQDEK</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>5416.7939453125</v>
+        <v>3963.239990234375</v>
       </c>
       <c r="C236" t="n">
-        <v>5123.9501953125</v>
+        <v>3914.5908203125</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LLKPGEEPSETDEEDTK</t>
+          <t>EHQEMDEGQSLEK</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3591.419921875</v>
+        <v>2573.43603515625</v>
       </c>
       <c r="C237" t="n">
-        <v>2981.017822265625</v>
+        <v>2346.193603515625</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AEGEEEMDTGADDQDGDAAQHPEEHEEQQQSVEEK</t>
+          <t>YSDVEVPASVTGYSFASDGDSGTCSPLRHFQK</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2953.337890625</v>
+        <v>5320.80615234375</v>
       </c>
       <c r="C238" t="n">
-        <v>3113.480224609375</v>
+        <v>5349.0185546875</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SLHPWYGITPTSPK</t>
+          <t>ETQTHENSQLEEEQNK</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4948.84814453125</v>
+        <v>2389.236083984375</v>
       </c>
       <c r="C239" t="n">
-        <v>4977.4931640625</v>
+        <v>2557.42919921875</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>QNNLCLEQGDVTVPGSSLGTEIWESSSQALPVQAPANDSWRK</t>
+          <t>RLGNEYVFTK</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>6117.2998046875</v>
+        <v>3934.43408203125</v>
       </c>
       <c r="C240" t="n">
-        <v>5965.28515625</v>
+        <v>4415.06396484375</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GGGSGTSLEREQFEGLGSPDAK</t>
+          <t>KLGAGEGGEASVPEK</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4210.81787109375</v>
+        <v>2605.968017578125</v>
       </c>
       <c r="C241" t="n">
-        <v>4162.509765625</v>
+        <v>2823.33642578125</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SPFKVPLTFGRK</t>
+          <t>AVTIANSPKPSEK</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5235.26416015625</v>
+        <v>2590.800048828125</v>
       </c>
       <c r="C242" t="n">
-        <v>5136.26318359375</v>
+        <v>2763.25537109375</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DSETGENIR</t>
+          <t>AVQAQGGESQQEAQRLQAQLNELQAQLSQK</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2113.169921875</v>
+        <v>6050.759765625</v>
       </c>
       <c r="C243" t="n">
-        <v>2064.59033203125</v>
+        <v>5069.86083984375</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>EHCDEGEADDFDPGK</t>
+          <t>EEAVQTFNYLCDLIESNHPIVLGPNNTNLPK</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3186.966064453125</v>
+        <v>6185.4599609375</v>
       </c>
       <c r="C244" t="n">
-        <v>2659.435302734375</v>
+        <v>6164.73486328125</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>EHASIDAQSGAGVPNPSSASPK</t>
+          <t>NEGQDATMYCK</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>3463.283935546875</v>
+        <v>2533.9560546875</v>
       </c>
       <c r="C245" t="n">
-        <v>3277.8076171875</v>
+        <v>2637.13818359375</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GAKLPEEEEILNK</t>
+          <t>ERDSELSDTDGCCLGQSESDK</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4241.490234375</v>
+        <v>3180.221923828125</v>
       </c>
       <c r="C246" t="n">
-        <v>4117.8515625</v>
+        <v>3063.714599609375</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>EGLELLK</t>
+          <t>VLTDAVDDITSIDDFLAVSENHILEDVNK</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4482.1201171875</v>
+        <v>6275.10009765625</v>
       </c>
       <c r="C247" t="n">
-        <v>4001.607666015625</v>
+        <v>6326.28369140625</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>VVAPVESHVPESNQAQGEPAANEGTTVQHPEAPQEEK</t>
+          <t>GGRPDEVTLTSIVPTR</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3776.238037109375</v>
+        <v>5161.0078125</v>
       </c>
       <c r="C248" t="n">
-        <v>3840.794677734375</v>
+        <v>4646.5458984375</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ESPRPLQLPGAEGPAISDGEEGGGEPGAGGGAAGAAGAGR</t>
+          <t>RPGNSTVTSPPVTPK</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4712.90380859375</v>
+        <v>2949.251953125</v>
       </c>
       <c r="C249" t="n">
-        <v>4525.43505859375</v>
+        <v>3173.0732421875</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TLTRTQETADVK</t>
+          <t>EQFENHNPINSATSISNIISIETPNTAPSSK</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2542.590087890625</v>
+        <v>5862.0361328125</v>
       </c>
       <c r="C250" t="n">
-        <v>2713.019287109375</v>
+        <v>5557.87744140625</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SSLGSLQPEAVTTRK</t>
+          <t>SNNSMAQAMK</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3914.285888671875</v>
+        <v>2382.27001953125</v>
       </c>
       <c r="C251" t="n">
-        <v>4032.642333984375</v>
+        <v>2575.564453125</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>EEHNTVCAAGTPVGEIGEEK</t>
+          <t>NSSQSGGKPGSPITK</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3760.7939453125</v>
+        <v>2013.534057617188</v>
       </c>
       <c r="C252" t="n">
-        <v>3658.091552734375</v>
+        <v>2198.514892578125</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>GLGHPPSPLLK</t>
+          <t>INSSGEGDESDEFLQSRK</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>4010.508056640625</v>
+        <v>3694.0439453125</v>
       </c>
       <c r="C253" t="n">
-        <v>4153.28271484375</v>
+        <v>3947.755859375</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HQAEFTISYDNEK</t>
+          <t>AEEATEAQEVVEATPEGACTEPREPPGLIFNK</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>4075.134033203125</v>
+        <v>5322.7021484375</v>
       </c>
       <c r="C254" t="n">
-        <v>3981.697265625</v>
+        <v>5439.16259765625</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ASTSDYQVISDRQPK</t>
+          <t>GSQSSDSSSSLSSHRYETPSDAIEVIPASPAPPQEK</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3376.176025390625</v>
+        <v>4741.8359375</v>
       </c>
       <c r="C255" t="n">
-        <v>3422.445068359375</v>
+        <v>5057.76513671875</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>KPISDNSFSDEEQSTGPIK</t>
+          <t>AGSSAAGASGWTSAGSLNSVPTNSAQQGHNSPDSPVTSAAK</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3793.85400390625</v>
+        <v>4309.1337890625</v>
       </c>
       <c r="C256" t="n">
-        <v>3889.719970703125</v>
+        <v>4591.6064453125</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>EPSAPSIPTPAYQSSPAGGHAPTPPTPAPR</t>
+          <t>YSRLSSDDGYIDLQFK</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4583.7001953125</v>
+        <v>5407.169921875</v>
       </c>
       <c r="C257" t="n">
-        <v>4456.80517578125</v>
+        <v>5264.41259765625</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>LIHEQEQQSSS</t>
+          <t>SRDVDDAAAEATR</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2005.77001953125</v>
+        <v>2612.736083984375</v>
       </c>
       <c r="C258" t="n">
-        <v>2377.475341796875</v>
+        <v>2503.026611328125</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MLFSPEEMDLSQEQPLDAQQGPPEPAQESLSGSESKPK</t>
+          <t>GVAGPGPIGREPDPDDWEPEERELQEVESTLK</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5897.5439453125</v>
+        <v>6106.3798828125</v>
       </c>
       <c r="C259" t="n">
-        <v>5604.5400390625</v>
+        <v>5799.22705078125</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NNDLQDNYLSEQNK</t>
+          <t>RQAFPSSTMMEVFLQEK</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3678.365966796875</v>
+        <v>6137.8798828125</v>
       </c>
       <c r="C260" t="n">
-        <v>3884.958740234375</v>
+        <v>6011.99462890625</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RLGNEYVFTK</t>
+          <t>TLPYLVSNVIELLDVDPNDQEEDGANIDLDSQRK</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>3934.43408203125</v>
+        <v>6267.60009765625</v>
       </c>
       <c r="C261" t="n">
-        <v>4096.9794921875</v>
+        <v>5941.74951171875</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>LESPSFTGTGDTEIAHATEDLENNGSK</t>
+          <t>NQVLLGRSPSK</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5093.25</v>
+        <v>2965.85400390625</v>
       </c>
       <c r="C262" t="n">
-        <v>4746.04345703125</v>
+        <v>3458.17578125</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>GGREGFEDTDSEFTFK</t>
+          <t>ENRQIINPDWNFEK</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4695.2880859375</v>
+        <v>5050.248046875</v>
       </c>
       <c r="C263" t="n">
-        <v>4420.126953125</v>
+        <v>5248.4375</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NVDSSPETSPSVSPMPHSSSIANLQTASK</t>
+          <t>DPTSLLGVLQAEADSTSEGLEDAVHSR</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4361.5322265625</v>
+        <v>6223.080078125</v>
       </c>
       <c r="C264" t="n">
-        <v>4996.44287109375</v>
+        <v>6101.93310546875</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SNSGRELDEEILASVIK</t>
+          <t>EHYPVSPSSPSPPAQPGGVSR</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>5878.7099609375</v>
+        <v>3653.10595703125</v>
       </c>
       <c r="C265" t="n">
-        <v>5625.1015625</v>
+        <v>3708.635009765625</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TDPSLDLHSLSAETQPAQEELREDPDFEIK</t>
+          <t>TCTESDVSQSQNSR</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5816.72998046875</v>
+        <v>1939.302001953125</v>
       </c>
       <c r="C266" t="n">
-        <v>5706.03857421875</v>
+        <v>2107.53076171875</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>IEEPVSMEMDNHMSDKDESCYDNAEAAFDDEEDLNSK</t>
+          <t>LHQPVPVTPK</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>5183.7958984375</v>
+        <v>2929.001953125</v>
       </c>
       <c r="C267" t="n">
-        <v>5212.14208984375</v>
+        <v>2925.494140625</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>KEGEEEEENTEEPPQGEEEESMETQE</t>
+          <t>MRIPNYQLPTK</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3342.384033203125</v>
+        <v>4382.580078125</v>
       </c>
       <c r="C268" t="n">
-        <v>3300.468994140625</v>
+        <v>4462.82470703125</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ACDCDPRGIETPQCDQSTGQCVCVEGVEGPR</t>
+          <t>NQWQLSADDLK</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4210.81787109375</v>
+        <v>4700.333984375</v>
       </c>
       <c r="C269" t="n">
-        <v>3829.6708984375</v>
+        <v>4385.37744140625</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>HAAYSSDSENQGSYSGVIPPPPGR</t>
+          <t>NNQGNSFQAK</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>4283.333984375</v>
+        <v>1925.244018554688</v>
       </c>
       <c r="C270" t="n">
-        <v>4027.977294921875</v>
+        <v>2029.049560546875</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>LSDCEGSVHCEVPSEQYACEGKPPDPDEGSTK</t>
+          <t>KIPDPDSDDVEVDAR</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>3838.577880859375</v>
+        <v>3739.583984375</v>
       </c>
       <c r="C271" t="n">
-        <v>3519.09716796875</v>
+        <v>3485.243896484375</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>VERLSGPEQITLEASSTEGHPGAPPQHTDQTEAFQK</t>
+          <t>SSGHSSELSPDAVEK</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>4719.2099609375</v>
+        <v>3061.944091796875</v>
       </c>
       <c r="C272" t="n">
-        <v>4601.2685546875</v>
+        <v>3091.6708984375</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>TTSQAHSLPLPASTR</t>
+          <t>LSNPTPDYCHDK</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3616.907958984375</v>
+        <v>3158.9580078125</v>
       </c>
       <c r="C273" t="n">
-        <v>3645.63037109375</v>
+        <v>3088.594970703125</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>LLKPGEEPSEYDEEDTK</t>
+          <t>HAAYSSDSENQGSYSGVIPPPPGR</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>3592.260009765625</v>
+        <v>4283.333984375</v>
       </c>
       <c r="C274" t="n">
-        <v>3312.83056640625</v>
+        <v>4026.911865234375</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>EANEILQR</t>
+          <t>DQGGYTMHQDQEGDTDAGLKEPLQTPTEDGSEEPGSETSDAK</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2951.447998046875</v>
+        <v>4162.30810546875</v>
       </c>
       <c r="C275" t="n">
-        <v>3151.478515625</v>
+        <v>4236.7734375</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SNNSMAQAMK</t>
+          <t>LCDFGSASHVADNDITPLVSR</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2382.27001953125</v>
+        <v>5416.7939453125</v>
       </c>
       <c r="C276" t="n">
-        <v>2749.096923828125</v>
+        <v>5082.74169921875</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NNFEADAYFVK</t>
+          <t>GGREGFEDTDSEFTFK</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>4828.17578125</v>
+        <v>4695.2880859375</v>
       </c>
       <c r="C277" t="n">
-        <v>4977.74169921875</v>
+        <v>4526.96435546875</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ANTPDARLGDSK</t>
+          <t>SRPTSEGDIESTEPQK</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2387.837890625</v>
+        <v>2614.2958984375</v>
       </c>
       <c r="C278" t="n">
-        <v>2567.4990234375</v>
+        <v>2786.117919921875</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SSFNVSDVARPEAAGSPPEEGGCTEGTPAK</t>
+          <t>EQELQQTLQQEQSVLDQLRGEAEAAR</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>4187.57421875</v>
+        <v>6077.8798828125</v>
       </c>
       <c r="C279" t="n">
-        <v>3857.06982421875</v>
+        <v>5795.431640625</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ELSNPLRENSFGSPLEFRNSGPLGTENTGFSSEVK</t>
+          <t>SSLGSLQPEAVTTRK</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5826.97216796875</v>
+        <v>3914.285888671875</v>
       </c>
       <c r="C280" t="n">
-        <v>5823.171875</v>
+        <v>4272.81787109375</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>YSRLSSDDGYIDLQFK</t>
+          <t>KPISDNSFSDEEQSTGPIK</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5407.169921875</v>
+        <v>3793.85400390625</v>
       </c>
       <c r="C281" t="n">
-        <v>5204.05322265625</v>
+        <v>3626.767333984375</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>DNEDAFYNSQK</t>
+          <t>EGLELLK</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>3134.97607421875</v>
+        <v>4482.1201171875</v>
       </c>
       <c r="C282" t="n">
-        <v>3030.2333984375</v>
+        <v>4361.1884765625</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLESPQR</t>
+          <t>VSLERLDLDLTADQPPVFK</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4113.82177734375</v>
+        <v>6105.89990234375</v>
       </c>
       <c r="C283" t="n">
-        <v>4405.3173828125</v>
+        <v>5746.556640625</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>EEIQDEEDDDDYVEEGEEEEEEEEGGLRGEK</t>
+          <t>RITPLMEPSSIEK</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>4599.8818359375</v>
+        <v>4450.169921875</v>
       </c>
       <c r="C284" t="n">
-        <v>4333.302734375</v>
+        <v>4490.20849609375</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AHPLNTPDPSTK</t>
+          <t>SQPFINPDSQGHCPATSDSGITDVAMSK</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2754.659912109375</v>
+        <v>4653.11376953125</v>
       </c>
       <c r="C285" t="n">
-        <v>2598.428466796875</v>
+        <v>4614.60009765625</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RSDMTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
+          <t>QTQAASASQGSASAAEVLLRTATANGFQMVTSGVQSK</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>6243.72021484375</v>
+        <v>6146.580078125</v>
       </c>
       <c r="C286" t="n">
-        <v>6345.22802734375</v>
+        <v>5771.3740234375</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GGRPDEVTLTSIVPTR</t>
+          <t>GPKPEPPGSGPAPPR</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>5161.0078125</v>
+        <v>2726.364013671875</v>
       </c>
       <c r="C287" t="n">
-        <v>4590.1328125</v>
+        <v>2651.89013671875</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HSTSPSLDSEYNEELNEDDSQDEK</t>
+          <t>LQQGAGLESPQGQPEPGAAPQRQQDLHLEPQRQPEYSPESPR</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3963.239990234375</v>
+        <v>4393.64404296875</v>
       </c>
       <c r="C288" t="n">
-        <v>3937.13623046875</v>
+        <v>4881.1474609375</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HDSIPAADTFEDLDVEGGGSEPTQR</t>
+          <t>SPFKVPLTFGRK</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>5253.14990234375</v>
+        <v>5235.26416015625</v>
       </c>
       <c r="C289" t="n">
-        <v>5053.55419921875</v>
+        <v>5292.24365234375</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>NSQVGSDNSSILLFDSTQESLPPSQDIPAIFREGMK</t>
+          <t>LAAAISEVVSQTPASTTQAGAPPRDTSQSDK</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>6142.97998046875</v>
+        <v>4644.40185546875</v>
       </c>
       <c r="C290" t="n">
-        <v>6205.25341796875</v>
+        <v>4465.70947265625</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>TSEQLDQPISACCFNHNGNIFAYASSYDWSK</t>
+          <t>AQPLEDLAGFTELSETSGHTQESLTAGK</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>6058.56005859375</v>
+        <v>5968.1279296875</v>
       </c>
       <c r="C291" t="n">
-        <v>6253.26318359375</v>
+        <v>5488.31982421875</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>TAQALAQLAAQHSQSGSTTTSSWDMGSTTQSPSLVQYDLK</t>
+          <t>NSQVGSDNSSILLFDSTQESLPPSQDIPAIFREGMK</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>5748.509765625</v>
+        <v>6142.97998046875</v>
       </c>
       <c r="C292" t="n">
-        <v>5891.77685546875</v>
+        <v>6156.84619140625</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SSGHSSELSPDAVEK</t>
+          <t>HQAEFTISYDNEK</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3061.944091796875</v>
+        <v>4075.134033203125</v>
       </c>
       <c r="C293" t="n">
-        <v>2868.97607421875</v>
+        <v>4074.56640625</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DLPTIPGVTSPSSDEPPMEASQSHLRNPEDK</t>
+          <t>CSQSNNQFQK</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>5371.8779296875</v>
+        <v>1886.567993164062</v>
       </c>
       <c r="C294" t="n">
-        <v>5143.40380859375</v>
+        <v>2012.692504882812</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>VLGPYTFSICDTSNFSDYIRGGIVSQVK</t>
+          <t>SDFQVNLNNASR</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>6127.6201171875</v>
+        <v>4037.988037109375</v>
       </c>
       <c r="C295" t="n">
-        <v>6116.962890625</v>
+        <v>4014.0966796875</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ESESCDCLQGFQLTHSLGGGTGSGGTLLISK</t>
+          <t>LSDCEGSVHCEVPSEQYACEGKPPDPDEGSTK</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>5389.416015625</v>
+        <v>3838.577880859375</v>
       </c>
       <c r="C296" t="n">
-        <v>5566.70703125</v>
+        <v>3866.947265625</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GTTSYNEVADELVAEFSAADNHILPNESAYDQK</t>
+          <t>HDSIPAADTFEDLDVEGGGSEPTQR</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>6175.6201171875</v>
+        <v>5253.14990234375</v>
       </c>
       <c r="C297" t="n">
-        <v>5781.1728515625</v>
+        <v>4919.16552734375</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DEDDDLVSPPNTEGNQWYDFLQNSSHLK</t>
+          <t>TSEQLDQPISACCFNHNGNIFAYASSYDWSK</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>6118.31982421875</v>
+        <v>6058.56005859375</v>
       </c>
       <c r="C298" t="n">
-        <v>5912.86376953125</v>
+        <v>6041.384765625</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GSQSSDSSSSLSSHRYETPSDAIEVIPASPAPPQEK</t>
+          <t>ANGNLSNMYEVLNNNEESLTCGIEQHTGENVSR</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4741.8359375</v>
+        <v>6033.5400390625</v>
       </c>
       <c r="C299" t="n">
-        <v>4740.45849609375</v>
+        <v>5807.96630859375</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DSSGQHVDVPTSQR</t>
+          <t>KPNELVDDLFK</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>2616.19189453125</v>
+        <v>5849.89794921875</v>
       </c>
       <c r="C300" t="n">
-        <v>2370.799072265625</v>
+        <v>5039.2353515625</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>NLPYKVQDELK</t>
+          <t>SRSEPSPDAPESPSSCSPK</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4187.57421875</v>
+        <v>2593.367919921875</v>
       </c>
       <c r="C301" t="n">
-        <v>4387.3154296875</v>
+        <v>2473.009033203125</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>RDYTGCSTESLSPVK</t>
+          <t>SRDAPPVSPINMEDQER</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3550.530029296875</v>
+        <v>4285.30810546875</v>
       </c>
       <c r="C302" t="n">
-        <v>3416.32421875</v>
+        <v>3967.6875</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>GEPGADGEAGRPGSSGPSGDEGQPGEPGPPGEK</t>
+          <t>QGDLSANQDEETDQETFQLEIDRDTK</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>3005.087890625</v>
+        <v>4810.998046875</v>
       </c>
       <c r="C303" t="n">
-        <v>2661.950439453125</v>
+        <v>4985.693359375</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>FRPAAPPLALRQPVK</t>
+          <t>DLSLDDFK</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>4453.6259765625</v>
+        <v>5089.64990234375</v>
       </c>
       <c r="C304" t="n">
-        <v>4988.35498046875</v>
+        <v>4880.388671875</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KDDEDDDEEEYGK</t>
+          <t>GSQITQQSTNQSR</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2261.093994140625</v>
+        <v>1962.58203125</v>
       </c>
       <c r="C305" t="n">
-        <v>2258.622314453125</v>
+        <v>2204.992431640625</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ASFDHPDSLPLR</t>
+          <t>ARAGGGPTLQCPPPSPEK</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>4343.15380859375</v>
+        <v>3064.181884765625</v>
       </c>
       <c r="C306" t="n">
-        <v>4354.39111328125</v>
+        <v>3355.889404296875</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>EEDEEEEDDEESGRLR</t>
+          <t>RDYTGCSTESLSPVK</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2723.610107421875</v>
+        <v>3550.530029296875</v>
       </c>
       <c r="C307" t="n">
-        <v>2734.59228515625</v>
+        <v>3431.239501953125</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>GGGGGQDNGLEGLGNDSR</t>
+          <t>YEYDPDIPPRK</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3309.419921875</v>
+        <v>3895.2060546875</v>
       </c>
       <c r="C308" t="n">
-        <v>3262.09765625</v>
+        <v>3745.22607421875</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>GMSPEQSRFQSDSSSYPTVDSNSLLGQSRLETAESK</t>
+          <t>NNFEADAYFVK</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>5083.1220703125</v>
+        <v>4828.17578125</v>
       </c>
       <c r="C309" t="n">
-        <v>5116.16064453125</v>
+        <v>4772.419921875</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AGSSNQSISPVLDAVPRPSRER</t>
+          <t>IEEPVSMEMDNHMSDKDESCYDNAEAAFDDEEDLNSK</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>4486.1337890625</v>
+        <v>5183.7958984375</v>
       </c>
       <c r="C310" t="n">
-        <v>4690.3212890625</v>
+        <v>5190.4267578125</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DSTLIMQLLRDNLTLWTSDMQGDGEEQNK</t>
+          <t>SYHDVLPK</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6313.6201171875</v>
+        <v>3277.157958984375</v>
       </c>
       <c r="C311" t="n">
-        <v>6440.5048828125</v>
+        <v>3110.045166015625</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>AHLENELEALEK</t>
+          <t>RSGPTDDGEEEMEEDTVTNGS</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>4560.69580078125</v>
+        <v>3427.404052734375</v>
       </c>
       <c r="C312" t="n">
-        <v>4618.61279296875</v>
+        <v>3464.768798828125</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>RTGYEGEYELGEGLGVK</t>
+          <t>NGLRNADSEIK</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>4843.158203125</v>
+        <v>2726.364013671875</v>
       </c>
       <c r="C313" t="n">
-        <v>4561.41064453125</v>
+        <v>2762.783935546875</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ESDSAEGDEAEPEQQVRK</t>
+          <t>SENENQEQIEESK</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2603.736083984375</v>
+        <v>2227.800048828125</v>
       </c>
       <c r="C314" t="n">
-        <v>2405.338134765625</v>
+        <v>2264.656982421875</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>EEHLDVAPDK</t>
+          <t>TAQALAQLAAQHSQSGSTTTSSWDMGSTTQSPSLVQYDLK</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2941.716064453125</v>
+        <v>5748.509765625</v>
       </c>
       <c r="C315" t="n">
-        <v>2694.084716796875</v>
+        <v>5702.92041015625</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SSQTSQNQGLGRPTLEGDEETSEVEYTVNK</t>
+          <t>SSSSQESLNRPFSSK</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>4269.6181640625</v>
+        <v>3189.090087890625</v>
       </c>
       <c r="C316" t="n">
-        <v>4206.26708984375</v>
+        <v>3434.21484375</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>TRLDFPQNEPQIK</t>
+          <t>LLKPGEEPSETDEEDTK</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>4309.52392578125</v>
+        <v>3591.419921875</v>
       </c>
       <c r="C317" t="n">
-        <v>4551.7529296875</v>
+        <v>2867.85107421875</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SPYASLCQVEFGNFNNLSNHSGNNVNYNASQQCQAPGVQK</t>
+          <t>NQDLCQQEAVK</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>5494.337890625</v>
+        <v>2563.39208984375</v>
       </c>
       <c r="C318" t="n">
-        <v>5474.57763671875</v>
+        <v>2775.84765625</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>NDKEEEQSSSSVK</t>
+          <t>LITSEEERPAK</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1708.109985351562</v>
+        <v>2535.6298828125</v>
       </c>
       <c r="C319" t="n">
-        <v>1794.82958984375</v>
+        <v>2896.263671875</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>NNCPFADENYRPLAK</t>
+          <t>LHVGNIPTCTNQELR</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>4350.56396484375</v>
+        <v>4204.0498046875</v>
       </c>
       <c r="C320" t="n">
-        <v>4338.45703125</v>
+        <v>4131.3623046875</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>NGLRNADSEIK</t>
+          <t>GLGHPPSPLLK</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2726.364013671875</v>
+        <v>4010.508056640625</v>
       </c>
       <c r="C321" t="n">
-        <v>3003.613037109375</v>
+        <v>4186.29150390625</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GSQITQQSTNQSR</t>
+          <t>GPEGGEGAECGGASEGGEGQNGGDAAPARPPAGEPR</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1962.58203125</v>
+        <v>2930.820068359375</v>
       </c>
       <c r="C322" t="n">
-        <v>2201.3271484375</v>
+        <v>2815.067138671875</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ANGNLSNMYEVLNNNEESLTCGIEQHTGENVSR</t>
+          <t>DRTTSFFLNPEK</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>6033.5400390625</v>
+        <v>4802.98193359375</v>
       </c>
       <c r="C323" t="n">
-        <v>5711.08447265625</v>
+        <v>4939.8447265625</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SENENQEQIEESK</t>
+          <t>KDDEDDDEEEYGK</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2227.800048828125</v>
+        <v>2261.093994140625</v>
       </c>
       <c r="C324" t="n">
-        <v>2278.904296875</v>
+        <v>2343.2314453125</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>GQPVAPYNTTQFLDDHDQEEPDLK</t>
+          <t>DSETGENIR</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>5004.02392578125</v>
+        <v>2113.169921875</v>
       </c>
       <c r="C325" t="n">
-        <v>4884.0986328125</v>
+        <v>2118.851318359375</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SSSSQESLNRPFSSK</t>
+          <t>GADINAPDK</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3189.090087890625</v>
+        <v>2270.3701171875</v>
       </c>
       <c r="C326" t="n">
-        <v>3064.337158203125</v>
+        <v>2294.353759765625</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>EQFENHNPINSATSISNIISIETPNTAPSSK</t>
+          <t>TDPSLDLHSLSAETQPAQEELREDPDFEIK</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>5862.0361328125</v>
+        <v>5816.72998046875</v>
       </c>
       <c r="C327" t="n">
-        <v>5711.5595703125</v>
+        <v>5777.50048828125</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SDFQVNLNNASR</t>
+          <t>REEDDPEEPDDHEK</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4037.988037109375</v>
+        <v>2105.7900390625</v>
       </c>
       <c r="C328" t="n">
-        <v>4174.2001953125</v>
+        <v>2169.423583984375</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ASHSSQTQGGGSVTK</t>
+          <t>ADREVQAEQPSSSPR</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1593.18603515625</v>
+        <v>2244.22802734375</v>
       </c>
       <c r="C329" t="n">
-        <v>1713.845947265625</v>
+        <v>2204.1474609375</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>QPGYQPPNPHPGPSSPPAAPASK</t>
+          <t>NGGFEDDLSLGAEANHLHESDAQIENCNNILAK</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>3348.47412109375</v>
+        <v>5539.72802734375</v>
       </c>
       <c r="C330" t="n">
-        <v>3524.356689453125</v>
+        <v>5735.92578125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>AVTIANSPKPSEK</t>
+          <t>NLPYKVQDELK</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2590.800048828125</v>
+        <v>4187.57421875</v>
       </c>
       <c r="C331" t="n">
-        <v>2687.93505859375</v>
+        <v>4229.61279296875</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>RSVLPPDGNGPVLPDK</t>
+          <t>RPTSSAIPLQSPR</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>4357.326171875</v>
+        <v>3742.0439453125</v>
       </c>
       <c r="C332" t="n">
-        <v>4425.876953125</v>
+        <v>4036.342041015625</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>DDDSLEASHSK</t>
+          <t>RSDTFLGCIPPNPFEVPLAEAIPLADQPHLLQPNAR</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2398.637939453125</v>
+        <v>6226.6201171875</v>
       </c>
       <c r="C333" t="n">
-        <v>2157.760009765625</v>
+        <v>6321.58544921875</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SVQANLDQSQR</t>
+          <t>LQENEEEEIGNLELAWDMLDLAK</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2578.236083984375</v>
+        <v>6383.39990234375</v>
       </c>
       <c r="C334" t="n">
-        <v>2719.747314453125</v>
+        <v>6517.7919921875</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>KLETEETVPEDVETK</t>
+          <t>QGGRCPVPGLSSPSGSPLHGK</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>3413.4541015625</v>
+        <v>4020.803955078125</v>
       </c>
       <c r="C335" t="n">
-        <v>3458.23388671875</v>
+        <v>3734.987548828125</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TLVITSTPASPNRELHPQLLSPK</t>
+          <t>TRVLGQVSCELVPK</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>5002.7041015625</v>
+        <v>4453.6259765625</v>
       </c>
       <c r="C336" t="n">
-        <v>5550.087890625</v>
+        <v>4735.94482421875</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>DTSLLASATDPEPCSPHRPQMVSPVSK</t>
+          <t>DVTLTSPLLVNLLQSDISAGHFGVNNK</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>4804.35009765625</v>
+        <v>6227.81982421875</v>
       </c>
       <c r="C337" t="n">
-        <v>4874.771484375</v>
+        <v>6525.5244140625</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SPGLYAIGYEECIERPLPHMEQSSLDPGK</t>
+          <t>AHLENELEALEK</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>5778.240234375</v>
+        <v>4560.69580078125</v>
       </c>
       <c r="C338" t="n">
-        <v>5713.71533203125</v>
+        <v>4261.56982421875</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DSRPSQAAGDNQGDEAK</t>
+          <t>LESPSFTGTGDTEIAHATEDLENNGSK</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1787.838012695312</v>
+        <v>5093.25</v>
       </c>
       <c r="C339" t="n">
-        <v>1924.951416015625</v>
+        <v>4909.1142578125</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>IERPGEGPVDNPR</t>
+          <t>IVRGDQPAAGDSDDDEPPPLPR</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2916.58203125</v>
+        <v>3987.89404296875</v>
       </c>
       <c r="C340" t="n">
-        <v>2766.528564453125</v>
+        <v>4153.1240234375</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GLNQMNNGNGANK</t>
+          <t>GMSPEQSRFQSDSSSYPTVDSNSLLGQSRLETAESK</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2133.6240234375</v>
+        <v>5083.1220703125</v>
       </c>
       <c r="C341" t="n">
-        <v>2342.975830078125</v>
+        <v>5218.5244140625</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>KIPEFEVENPLSDVAK</t>
+          <t>QPQTSVVQNQQQISQQGPIYDEVELDALAEIERIER</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>5311.73388671875</v>
+        <v>6177.89990234375</v>
       </c>
       <c r="C342" t="n">
-        <v>5327.16943359375</v>
+        <v>6322.556640625</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>KYEQGFITDPVVLPK</t>
+          <t>SCSPELQQK</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>5406.2578125</v>
+        <v>2203.697998046875</v>
       </c>
       <c r="C343" t="n">
-        <v>5476.5595703125</v>
+        <v>2237.78955078125</v>
       </c>
     </row>
   </sheetData>

--- a/results/RT/hela_mod_validation_set_prediction.xlsx
+++ b/results/RT/hela_mod_validation_set_prediction.xlsx
@@ -460,7 +460,7 @@
         <v>4141.326171875</v>
       </c>
       <c r="C2" t="n">
-        <v>4205.162109375</v>
+        <v>4138.76611328125</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>5179.26611328125</v>
       </c>
       <c r="C3" t="n">
-        <v>5238.5107421875</v>
+        <v>5110.20947265625</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>5004.02392578125</v>
       </c>
       <c r="C4" t="n">
-        <v>4893.57080078125</v>
+        <v>5099.73388671875</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3645.419921875</v>
       </c>
       <c r="C5" t="n">
-        <v>3508.779296875</v>
+        <v>3263.4765625</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>4961.39990234375</v>
       </c>
       <c r="C6" t="n">
-        <v>4588.31689453125</v>
+        <v>4790.86279296875</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>2463.528076171875</v>
       </c>
       <c r="C7" t="n">
-        <v>2504.387939453125</v>
+        <v>2482.798828125</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>5406.2578125</v>
       </c>
       <c r="C8" t="n">
-        <v>5298.5712890625</v>
+        <v>5433.2880859375</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>5185.47021484375</v>
       </c>
       <c r="C9" t="n">
-        <v>5057.9892578125</v>
+        <v>5001.14794921875</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2969.47802734375</v>
       </c>
       <c r="C10" t="n">
-        <v>3083.355224609375</v>
+        <v>3041.6796875</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3413.4541015625</v>
       </c>
       <c r="C11" t="n">
-        <v>3578.120361328125</v>
+        <v>3552.286865234375</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>3342.384033203125</v>
       </c>
       <c r="C12" t="n">
-        <v>3267.927978515625</v>
+        <v>3126.557373046875</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>5494.337890625</v>
       </c>
       <c r="C13" t="n">
-        <v>5727.5556640625</v>
+        <v>5833.79150390625</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2631.714111328125</v>
       </c>
       <c r="C14" t="n">
-        <v>2850.552001953125</v>
+        <v>2619.233154296875</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>6031.3798828125</v>
       </c>
       <c r="C15" t="n">
-        <v>5929.02685546875</v>
+        <v>6285.880859375</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2196.882080078125</v>
       </c>
       <c r="C16" t="n">
-        <v>2548.828369140625</v>
+        <v>2630.960693359375</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>3257.00390625</v>
       </c>
       <c r="C17" t="n">
-        <v>3604.045654296875</v>
+        <v>3773.664794921875</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>6063.240234375</v>
       </c>
       <c r="C18" t="n">
-        <v>6559.93115234375</v>
+        <v>5784.8798828125</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>5037.2099609375</v>
       </c>
       <c r="C19" t="n">
-        <v>4567.244140625</v>
+        <v>4579.12548828125</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2455.1640625</v>
       </c>
       <c r="C20" t="n">
-        <v>2750.359130859375</v>
+        <v>2785.17529296875</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3868.134033203125</v>
       </c>
       <c r="C21" t="n">
-        <v>3403.636962890625</v>
+        <v>3284.2744140625</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>4832.65185546875</v>
       </c>
       <c r="C22" t="n">
-        <v>4709.4169921875</v>
+        <v>4947.24267578125</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>3134.97607421875</v>
       </c>
       <c r="C23" t="n">
-        <v>2902.928466796875</v>
+        <v>2799.90087890625</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>4480.33203125</v>
       </c>
       <c r="C24" t="n">
-        <v>4502.7041015625</v>
+        <v>4737.25244140625</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>4779.85791015625</v>
       </c>
       <c r="C25" t="n">
-        <v>4683.6396484375</v>
+        <v>4436.73681640625</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>4435.5361328125</v>
       </c>
       <c r="C26" t="n">
-        <v>4474.99951171875</v>
+        <v>4409.42529296875</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>4012.697998046875</v>
       </c>
       <c r="C27" t="n">
-        <v>4403.43310546875</v>
+        <v>4137.9189453125</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>3857.837890625</v>
       </c>
       <c r="C28" t="n">
-        <v>4069.11279296875</v>
+        <v>4126.65966796875</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>5712.7080078125</v>
       </c>
       <c r="C29" t="n">
-        <v>5401.8466796875</v>
+        <v>5088.47802734375</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>4241.490234375</v>
       </c>
       <c r="C30" t="n">
-        <v>4081.3134765625</v>
+        <v>4221.32763671875</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2829.68408203125</v>
       </c>
       <c r="C31" t="n">
-        <v>2789.822265625</v>
+        <v>2890.802734375</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>1769.657958984375</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.782836914062</v>
+        <v>1739.845947265625</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>4661.47216796875</v>
       </c>
       <c r="C33" t="n">
-        <v>4736.15478515625</v>
+        <v>4637.57373046875</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>6337.919921875</v>
       </c>
       <c r="C34" t="n">
-        <v>5677.0087890625</v>
+        <v>5601.78564453125</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>4165.10400390625</v>
       </c>
       <c r="C35" t="n">
-        <v>4744.91162109375</v>
+        <v>4643.8212890625</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>3204.132080078125</v>
       </c>
       <c r="C36" t="n">
-        <v>3243.34912109375</v>
+        <v>3295.776123046875</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>2133.6240234375</v>
       </c>
       <c r="C37" t="n">
-        <v>2180.3583984375</v>
+        <v>2493.44775390625</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>2685.833984375</v>
       </c>
       <c r="C38" t="n">
-        <v>2451.647216796875</v>
+        <v>2839.414306640625</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>2616.19189453125</v>
       </c>
       <c r="C39" t="n">
-        <v>2406.5400390625</v>
+        <v>2606.058349609375</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>3376.176025390625</v>
       </c>
       <c r="C40" t="n">
-        <v>3581.739013671875</v>
+        <v>3617.46484375</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>1787.838012695312</v>
       </c>
       <c r="C41" t="n">
-        <v>2037.75341796875</v>
+        <v>1854.352294921875</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>5614.33203125</v>
       </c>
       <c r="C42" t="n">
-        <v>5419.73828125</v>
+        <v>5654.7080078125</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>2953.337890625</v>
       </c>
       <c r="C43" t="n">
-        <v>2962.462158203125</v>
+        <v>2782.440185546875</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>3891.221923828125</v>
       </c>
       <c r="C44" t="n">
-        <v>3951.271484375</v>
+        <v>3956.837890625</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>5002.7041015625</v>
       </c>
       <c r="C45" t="n">
-        <v>5047.30810546875</v>
+        <v>5242.39501953125</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>5826.97216796875</v>
       </c>
       <c r="C46" t="n">
-        <v>6084.26806640625</v>
+        <v>5894.9130859375</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>4879.51806640625</v>
       </c>
       <c r="C47" t="n">
-        <v>4779.81494140625</v>
+        <v>4993.76171875</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>5025.81591796875</v>
       </c>
       <c r="C48" t="n">
-        <v>4982.8193359375</v>
+        <v>5218.060546875</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>6172.14013671875</v>
       </c>
       <c r="C49" t="n">
-        <v>5761.99072265625</v>
+        <v>5985.31982421875</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>3854.43603515625</v>
       </c>
       <c r="C50" t="n">
-        <v>3949.4189453125</v>
+        <v>3908.393310546875</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>4645.84814453125</v>
       </c>
       <c r="C51" t="n">
-        <v>5088.09326171875</v>
+        <v>5148.68115234375</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>2712.258056640625</v>
       </c>
       <c r="C52" t="n">
-        <v>2801.2978515625</v>
+        <v>2863.844482421875</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         <v>2844.18603515625</v>
       </c>
       <c r="C53" t="n">
-        <v>2609.9111328125</v>
+        <v>2438.004638671875</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>3081.882080078125</v>
       </c>
       <c r="C54" t="n">
-        <v>2951.5322265625</v>
+        <v>3094.440185546875</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         <v>4804.35009765625</v>
       </c>
       <c r="C55" t="n">
-        <v>4817.71923828125</v>
+        <v>4903.4443359375</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>4453.6259765625</v>
       </c>
       <c r="C56" t="n">
-        <v>4956.24853515625</v>
+        <v>5230.4580078125</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>2941.716064453125</v>
       </c>
       <c r="C57" t="n">
-        <v>2692.358154296875</v>
+        <v>2683.388916015625</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>6175.6201171875</v>
       </c>
       <c r="C58" t="n">
-        <v>6043.75244140625</v>
+        <v>6174.2001953125</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>2603.736083984375</v>
       </c>
       <c r="C59" t="n">
-        <v>2586.849853515625</v>
+        <v>2596.856201171875</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>6117.2998046875</v>
       </c>
       <c r="C60" t="n">
-        <v>6271.4091796875</v>
+        <v>6267.23583984375</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>6052.02001953125</v>
       </c>
       <c r="C61" t="n">
-        <v>6085.1396484375</v>
+        <v>5911.3154296875</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>2951.447998046875</v>
       </c>
       <c r="C62" t="n">
-        <v>3201.187744140625</v>
+        <v>3127.42138671875</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>6127.6201171875</v>
       </c>
       <c r="C63" t="n">
-        <v>6070.88134765625</v>
+        <v>5882.673828125</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>4948.84814453125</v>
       </c>
       <c r="C64" t="n">
-        <v>5329.5146484375</v>
+        <v>4944.748046875</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>5019.587890625</v>
       </c>
       <c r="C65" t="n">
-        <v>4697.41552734375</v>
+        <v>4847.72314453125</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         <v>6314.81982421875</v>
       </c>
       <c r="C66" t="n">
-        <v>6207.40673828125</v>
+        <v>6354.283203125</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>4269.6181640625</v>
       </c>
       <c r="C67" t="n">
-        <v>4147.60205078125</v>
+        <v>4285.80126953125</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>5878.7099609375</v>
       </c>
       <c r="C68" t="n">
-        <v>5391.56396484375</v>
+        <v>5263.1015625</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>5816.36376953125</v>
       </c>
       <c r="C69" t="n">
-        <v>5990.6767578125</v>
+        <v>5648.033203125</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>6211.080078125</v>
       </c>
       <c r="C70" t="n">
-        <v>6317.1611328125</v>
+        <v>6603.31787109375</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>1790.076049804688</v>
       </c>
       <c r="C71" t="n">
-        <v>1750.093994140625</v>
+        <v>1813.09912109375</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>4309.52392578125</v>
       </c>
       <c r="C72" t="n">
-        <v>4685.8505859375</v>
+        <v>4582.52685546875</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>4691.759765625</v>
       </c>
       <c r="C73" t="n">
-        <v>4935.7685546875</v>
+        <v>5030.9990234375</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>2783.93994140625</v>
       </c>
       <c r="C74" t="n">
-        <v>2988.78759765625</v>
+        <v>2692.221923828125</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>4187.57421875</v>
       </c>
       <c r="C75" t="n">
-        <v>4061.652099609375</v>
+        <v>4215.3994140625</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         <v>5327.89208984375</v>
       </c>
       <c r="C76" t="n">
-        <v>5281.94775390625</v>
+        <v>5354.60986328125</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>4210.81787109375</v>
       </c>
       <c r="C77" t="n">
-        <v>4183.26123046875</v>
+        <v>4196.35986328125</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>5056.3017578125</v>
       </c>
       <c r="C78" t="n">
-        <v>5044.43896484375</v>
+        <v>4646.34423828125</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>2239.278076171875</v>
       </c>
       <c r="C79" t="n">
-        <v>2346.5087890625</v>
+        <v>2219.05029296875</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>5897.5439453125</v>
       </c>
       <c r="C80" t="n">
-        <v>5251.30517578125</v>
+        <v>5672.52734375</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>2768.610107421875</v>
       </c>
       <c r="C81" t="n">
-        <v>3095.89892578125</v>
+        <v>3048.62158203125</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>1932.660034179688</v>
       </c>
       <c r="C82" t="n">
-        <v>2022.49755859375</v>
+        <v>1967.664306640625</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>6005.27978515625</v>
       </c>
       <c r="C83" t="n">
-        <v>6241.7939453125</v>
+        <v>5944.0908203125</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>5824.0859375</v>
       </c>
       <c r="C84" t="n">
-        <v>6585.18408203125</v>
+        <v>6532.681640625</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>6367.2001953125</v>
       </c>
       <c r="C85" t="n">
-        <v>6318.37939453125</v>
+        <v>6396.4501953125</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>5810.02197265625</v>
       </c>
       <c r="C86" t="n">
-        <v>6075.32373046875</v>
+        <v>6037.78662109375</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>4122.97802734375</v>
       </c>
       <c r="C87" t="n">
-        <v>4175.56689453125</v>
+        <v>4188.4072265625</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>2480.741943359375</v>
       </c>
       <c r="C88" t="n">
-        <v>2470.4912109375</v>
+        <v>2451.981689453125</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>2929.5</v>
       </c>
       <c r="C89" t="n">
-        <v>3088.853515625</v>
+        <v>3093.881103515625</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>2578.236083984375</v>
       </c>
       <c r="C90" t="n">
-        <v>2518.290771484375</v>
+        <v>2826.735107421875</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>4361.5322265625</v>
       </c>
       <c r="C91" t="n">
-        <v>4689.02294921875</v>
+        <v>4694.38916015625</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>4599.8818359375</v>
       </c>
       <c r="C92" t="n">
-        <v>4442.13232421875</v>
+        <v>4507.54736328125</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         <v>4583.7001953125</v>
       </c>
       <c r="C93" t="n">
-        <v>4520.85986328125</v>
+        <v>4421.17578125</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>3180.221923828125</v>
       </c>
       <c r="C94" t="n">
-        <v>3324.374267578125</v>
+        <v>3333.759521484375</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>6168.89990234375</v>
       </c>
       <c r="C95" t="n">
-        <v>6167.7119140625</v>
+        <v>6026.61669921875</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>4357.326171875</v>
       </c>
       <c r="C96" t="n">
-        <v>4496.64794921875</v>
+        <v>4351.65185546875</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>4758.666015625</v>
       </c>
       <c r="C97" t="n">
-        <v>4590.80224609375</v>
+        <v>4747.2333984375</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>3348.47412109375</v>
       </c>
       <c r="C98" t="n">
-        <v>3812.965087890625</v>
+        <v>3580.813720703125</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>2449.260009765625</v>
       </c>
       <c r="C99" t="n">
-        <v>2626.474365234375</v>
+        <v>2454.383056640625</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>5817.4560546875</v>
       </c>
       <c r="C100" t="n">
-        <v>5689.0927734375</v>
+        <v>5449.52783203125</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>2971.139892578125</v>
       </c>
       <c r="C101" t="n">
-        <v>3132.986328125</v>
+        <v>3362.855224609375</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>3961.22998046875</v>
       </c>
       <c r="C102" t="n">
-        <v>3753.180419921875</v>
+        <v>3886.11962890625</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>2953.337890625</v>
       </c>
       <c r="C103" t="n">
-        <v>3061.046142578125</v>
+        <v>2968.798095703125</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>4424.31591796875</v>
       </c>
       <c r="C104" t="n">
-        <v>4083.46875</v>
+        <v>4775.47802734375</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>4486.1337890625</v>
       </c>
       <c r="C105" t="n">
-        <v>4569.2568359375</v>
+        <v>4628.140625</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>2875.637939453125</v>
       </c>
       <c r="C106" t="n">
-        <v>2817.556884765625</v>
+        <v>2765.275634765625</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>5471.166015625</v>
       </c>
       <c r="C107" t="n">
-        <v>5625.197265625</v>
+        <v>5858.6806640625</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3635.00390625</v>
       </c>
       <c r="C108" t="n">
-        <v>3727.214599609375</v>
+        <v>3768.052734375</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>4155.66015625</v>
       </c>
       <c r="C109" t="n">
-        <v>4271.6552734375</v>
+        <v>4215.15283203125</v>
       </c>
     </row>
     <row r="110">
@@ -1864,7 +1864,7 @@
         <v>2514.635986328125</v>
       </c>
       <c r="C110" t="n">
-        <v>2691.2080078125</v>
+        <v>2535.26806640625</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         <v>4133.2021484375</v>
       </c>
       <c r="C111" t="n">
-        <v>4218.3017578125</v>
+        <v>4250.65283203125</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         <v>6055.6201171875</v>
       </c>
       <c r="C112" t="n">
-        <v>5722.310546875</v>
+        <v>5861.68212890625</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>3278.382080078125</v>
       </c>
       <c r="C113" t="n">
-        <v>3749.402587890625</v>
+        <v>3467.192138671875</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>3316.181884765625</v>
       </c>
       <c r="C114" t="n">
-        <v>3519.849365234375</v>
+        <v>3154.064697265625</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>2005.77001953125</v>
       </c>
       <c r="C115" t="n">
-        <v>2143.568359375</v>
+        <v>2081.139892578125</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>3128.02197265625</v>
       </c>
       <c r="C116" t="n">
-        <v>2963.93505859375</v>
+        <v>3040.3271484375</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>4305.01220703125</v>
       </c>
       <c r="C117" t="n">
-        <v>4217.17333984375</v>
+        <v>4536.29541015625</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>5540.09423828125</v>
       </c>
       <c r="C118" t="n">
-        <v>5361.05322265625</v>
+        <v>5157.91064453125</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>5994.1982421875</v>
       </c>
       <c r="C119" t="n">
-        <v>5676.82861328125</v>
+        <v>5860.8759765625</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         <v>5778.240234375</v>
       </c>
       <c r="C120" t="n">
-        <v>5741.21484375</v>
+        <v>5833.4775390625</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>5065.74609375</v>
       </c>
       <c r="C121" t="n">
-        <v>5031.595703125</v>
+        <v>5120.083984375</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>4181.0400390625</v>
       </c>
       <c r="C122" t="n">
-        <v>4020.90283203125</v>
+        <v>3934.87158203125</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>2757.4560546875</v>
       </c>
       <c r="C123" t="n">
-        <v>2767.237548828125</v>
+        <v>2931.56689453125</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>2044.151977539062</v>
       </c>
       <c r="C124" t="n">
-        <v>2211.92236328125</v>
+        <v>2200.019287109375</v>
       </c>
     </row>
     <row r="125">
@@ -2059,7 +2059,7 @@
         <v>3675.864013671875</v>
       </c>
       <c r="C125" t="n">
-        <v>3753.6630859375</v>
+        <v>3596.170166015625</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>5367.91796875</v>
       </c>
       <c r="C126" t="n">
-        <v>5518.34912109375</v>
+        <v>5340.1904296875</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>4147.2841796875</v>
       </c>
       <c r="C127" t="n">
-        <v>4126.39990234375</v>
+        <v>4146.5029296875</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>4351.7880859375</v>
       </c>
       <c r="C128" t="n">
-        <v>4464.48828125</v>
+        <v>4011.970947265625</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>2378.31005859375</v>
       </c>
       <c r="C129" t="n">
-        <v>2101.7255859375</v>
+        <v>2052.33544921875</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>5335.841796875</v>
       </c>
       <c r="C130" t="n">
-        <v>4757.12158203125</v>
+        <v>4360.87255859375</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>5616.7080078125</v>
       </c>
       <c r="C131" t="n">
-        <v>5337.53369140625</v>
+        <v>5470.47509765625</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>3915.1201171875</v>
       </c>
       <c r="C132" t="n">
-        <v>4028.712158203125</v>
+        <v>3764.588623046875</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>2105.7900390625</v>
       </c>
       <c r="C133" t="n">
-        <v>1968.078247070312</v>
+        <v>2014.007202148438</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>3592.260009765625</v>
       </c>
       <c r="C134" t="n">
-        <v>3206.222900390625</v>
+        <v>3478.78759765625</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>4061.0458984375</v>
       </c>
       <c r="C135" t="n">
-        <v>4017.2353515625</v>
+        <v>4083.857421875</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>4895.05810546875</v>
       </c>
       <c r="C136" t="n">
-        <v>5171.234375</v>
+        <v>5143.244140625</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>3639.4140625</v>
       </c>
       <c r="C137" t="n">
-        <v>3214.37060546875</v>
+        <v>3243.83349609375</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>2723.610107421875</v>
       </c>
       <c r="C138" t="n">
-        <v>2693.138916015625</v>
+        <v>2758.989013671875</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>3583.998046875</v>
       </c>
       <c r="C139" t="n">
-        <v>3719.6103515625</v>
+        <v>3864.26611328125</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>5371.8779296875</v>
       </c>
       <c r="C140" t="n">
-        <v>5319.58642578125</v>
+        <v>5328.384765625</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>4350.56396484375</v>
       </c>
       <c r="C141" t="n">
-        <v>4500.44580078125</v>
+        <v>4845.95361328125</v>
       </c>
     </row>
     <row r="142">
@@ -2280,7 +2280,7 @@
         <v>4297.68017578125</v>
       </c>
       <c r="C142" t="n">
-        <v>4151.5048828125</v>
+        <v>4218.26025390625</v>
       </c>
     </row>
     <row r="143">
@@ -2293,7 +2293,7 @@
         <v>1593.18603515625</v>
       </c>
       <c r="C143" t="n">
-        <v>1857.60009765625</v>
+        <v>1811.703369140625</v>
       </c>
     </row>
     <row r="144">
@@ -2306,7 +2306,7 @@
         <v>5481.0419921875</v>
       </c>
       <c r="C144" t="n">
-        <v>5730.74609375</v>
+        <v>5788.4072265625</v>
       </c>
     </row>
     <row r="145">
@@ -2319,7 +2319,7 @@
         <v>5389.416015625</v>
       </c>
       <c r="C145" t="n">
-        <v>5776.35693359375</v>
+        <v>5742.0908203125</v>
       </c>
     </row>
     <row r="146">
@@ -2332,7 +2332,7 @@
         <v>4719.2099609375</v>
       </c>
       <c r="C146" t="n">
-        <v>4721.45263671875</v>
+        <v>4696.197265625</v>
       </c>
     </row>
     <row r="147">
@@ -2345,7 +2345,7 @@
         <v>4374.666015625</v>
       </c>
       <c r="C147" t="n">
-        <v>4603.7451171875</v>
+        <v>5026.89892578125</v>
       </c>
     </row>
     <row r="148">
@@ -2358,7 +2358,7 @@
         <v>6219</v>
       </c>
       <c r="C148" t="n">
-        <v>6004.89306640625</v>
+        <v>6036.01416015625</v>
       </c>
     </row>
     <row r="149">
@@ -2371,7 +2371,7 @@
         <v>5543.7060546875</v>
       </c>
       <c r="C149" t="n">
-        <v>4943.1708984375</v>
+        <v>5017.29931640625</v>
       </c>
     </row>
     <row r="150">
@@ -2384,7 +2384,7 @@
         <v>4224.77978515625</v>
       </c>
       <c r="C150" t="n">
-        <v>3985.413818359375</v>
+        <v>4253.3515625</v>
       </c>
     </row>
     <row r="151">
@@ -2397,7 +2397,7 @@
         <v>4427.490234375</v>
       </c>
       <c r="C151" t="n">
-        <v>4565.84814453125</v>
+        <v>4381.4716796875</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>3776.238037109375</v>
       </c>
       <c r="C152" t="n">
-        <v>3812.712158203125</v>
+        <v>3614.994140625</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>2542.590087890625</v>
       </c>
       <c r="C153" t="n">
-        <v>2921.939697265625</v>
+        <v>2627.03955078125</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>6305.10009765625</v>
       </c>
       <c r="C154" t="n">
-        <v>6338.349609375</v>
+        <v>6212.82763671875</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>4700.333984375</v>
       </c>
       <c r="C155" t="n">
-        <v>4847.05419921875</v>
+        <v>4960.24462890625</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>3497.31005859375</v>
       </c>
       <c r="C156" t="n">
-        <v>3442.218505859375</v>
+        <v>3279.5498046875</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>3470.75390625</v>
       </c>
       <c r="C157" t="n">
-        <v>3609.32373046875</v>
+        <v>3801.639404296875</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>5099.076171875</v>
       </c>
       <c r="C158" t="n">
-        <v>5063.6015625</v>
+        <v>5073.8896484375</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>3130.81201171875</v>
       </c>
       <c r="C159" t="n">
-        <v>2827.51416015625</v>
+        <v>2992.67724609375</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>2398.637939453125</v>
       </c>
       <c r="C160" t="n">
-        <v>2271.677734375</v>
+        <v>2080.936279296875</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>4569.77392578125</v>
       </c>
       <c r="C161" t="n">
-        <v>4820.259765625</v>
+        <v>4721.72216796875</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>6253.5</v>
       </c>
       <c r="C162" t="n">
-        <v>6696.552734375</v>
+        <v>6765.771484375</v>
       </c>
     </row>
     <row r="163">
@@ -2553,7 +2553,7 @@
         <v>4029.738037109375</v>
       </c>
       <c r="C163" t="n">
-        <v>4346.79248046875</v>
+        <v>4596.7646484375</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>6265.7998046875</v>
       </c>
       <c r="C164" t="n">
-        <v>6283.13427734375</v>
+        <v>6535.04541015625</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         <v>2916.58203125</v>
       </c>
       <c r="C165" t="n">
-        <v>2888.194580078125</v>
+        <v>3022.2412109375</v>
       </c>
     </row>
     <row r="166">
@@ -2592,7 +2592,7 @@
         <v>6280.68017578125</v>
       </c>
       <c r="C166" t="n">
-        <v>6293.5859375</v>
+        <v>6402.4990234375</v>
       </c>
     </row>
     <row r="167">
@@ -2605,7 +2605,7 @@
         <v>3061.944091796875</v>
       </c>
       <c r="C167" t="n">
-        <v>3338.9033203125</v>
+        <v>3187.398681640625</v>
       </c>
     </row>
     <row r="168">
@@ -2618,7 +2618,7 @@
         <v>3616.907958984375</v>
       </c>
       <c r="C168" t="n">
-        <v>3681.46142578125</v>
+        <v>3774.677734375</v>
       </c>
     </row>
     <row r="169">
@@ -2631,7 +2631,7 @@
         <v>4549.02001953125</v>
       </c>
       <c r="C169" t="n">
-        <v>4727.556640625</v>
+        <v>4865.64599609375</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>4397.22021484375</v>
       </c>
       <c r="C170" t="n">
-        <v>4313.21484375</v>
+        <v>4258.5234375</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>3114.719970703125</v>
       </c>
       <c r="C171" t="n">
-        <v>3158.490234375</v>
+        <v>3285.10205078125</v>
       </c>
     </row>
     <row r="172">
@@ -2670,7 +2670,7 @@
         <v>5853.11376953125</v>
       </c>
       <c r="C172" t="n">
-        <v>5709.56103515625</v>
+        <v>5850.8427734375</v>
       </c>
     </row>
     <row r="173">
@@ -2683,7 +2683,7 @@
         <v>6118.31982421875</v>
       </c>
       <c r="C173" t="n">
-        <v>5836.64501953125</v>
+        <v>6037.72216796875</v>
       </c>
     </row>
     <row r="174">
@@ -2696,7 +2696,7 @@
         <v>3463.283935546875</v>
       </c>
       <c r="C174" t="n">
-        <v>3417.1201171875</v>
+        <v>3369.646240234375</v>
       </c>
     </row>
     <row r="175">
@@ -2709,7 +2709,7 @@
         <v>2453.159912109375</v>
       </c>
       <c r="C175" t="n">
-        <v>2406.74609375</v>
+        <v>2405.0576171875</v>
       </c>
     </row>
     <row r="176">
@@ -2722,7 +2722,7 @@
         <v>2712.258056640625</v>
       </c>
       <c r="C176" t="n">
-        <v>3056.559326171875</v>
+        <v>3141.26318359375</v>
       </c>
     </row>
     <row r="177">
@@ -2735,7 +2735,7 @@
         <v>3005.087890625</v>
       </c>
       <c r="C177" t="n">
-        <v>2905.00439453125</v>
+        <v>2813.440185546875</v>
       </c>
     </row>
     <row r="178">
@@ -2748,7 +2748,7 @@
         <v>2869.919921875</v>
       </c>
       <c r="C178" t="n">
-        <v>2920.45263671875</v>
+        <v>2924.7626953125</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>1708.109985351562</v>
       </c>
       <c r="C179" t="n">
-        <v>1593.215087890625</v>
+        <v>1781.166259765625</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>2754.659912109375</v>
       </c>
       <c r="C180" t="n">
-        <v>2607.407470703125</v>
+        <v>2500.787841796875</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>4210.81787109375</v>
       </c>
       <c r="C181" t="n">
-        <v>4131.71923828125</v>
+        <v>4359.66650390625</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>3678.365966796875</v>
       </c>
       <c r="C182" t="n">
-        <v>3809.684326171875</v>
+        <v>3614.70947265625</v>
       </c>
     </row>
     <row r="183">
@@ -2813,7 +2813,7 @@
         <v>4854.07177734375</v>
       </c>
       <c r="C183" t="n">
-        <v>4972.30126953125</v>
+        <v>5255.47265625</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         <v>3959.825927734375</v>
       </c>
       <c r="C184" t="n">
-        <v>4221.7294921875</v>
+        <v>4082.784912109375</v>
       </c>
     </row>
     <row r="185">
@@ -2839,7 +2839,7 @@
         <v>4113.82177734375</v>
       </c>
       <c r="C185" t="n">
-        <v>4359.93115234375</v>
+        <v>4117.833984375</v>
       </c>
     </row>
     <row r="186">
@@ -2852,7 +2852,7 @@
         <v>3163.097900390625</v>
       </c>
       <c r="C186" t="n">
-        <v>3060.23974609375</v>
+        <v>3218.525146484375</v>
       </c>
     </row>
     <row r="187">
@@ -2865,7 +2865,7 @@
         <v>4829.4658203125</v>
       </c>
       <c r="C187" t="n">
-        <v>4639.42919921875</v>
+        <v>4502.388671875</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>3760.7939453125</v>
       </c>
       <c r="C188" t="n">
-        <v>3806.81005859375</v>
+        <v>3710.515869140625</v>
       </c>
     </row>
     <row r="189">
@@ -2891,7 +2891,7 @@
         <v>4050.8701171875</v>
       </c>
       <c r="C189" t="n">
-        <v>4155.84228515625</v>
+        <v>4088.125732421875</v>
       </c>
     </row>
     <row r="190">
@@ -2904,7 +2904,7 @@
         <v>2633.72412109375</v>
       </c>
       <c r="C190" t="n">
-        <v>2520.121337890625</v>
+        <v>2537.291748046875</v>
       </c>
     </row>
     <row r="191">
@@ -2917,7 +2917,7 @@
         <v>3560.489990234375</v>
       </c>
       <c r="C191" t="n">
-        <v>3381.881591796875</v>
+        <v>3207.879150390625</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         <v>6218.64013671875</v>
       </c>
       <c r="C192" t="n">
-        <v>6269.2265625</v>
+        <v>6302.26171875</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>3845.5439453125</v>
       </c>
       <c r="C193" t="n">
-        <v>3939.896728515625</v>
+        <v>3830.893310546875</v>
       </c>
     </row>
     <row r="194">
@@ -2956,7 +2956,7 @@
         <v>4712.90380859375</v>
       </c>
       <c r="C194" t="n">
-        <v>4493.71435546875</v>
+        <v>4341.37841796875</v>
       </c>
     </row>
     <row r="195">
@@ -2969,7 +2969,7 @@
         <v>2721.659912109375</v>
       </c>
       <c r="C195" t="n">
-        <v>2478.28466796875</v>
+        <v>2677.654541015625</v>
       </c>
     </row>
     <row r="196">
@@ -2982,7 +2982,7 @@
         <v>2848.3740234375</v>
       </c>
       <c r="C196" t="n">
-        <v>2777.40576171875</v>
+        <v>2693.114013671875</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         <v>3309.419921875</v>
       </c>
       <c r="C197" t="n">
-        <v>3224.042724609375</v>
+        <v>3265.251708984375</v>
       </c>
     </row>
     <row r="198">
@@ -3008,7 +3008,7 @@
         <v>6055.6201171875</v>
       </c>
       <c r="C198" t="n">
-        <v>5513.8271484375</v>
+        <v>5659.05908203125</v>
       </c>
     </row>
     <row r="199">
@@ -3021,7 +3021,7 @@
         <v>6253.5</v>
       </c>
       <c r="C199" t="n">
-        <v>6063.52490234375</v>
+        <v>5889.94677734375</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>6162.2998046875</v>
       </c>
       <c r="C200" t="n">
-        <v>6318.60791015625</v>
+        <v>6254.9072265625</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>2767.2119140625</v>
       </c>
       <c r="C201" t="n">
-        <v>2772.73974609375</v>
+        <v>2990.173583984375</v>
       </c>
     </row>
     <row r="202">
@@ -3060,7 +3060,7 @@
         <v>2198.166015625</v>
       </c>
       <c r="C202" t="n">
-        <v>2062.818115234375</v>
+        <v>2160.200927734375</v>
       </c>
     </row>
     <row r="203">
@@ -3073,7 +3073,7 @@
         <v>3186.966064453125</v>
       </c>
       <c r="C203" t="n">
-        <v>3045.157958984375</v>
+        <v>2752.570556640625</v>
       </c>
     </row>
     <row r="204">
@@ -3086,7 +3086,7 @@
         <v>6313.6201171875</v>
       </c>
       <c r="C204" t="n">
-        <v>6469.560546875</v>
+        <v>6502.95849609375</v>
       </c>
     </row>
     <row r="205">
@@ -3099,7 +3099,7 @@
         <v>4050.3720703125</v>
       </c>
       <c r="C205" t="n">
-        <v>4077.660400390625</v>
+        <v>3965.794677734375</v>
       </c>
     </row>
     <row r="206">
@@ -3112,7 +3112,7 @@
         <v>3732.929931640625</v>
       </c>
       <c r="C206" t="n">
-        <v>3921.972412109375</v>
+        <v>3826.6533203125</v>
       </c>
     </row>
     <row r="207">
@@ -3125,7 +3125,7 @@
         <v>6215.52001953125</v>
       </c>
       <c r="C207" t="n">
-        <v>5846.6123046875</v>
+        <v>5867.1796875</v>
       </c>
     </row>
     <row r="208">
@@ -3138,7 +3138,7 @@
         <v>2389.236083984375</v>
       </c>
       <c r="C208" t="n">
-        <v>2645.0986328125</v>
+        <v>2652.906494140625</v>
       </c>
     </row>
     <row r="209">
@@ -3151,7 +3151,7 @@
         <v>2324.9580078125</v>
       </c>
       <c r="C209" t="n">
-        <v>2446.142822265625</v>
+        <v>2973.56884765625</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         <v>4843.158203125</v>
       </c>
       <c r="C210" t="n">
-        <v>4753.64892578125</v>
+        <v>4536.97705078125</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>2343.5400390625</v>
       </c>
       <c r="C211" t="n">
-        <v>2232.083251953125</v>
+        <v>2251.3125</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>5022.94189453125</v>
       </c>
       <c r="C212" t="n">
-        <v>5223.51513671875</v>
+        <v>5105.294921875</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>6243.72021484375</v>
       </c>
       <c r="C213" t="n">
-        <v>6483.78759765625</v>
+        <v>6523.3310546875</v>
       </c>
     </row>
     <row r="214">
@@ -3216,7 +3216,7 @@
         <v>3987.89404296875</v>
       </c>
       <c r="C214" t="n">
-        <v>4135.24853515625</v>
+        <v>4008.690185546875</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         <v>2387.837890625</v>
       </c>
       <c r="C215" t="n">
-        <v>2828.371826171875</v>
+        <v>2999.5302734375</v>
       </c>
     </row>
     <row r="216">
@@ -3242,7 +3242,7 @@
         <v>3421.548095703125</v>
       </c>
       <c r="C216" t="n">
-        <v>3260.738037109375</v>
+        <v>3276.8125</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>4121.580078125</v>
       </c>
       <c r="C217" t="n">
-        <v>4221.63330078125</v>
+        <v>4250.6162109375</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>3625.050048828125</v>
       </c>
       <c r="C218" t="n">
-        <v>3440.986083984375</v>
+        <v>3508.79736328125</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>3649.8720703125</v>
       </c>
       <c r="C219" t="n">
-        <v>3400.823486328125</v>
+        <v>3443.36083984375</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>2874.91796875</v>
       </c>
       <c r="C220" t="n">
-        <v>3147.720947265625</v>
+        <v>2868.77880859375</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>3501.281982421875</v>
       </c>
       <c r="C221" t="n">
-        <v>3740.4892578125</v>
+        <v>3555.820556640625</v>
       </c>
     </row>
     <row r="222">
@@ -3320,7 +3320,7 @@
         <v>5644.48779296875</v>
       </c>
       <c r="C222" t="n">
-        <v>5482.6767578125</v>
+        <v>5483.46240234375</v>
       </c>
     </row>
     <row r="223">
@@ -3333,7 +3333,7 @@
         <v>5311.73388671875</v>
       </c>
       <c r="C223" t="n">
-        <v>5410.92041015625</v>
+        <v>5327.94677734375</v>
       </c>
     </row>
     <row r="224">
@@ -3346,7 +3346,7 @@
         <v>2590.416015625</v>
       </c>
       <c r="C224" t="n">
-        <v>2568.646240234375</v>
+        <v>2397.355224609375</v>
       </c>
     </row>
     <row r="225">
@@ -3359,7 +3359,7 @@
         <v>3712.763916015625</v>
       </c>
       <c r="C225" t="n">
-        <v>3655.328857421875</v>
+        <v>3748.9677734375</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         <v>6421.97998046875</v>
       </c>
       <c r="C226" t="n">
-        <v>6200.64013671875</v>
+        <v>6377.89501953125</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>2376.91796875</v>
       </c>
       <c r="C227" t="n">
-        <v>2430.38671875</v>
+        <v>2603.20556640625</v>
       </c>
     </row>
     <row r="228">
@@ -3398,7 +3398,7 @@
         <v>2245.39794921875</v>
       </c>
       <c r="C228" t="n">
-        <v>2204.1474609375</v>
+        <v>2228.229736328125</v>
       </c>
     </row>
     <row r="229">
@@ -3411,7 +3411,7 @@
         <v>5799.94189453125</v>
       </c>
       <c r="C229" t="n">
-        <v>5878.4794921875</v>
+        <v>5584.1396484375</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>3835.7939453125</v>
       </c>
       <c r="C230" t="n">
-        <v>3886.1630859375</v>
+        <v>3839.501220703125</v>
       </c>
     </row>
     <row r="231">
@@ -3437,7 +3437,7 @@
         <v>4549.02001953125</v>
       </c>
       <c r="C231" t="n">
-        <v>4306.03759765625</v>
+        <v>4174.34423828125</v>
       </c>
     </row>
     <row r="232">
@@ -3450,7 +3450,7 @@
         <v>4343.15380859375</v>
       </c>
       <c r="C232" t="n">
-        <v>4978.244140625</v>
+        <v>4466.7255859375</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>3107.243896484375</v>
       </c>
       <c r="C233" t="n">
-        <v>3186.9287109375</v>
+        <v>3270.853515625</v>
       </c>
     </row>
     <row r="234">
@@ -3476,7 +3476,7 @@
         <v>3563.285888671875</v>
       </c>
       <c r="C234" t="n">
-        <v>3381.881591796875</v>
+        <v>3207.87890625</v>
       </c>
     </row>
     <row r="235">
@@ -3489,7 +3489,7 @@
         <v>4179.85791015625</v>
       </c>
       <c r="C235" t="n">
-        <v>4265.2294921875</v>
+        <v>4242.0302734375</v>
       </c>
     </row>
     <row r="236">
@@ -3502,7 +3502,7 @@
         <v>3963.239990234375</v>
       </c>
       <c r="C236" t="n">
-        <v>3914.5908203125</v>
+        <v>3770.21875</v>
       </c>
     </row>
     <row r="237">
@@ -3515,7 +3515,7 @@
         <v>2573.43603515625</v>
       </c>
       <c r="C237" t="n">
-        <v>2346.193603515625</v>
+        <v>2428.180908203125</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         <v>5320.80615234375</v>
       </c>
       <c r="C238" t="n">
-        <v>5349.0185546875</v>
+        <v>5576.9677734375</v>
       </c>
     </row>
     <row r="239">
@@ -3541,7 +3541,7 @@
         <v>2389.236083984375</v>
       </c>
       <c r="C239" t="n">
-        <v>2557.42919921875</v>
+        <v>2387.589599609375</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>3934.43408203125</v>
       </c>
       <c r="C240" t="n">
-        <v>4415.06396484375</v>
+        <v>4361.4541015625</v>
       </c>
     </row>
     <row r="241">
@@ -3567,7 +3567,7 @@
         <v>2605.968017578125</v>
       </c>
       <c r="C241" t="n">
-        <v>2823.33642578125</v>
+        <v>2827.4765625</v>
       </c>
     </row>
     <row r="242">
@@ -3580,7 +3580,7 @@
         <v>2590.800048828125</v>
       </c>
       <c r="C242" t="n">
-        <v>2763.25537109375</v>
+        <v>2676.5869140625</v>
       </c>
     </row>
     <row r="243">
@@ -3593,7 +3593,7 @@
         <v>6050.759765625</v>
       </c>
       <c r="C243" t="n">
-        <v>5069.86083984375</v>
+        <v>5310.6103515625</v>
       </c>
     </row>
     <row r="244">
@@ -3606,7 +3606,7 @@
         <v>6185.4599609375</v>
       </c>
       <c r="C244" t="n">
-        <v>6164.73486328125</v>
+        <v>6155.92626953125</v>
       </c>
     </row>
     <row r="245">
@@ -3619,7 +3619,7 @@
         <v>2533.9560546875</v>
       </c>
       <c r="C245" t="n">
-        <v>2637.13818359375</v>
+        <v>2515.48046875</v>
       </c>
     </row>
     <row r="246">
@@ -3632,7 +3632,7 @@
         <v>3180.221923828125</v>
       </c>
       <c r="C246" t="n">
-        <v>3063.714599609375</v>
+        <v>3280.205078125</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>6275.10009765625</v>
       </c>
       <c r="C247" t="n">
-        <v>6326.28369140625</v>
+        <v>6193.74560546875</v>
       </c>
     </row>
     <row r="248">
@@ -3658,7 +3658,7 @@
         <v>5161.0078125</v>
       </c>
       <c r="C248" t="n">
-        <v>4646.5458984375</v>
+        <v>4980.5625</v>
       </c>
     </row>
     <row r="249">
@@ -3671,7 +3671,7 @@
         <v>2949.251953125</v>
       </c>
       <c r="C249" t="n">
-        <v>3173.0732421875</v>
+        <v>3120.769775390625</v>
       </c>
     </row>
     <row r="250">
@@ -3684,7 +3684,7 @@
         <v>5862.0361328125</v>
       </c>
       <c r="C250" t="n">
-        <v>5557.87744140625</v>
+        <v>5708.8447265625</v>
       </c>
     </row>
     <row r="251">
@@ -3697,7 +3697,7 @@
         <v>2382.27001953125</v>
       </c>
       <c r="C251" t="n">
-        <v>2575.564453125</v>
+        <v>2845.28515625</v>
       </c>
     </row>
     <row r="252">
@@ -3710,7 +3710,7 @@
         <v>2013.534057617188</v>
       </c>
       <c r="C252" t="n">
-        <v>2198.514892578125</v>
+        <v>2282.040771484375</v>
       </c>
     </row>
     <row r="253">
@@ -3723,7 +3723,7 @@
         <v>3694.0439453125</v>
       </c>
       <c r="C253" t="n">
-        <v>3947.755859375</v>
+        <v>3926.67138671875</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
         <v>5322.7021484375</v>
       </c>
       <c r="C254" t="n">
-        <v>5439.16259765625</v>
+        <v>5645.05712890625</v>
       </c>
     </row>
     <row r="255">
@@ -3749,7 +3749,7 @@
         <v>4741.8359375</v>
       </c>
       <c r="C255" t="n">
-        <v>5057.76513671875</v>
+        <v>4955.93505859375</v>
       </c>
     </row>
     <row r="256">
@@ -3762,7 +3762,7 @@
         <v>4309.1337890625</v>
       </c>
       <c r="C256" t="n">
-        <v>4591.6064453125</v>
+        <v>4270.44189453125</v>
       </c>
     </row>
     <row r="257">
@@ -3775,7 +3775,7 @@
         <v>5407.169921875</v>
       </c>
       <c r="C257" t="n">
-        <v>5264.41259765625</v>
+        <v>5301.68359375</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         <v>2612.736083984375</v>
       </c>
       <c r="C258" t="n">
-        <v>2503.026611328125</v>
+        <v>2674.06494140625</v>
       </c>
     </row>
     <row r="259">
@@ -3801,7 +3801,7 @@
         <v>6106.3798828125</v>
       </c>
       <c r="C259" t="n">
-        <v>5799.22705078125</v>
+        <v>5583.68603515625</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
         <v>6137.8798828125</v>
       </c>
       <c r="C260" t="n">
-        <v>6011.99462890625</v>
+        <v>5927.5224609375</v>
       </c>
     </row>
     <row r="261">
@@ -3827,7 +3827,7 @@
         <v>6267.60009765625</v>
       </c>
       <c r="C261" t="n">
-        <v>5941.74951171875</v>
+        <v>6067.48583984375</v>
       </c>
     </row>
     <row r="262">
@@ -3840,7 +3840,7 @@
         <v>2965.85400390625</v>
       </c>
       <c r="C262" t="n">
-        <v>3458.17578125</v>
+        <v>3524.27099609375</v>
       </c>
     </row>
     <row r="263">
@@ -3853,7 +3853,7 @@
         <v>5050.248046875</v>
       </c>
       <c r="C263" t="n">
-        <v>5248.4375</v>
+        <v>5399.060546875</v>
       </c>
     </row>
     <row r="264">
@@ -3866,7 +3866,7 @@
         <v>6223.080078125</v>
       </c>
       <c r="C264" t="n">
-        <v>6101.93310546875</v>
+        <v>5914.55029296875</v>
       </c>
     </row>
     <row r="265">
@@ -3879,7 +3879,7 @@
         <v>3653.10595703125</v>
       </c>
       <c r="C265" t="n">
-        <v>3708.635009765625</v>
+        <v>3755.878662109375</v>
       </c>
     </row>
     <row r="266">
@@ -3892,7 +3892,7 @@
         <v>1939.302001953125</v>
       </c>
       <c r="C266" t="n">
-        <v>2107.53076171875</v>
+        <v>2046.41650390625</v>
       </c>
     </row>
     <row r="267">
@@ -3905,7 +3905,7 @@
         <v>2929.001953125</v>
       </c>
       <c r="C267" t="n">
-        <v>2925.494140625</v>
+        <v>2968.97216796875</v>
       </c>
     </row>
     <row r="268">
@@ -3918,7 +3918,7 @@
         <v>4382.580078125</v>
       </c>
       <c r="C268" t="n">
-        <v>4462.82470703125</v>
+        <v>4829.65087890625</v>
       </c>
     </row>
     <row r="269">
@@ -3931,7 +3931,7 @@
         <v>4700.333984375</v>
       </c>
       <c r="C269" t="n">
-        <v>4385.37744140625</v>
+        <v>4288.7705078125</v>
       </c>
     </row>
     <row r="270">
@@ -3944,7 +3944,7 @@
         <v>1925.244018554688</v>
       </c>
       <c r="C270" t="n">
-        <v>2029.049560546875</v>
+        <v>2174.465576171875</v>
       </c>
     </row>
     <row r="271">
@@ -3957,7 +3957,7 @@
         <v>3739.583984375</v>
       </c>
       <c r="C271" t="n">
-        <v>3485.243896484375</v>
+        <v>3928.775390625</v>
       </c>
     </row>
     <row r="272">
@@ -3970,7 +3970,7 @@
         <v>3061.944091796875</v>
       </c>
       <c r="C272" t="n">
-        <v>3091.6708984375</v>
+        <v>3022.36083984375</v>
       </c>
     </row>
     <row r="273">
@@ -3983,7 +3983,7 @@
         <v>3158.9580078125</v>
       </c>
       <c r="C273" t="n">
-        <v>3088.594970703125</v>
+        <v>2982.370361328125</v>
       </c>
     </row>
     <row r="274">
@@ -3996,7 +3996,7 @@
         <v>4283.333984375</v>
       </c>
       <c r="C274" t="n">
-        <v>4026.911865234375</v>
+        <v>4255.2236328125</v>
       </c>
     </row>
     <row r="275">
@@ -4009,7 +4009,7 @@
         <v>4162.30810546875</v>
       </c>
       <c r="C275" t="n">
-        <v>4236.7734375</v>
+        <v>4271.0068359375</v>
       </c>
     </row>
     <row r="276">
@@ -4022,7 +4022,7 @@
         <v>5416.7939453125</v>
       </c>
       <c r="C276" t="n">
-        <v>5082.74169921875</v>
+        <v>4900.3701171875</v>
       </c>
     </row>
     <row r="277">
@@ -4035,7 +4035,7 @@
         <v>4695.2880859375</v>
       </c>
       <c r="C277" t="n">
-        <v>4526.96435546875</v>
+        <v>4384.251953125</v>
       </c>
     </row>
     <row r="278">
@@ -4048,7 +4048,7 @@
         <v>2614.2958984375</v>
       </c>
       <c r="C278" t="n">
-        <v>2786.117919921875</v>
+        <v>2727.382080078125</v>
       </c>
     </row>
     <row r="279">
@@ -4061,7 +4061,7 @@
         <v>6077.8798828125</v>
       </c>
       <c r="C279" t="n">
-        <v>5795.431640625</v>
+        <v>5555.21240234375</v>
       </c>
     </row>
     <row r="280">
@@ -4074,7 +4074,7 @@
         <v>3914.285888671875</v>
       </c>
       <c r="C280" t="n">
-        <v>4272.81787109375</v>
+        <v>3952.305419921875</v>
       </c>
     </row>
     <row r="281">
@@ -4087,7 +4087,7 @@
         <v>3793.85400390625</v>
       </c>
       <c r="C281" t="n">
-        <v>3626.767333984375</v>
+        <v>3758.504150390625</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         <v>4482.1201171875</v>
       </c>
       <c r="C282" t="n">
-        <v>4361.1884765625</v>
+        <v>4296.1171875</v>
       </c>
     </row>
     <row r="283">
@@ -4113,7 +4113,7 @@
         <v>6105.89990234375</v>
       </c>
       <c r="C283" t="n">
-        <v>5746.556640625</v>
+        <v>5603.9560546875</v>
       </c>
     </row>
     <row r="284">
@@ -4126,7 +4126,7 @@
         <v>4450.169921875</v>
       </c>
       <c r="C284" t="n">
-        <v>4490.20849609375</v>
+        <v>4621.31396484375</v>
       </c>
     </row>
     <row r="285">
@@ -4139,7 +4139,7 @@
         <v>4653.11376953125</v>
       </c>
       <c r="C285" t="n">
-        <v>4614.60009765625</v>
+        <v>4975.1455078125</v>
       </c>
     </row>
     <row r="286">
@@ -4152,7 +4152,7 @@
         <v>6146.580078125</v>
       </c>
       <c r="C286" t="n">
-        <v>5771.3740234375</v>
+        <v>5819.36669921875</v>
       </c>
     </row>
     <row r="287">
@@ -4165,7 +4165,7 @@
         <v>2726.364013671875</v>
       </c>
       <c r="C287" t="n">
-        <v>2651.89013671875</v>
+        <v>2755.37939453125</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         <v>4393.64404296875</v>
       </c>
       <c r="C288" t="n">
-        <v>4881.1474609375</v>
+        <v>4819.1220703125</v>
       </c>
     </row>
     <row r="289">
@@ -4191,7 +4191,7 @@
         <v>5235.26416015625</v>
       </c>
       <c r="C289" t="n">
-        <v>5292.24365234375</v>
+        <v>5427.0546875</v>
       </c>
     </row>
     <row r="290">
@@ -4204,7 +4204,7 @@
         <v>4644.40185546875</v>
       </c>
       <c r="C290" t="n">
-        <v>4465.70947265625</v>
+        <v>4474.865234375</v>
       </c>
     </row>
     <row r="291">
@@ -4217,7 +4217,7 @@
         <v>5968.1279296875</v>
       </c>
       <c r="C291" t="n">
-        <v>5488.31982421875</v>
+        <v>5583.31591796875</v>
       </c>
     </row>
     <row r="292">
@@ -4230,7 +4230,7 @@
         <v>6142.97998046875</v>
       </c>
       <c r="C292" t="n">
-        <v>6156.84619140625</v>
+        <v>5969.08544921875</v>
       </c>
     </row>
     <row r="293">
@@ -4243,7 +4243,7 @@
         <v>4075.134033203125</v>
       </c>
       <c r="C293" t="n">
-        <v>4074.56640625</v>
+        <v>4433.52294921875</v>
       </c>
     </row>
     <row r="294">
@@ -4256,7 +4256,7 @@
         <v>1886.567993164062</v>
       </c>
       <c r="C294" t="n">
-        <v>2012.692504882812</v>
+        <v>1968.474243164062</v>
       </c>
     </row>
     <row r="295">
@@ -4269,7 +4269,7 @@
         <v>4037.988037109375</v>
       </c>
       <c r="C295" t="n">
-        <v>4014.0966796875</v>
+        <v>4223.02587890625</v>
       </c>
     </row>
     <row r="296">
@@ -4282,7 +4282,7 @@
         <v>3838.577880859375</v>
       </c>
       <c r="C296" t="n">
-        <v>3866.947265625</v>
+        <v>4017.462890625</v>
       </c>
     </row>
     <row r="297">
@@ -4295,7 +4295,7 @@
         <v>5253.14990234375</v>
       </c>
       <c r="C297" t="n">
-        <v>4919.16552734375</v>
+        <v>5029.33740234375</v>
       </c>
     </row>
     <row r="298">
@@ -4308,7 +4308,7 @@
         <v>6058.56005859375</v>
       </c>
       <c r="C298" t="n">
-        <v>6041.384765625</v>
+        <v>6212.00830078125</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
         <v>6033.5400390625</v>
       </c>
       <c r="C299" t="n">
-        <v>5807.96630859375</v>
+        <v>5728.87890625</v>
       </c>
     </row>
     <row r="300">
@@ -4334,7 +4334,7 @@
         <v>5849.89794921875</v>
       </c>
       <c r="C300" t="n">
-        <v>5039.2353515625</v>
+        <v>5395.9404296875</v>
       </c>
     </row>
     <row r="301">
@@ -4347,7 +4347,7 @@
         <v>2593.367919921875</v>
       </c>
       <c r="C301" t="n">
-        <v>2473.009033203125</v>
+        <v>2458.02294921875</v>
       </c>
     </row>
     <row r="302">
@@ -4360,7 +4360,7 @@
         <v>4285.30810546875</v>
       </c>
       <c r="C302" t="n">
-        <v>3967.6875</v>
+        <v>3757.1767578125</v>
       </c>
     </row>
     <row r="303">
@@ -4373,7 +4373,7 @@
         <v>4810.998046875</v>
       </c>
       <c r="C303" t="n">
-        <v>4985.693359375</v>
+        <v>4871.876953125</v>
       </c>
     </row>
     <row r="304">
@@ -4386,7 +4386,7 @@
         <v>5089.64990234375</v>
       </c>
       <c r="C304" t="n">
-        <v>4880.388671875</v>
+        <v>4964.009765625</v>
       </c>
     </row>
     <row r="305">
@@ -4399,7 +4399,7 @@
         <v>1962.58203125</v>
       </c>
       <c r="C305" t="n">
-        <v>2204.992431640625</v>
+        <v>2072.056884765625</v>
       </c>
     </row>
     <row r="306">
@@ -4412,7 +4412,7 @@
         <v>3064.181884765625</v>
       </c>
       <c r="C306" t="n">
-        <v>3355.889404296875</v>
+        <v>3142.031982421875</v>
       </c>
     </row>
     <row r="307">
@@ -4425,7 +4425,7 @@
         <v>3550.530029296875</v>
       </c>
       <c r="C307" t="n">
-        <v>3431.239501953125</v>
+        <v>3373.546630859375</v>
       </c>
     </row>
     <row r="308">
@@ -4438,7 +4438,7 @@
         <v>3895.2060546875</v>
       </c>
       <c r="C308" t="n">
-        <v>3745.22607421875</v>
+        <v>3814.0048828125</v>
       </c>
     </row>
     <row r="309">
@@ -4451,7 +4451,7 @@
         <v>4828.17578125</v>
       </c>
       <c r="C309" t="n">
-        <v>4772.419921875</v>
+        <v>4930.6669921875</v>
       </c>
     </row>
     <row r="310">
@@ -4464,7 +4464,7 @@
         <v>5183.7958984375</v>
       </c>
       <c r="C310" t="n">
-        <v>5190.4267578125</v>
+        <v>5340.4521484375</v>
       </c>
     </row>
     <row r="311">
@@ -4477,7 +4477,7 @@
         <v>3277.157958984375</v>
       </c>
       <c r="C311" t="n">
-        <v>3110.045166015625</v>
+        <v>2943.431640625</v>
       </c>
     </row>
     <row r="312">
@@ -4490,7 +4490,7 @@
         <v>3427.404052734375</v>
       </c>
       <c r="C312" t="n">
-        <v>3464.768798828125</v>
+        <v>3320.1201171875</v>
       </c>
     </row>
     <row r="313">
@@ -4503,7 +4503,7 @@
         <v>2726.364013671875</v>
       </c>
       <c r="C313" t="n">
-        <v>2762.783935546875</v>
+        <v>2884.26318359375</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
         <v>2227.800048828125</v>
       </c>
       <c r="C314" t="n">
-        <v>2264.656982421875</v>
+        <v>2417.363525390625</v>
       </c>
     </row>
     <row r="315">
@@ -4529,7 +4529,7 @@
         <v>5748.509765625</v>
       </c>
       <c r="C315" t="n">
-        <v>5702.92041015625</v>
+        <v>5839.626953125</v>
       </c>
     </row>
     <row r="316">
@@ -4542,7 +4542,7 @@
         <v>3189.090087890625</v>
       </c>
       <c r="C316" t="n">
-        <v>3434.21484375</v>
+        <v>3276.02197265625</v>
       </c>
     </row>
     <row r="317">
@@ -4555,7 +4555,7 @@
         <v>3591.419921875</v>
       </c>
       <c r="C317" t="n">
-        <v>2867.85107421875</v>
+        <v>3053.804443359375</v>
       </c>
     </row>
     <row r="318">
@@ -4568,7 +4568,7 @@
         <v>2563.39208984375</v>
       </c>
       <c r="C318" t="n">
-        <v>2775.84765625</v>
+        <v>2751.264892578125</v>
       </c>
     </row>
     <row r="319">
@@ -4581,7 +4581,7 @@
         <v>2535.6298828125</v>
       </c>
       <c r="C319" t="n">
-        <v>2896.263671875</v>
+        <v>2758.24169921875</v>
       </c>
     </row>
     <row r="320">
@@ -4594,7 +4594,7 @@
         <v>4204.0498046875</v>
       </c>
       <c r="C320" t="n">
-        <v>4131.3623046875</v>
+        <v>4256.09423828125</v>
       </c>
     </row>
     <row r="321">
@@ -4607,7 +4607,7 @@
         <v>4010.508056640625</v>
       </c>
       <c r="C321" t="n">
-        <v>4186.29150390625</v>
+        <v>4193.837890625</v>
       </c>
     </row>
     <row r="322">
@@ -4620,7 +4620,7 @@
         <v>2930.820068359375</v>
       </c>
       <c r="C322" t="n">
-        <v>2815.067138671875</v>
+        <v>2638.15869140625</v>
       </c>
     </row>
     <row r="323">
@@ -4633,7 +4633,7 @@
         <v>4802.98193359375</v>
       </c>
       <c r="C323" t="n">
-        <v>4939.8447265625</v>
+        <v>5270.58251953125</v>
       </c>
     </row>
     <row r="324">
@@ -4646,7 +4646,7 @@
         <v>2261.093994140625</v>
       </c>
       <c r="C324" t="n">
-        <v>2343.2314453125</v>
+        <v>2322.149169921875</v>
       </c>
     </row>
     <row r="325">
@@ -4659,7 +4659,7 @@
         <v>2113.169921875</v>
       </c>
       <c r="C325" t="n">
-        <v>2118.851318359375</v>
+        <v>2145.4091796875</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
         <v>2270.3701171875</v>
       </c>
       <c r="C326" t="n">
-        <v>2294.353759765625</v>
+        <v>2361.136962890625</v>
       </c>
     </row>
     <row r="327">
@@ -4685,7 +4685,7 @@
         <v>5816.72998046875</v>
       </c>
       <c r="C327" t="n">
-        <v>5777.50048828125</v>
+        <v>5840.0224609375</v>
       </c>
     </row>
     <row r="328">
@@ -4698,7 +4698,7 @@
         <v>2105.7900390625</v>
       </c>
       <c r="C328" t="n">
-        <v>2169.423583984375</v>
+        <v>2081.730224609375</v>
       </c>
     </row>
     <row r="329">
@@ -4711,7 +4711,7 @@
         <v>2244.22802734375</v>
       </c>
       <c r="C329" t="n">
-        <v>2204.1474609375</v>
+        <v>2228.229736328125</v>
       </c>
     </row>
     <row r="330">
@@ -4724,7 +4724,7 @@
         <v>5539.72802734375</v>
       </c>
       <c r="C330" t="n">
-        <v>5735.92578125</v>
+        <v>5842.86328125</v>
       </c>
     </row>
     <row r="331">
@@ -4737,7 +4737,7 @@
         <v>4187.57421875</v>
       </c>
       <c r="C331" t="n">
-        <v>4229.61279296875</v>
+        <v>4243.57080078125</v>
       </c>
     </row>
     <row r="332">
@@ -4750,7 +4750,7 @@
         <v>3742.0439453125</v>
       </c>
       <c r="C332" t="n">
-        <v>4036.342041015625</v>
+        <v>3782.04736328125</v>
       </c>
     </row>
     <row r="333">
@@ -4763,7 +4763,7 @@
         <v>6226.6201171875</v>
       </c>
       <c r="C333" t="n">
-        <v>6321.58544921875</v>
+        <v>6446.6435546875</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         <v>6383.39990234375</v>
       </c>
       <c r="C334" t="n">
-        <v>6517.7919921875</v>
+        <v>6254.705078125</v>
       </c>
     </row>
     <row r="335">
@@ -4789,7 +4789,7 @@
         <v>4020.803955078125</v>
       </c>
       <c r="C335" t="n">
-        <v>3734.987548828125</v>
+        <v>3950.705322265625</v>
       </c>
     </row>
     <row r="336">
@@ -4802,7 +4802,7 @@
         <v>4453.6259765625</v>
       </c>
       <c r="C336" t="n">
-        <v>4735.94482421875</v>
+        <v>4586.12109375</v>
       </c>
     </row>
     <row r="337">
@@ -4815,7 +4815,7 @@
         <v>6227.81982421875</v>
       </c>
       <c r="C337" t="n">
-        <v>6525.5244140625</v>
+        <v>6698.25341796875</v>
       </c>
     </row>
     <row r="338">
@@ -4828,7 +4828,7 @@
         <v>4560.69580078125</v>
       </c>
       <c r="C338" t="n">
-        <v>4261.56982421875</v>
+        <v>4338.150390625</v>
       </c>
     </row>
     <row r="339">
@@ -4841,7 +4841,7 @@
         <v>5093.25</v>
       </c>
       <c r="C339" t="n">
-        <v>4909.1142578125</v>
+        <v>4971.97998046875</v>
       </c>
     </row>
     <row r="340">
@@ -4854,7 +4854,7 @@
         <v>3987.89404296875</v>
       </c>
       <c r="C340" t="n">
-        <v>4153.1240234375</v>
+        <v>4104.41259765625</v>
       </c>
     </row>
     <row r="341">
@@ -4867,7 +4867,7 @@
         <v>5083.1220703125</v>
       </c>
       <c r="C341" t="n">
-        <v>5218.5244140625</v>
+        <v>5004.9892578125</v>
       </c>
     </row>
     <row r="342">
@@ -4880,7 +4880,7 @@
         <v>6177.89990234375</v>
       </c>
       <c r="C342" t="n">
-        <v>6322.556640625</v>
+        <v>6300.1376953125</v>
       </c>
     </row>
     <row r="343">
@@ -4893,7 +4893,7 @@
         <v>2203.697998046875</v>
       </c>
       <c r="C343" t="n">
-        <v>2237.78955078125</v>
+        <v>2223.142333984375</v>
       </c>
     </row>
   </sheetData>
